--- a/work-breakdown-structure.xlsx
+++ b/work-breakdown-structure.xlsx
@@ -5,21 +5,24 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flybird/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flybird/Desktop/wk/FP/excel tools/excel_tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7602F9-2BAE-CC46-9FEF-A4998BF4E191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C4FDFC-8AB0-784D-BF98-F8ACFD5AACBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33640" yWindow="600" windowWidth="21420" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WBS" sheetId="22" r:id="rId1"/>
-    <sheet name="Help" sheetId="21" r:id="rId2"/>
-    <sheet name="©" sheetId="20" r:id="rId3"/>
+    <sheet name="WBS_actual" sheetId="23" r:id="rId1"/>
+    <sheet name="WBS" sheetId="22" r:id="rId2"/>
+    <sheet name="Help" sheetId="21" r:id="rId3"/>
+    <sheet name="©" sheetId="20" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">WBS!$B:$H</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">WBS!$5:$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">WBS!$B:$H</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">WBS_actual!$B:$I</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">WBS!$5:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">WBS_actual!$5:$5</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2017 Vertex42 LLC"</definedName>
     <definedName name="vertex42_id" hidden="1">"work-breakdown-structure.xlsx"</definedName>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>1)</t>
   </si>
@@ -171,6 +174,105 @@
   </si>
   <si>
     <t>This template provides a very basic WBS table that you can use for defining a hierarchical work breakdown structure for a project plan or process.</t>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refrence Data Ingestion</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>POC / SIT</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 tables</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIT test</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Juniper upload files in schedule to GCP DEV</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>POC Juniper upload a file to GCP DEV</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Testing</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAT sign-off</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepare release</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Analysis - understand requirement</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>wirte documents in confluence page for whole end 2 end</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cecilia</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GCP dataset,schema checking, authrozie view </t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arnan</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>release</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health check</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. expection</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">user -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习曲线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,避免团队不稳</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhe</t>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -181,7 +283,7 @@
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="[$-409]ddd\,\ mmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -388,6 +490,12 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="SimSun"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -915,7 +1023,147 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1020,6 +1268,61 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>388145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6D7C51-E79E-014C-9787-80DA41F7E92C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10829925" y="66676"/>
+          <a:ext cx="1428750" cy="321469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1071,7 +1374,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1126,7 +1429,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1501,12 +1804,856 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A24254-DC15-9444-AF5E-7EFD85FF466C}">
+  <dimension ref="B1:L45"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="2" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="3.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="33.75" customHeight="1">
+      <c r="B1" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="I1" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="2:12" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B2" s="5"/>
+      <c r="L2" s="45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="21.75" customHeight="1" thickBot="1">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="41">
+        <v>42737</v>
+      </c>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="I3" s="77"/>
+      <c r="L3" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15" thickBot="1">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="2:12" s="2" customFormat="1" ht="26.25" customHeight="1">
+      <c r="B5" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="2:12" ht="21" customHeight="1">
+      <c r="B6" s="60">
+        <v>1</v>
+      </c>
+      <c r="C6" s="61" t="str">
+        <f ca="1">IF(B6="","",IF(B6&gt;OFFSET(B6,-1,0,1,1),IF(OFFSET(C6,-1,0,1,1)="","1",OFFSET(C6,-1,0,1,1))&amp;REPT(".1",B6-MAX(OFFSET(B6,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C6,-1,0,1,1))),REPT("1.",B6-1)&amp;IFERROR(VALUE(OFFSET(C6,-1,0,1,1))+1,"1"),IF(B6=1,"",IFERROR(LEFT(OFFSET(C6,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C6,-1,0,1,1),".","^",B6-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C6,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C6,-1,0,1,1)))),(B6-1)*LEN(OFFSET(C6,-1,0,1,1))+1,LEN(OFFSET(C6,-1,0,1,1)))))+1)))</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="74"/>
+      <c r="L6" s="67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="21" customHeight="1">
+      <c r="B7" s="59">
+        <v>2</v>
+      </c>
+      <c r="C7" s="61" t="str">
+        <f t="shared" ref="C7:C37" ca="1" si="0">IF(B7="","",IF(B7&gt;OFFSET(B7,-1,0,1,1),IF(OFFSET(C7,-1,0,1,1)="","1",OFFSET(C7,-1,0,1,1))&amp;REPT(".1",B7-MAX(OFFSET(B7,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C7,-1,0,1,1))),REPT("1.",B7-1)&amp;IFERROR(VALUE(OFFSET(C7,-1,0,1,1))+1,"1"),IF(B7=1,"",IFERROR(LEFT(OFFSET(C7,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C7,-1,0,1,1),".","^",B7-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C7,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C7,-1,0,1,1)))),(B7-1)*LEN(OFFSET(C7,-1,0,1,1))+1,LEN(OFFSET(C7,-1,0,1,1)))))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="D7" s="47" t="str">
+        <f>"Task Level "&amp;B7&amp;" Refrence Data Ingestion"</f>
+        <v>Task Level 2 Refrence Data Ingestion</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="36"/>
+    </row>
+    <row r="8" spans="2:12" ht="21" customHeight="1">
+      <c r="B8" s="59">
+        <v>2</v>
+      </c>
+      <c r="C8" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="D8" s="47" t="str">
+        <f t="shared" ref="D8:D30" si="1">"Task Level "&amp;B8&amp;" Description"</f>
+        <v>Task Level 2 Description</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="75"/>
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="2:12" ht="21" customHeight="1">
+      <c r="B9" s="59">
+        <v>3</v>
+      </c>
+      <c r="C9" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2.1</v>
+      </c>
+      <c r="D9" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>Task Level 3 Description</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="75"/>
+      <c r="L9" s="35"/>
+    </row>
+    <row r="10" spans="2:12" ht="21" customHeight="1">
+      <c r="B10" s="59">
+        <v>3</v>
+      </c>
+      <c r="C10" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2.2</v>
+      </c>
+      <c r="D10" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>Task Level 3 Description</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="75"/>
+      <c r="L10" s="35"/>
+    </row>
+    <row r="11" spans="2:12" ht="21" customHeight="1">
+      <c r="B11" s="59">
+        <v>4</v>
+      </c>
+      <c r="C11" s="61" t="str">
+        <f t="shared" ref="C11" ca="1" si="2">IF(B11="","",IF(B11&gt;OFFSET(B11,-1,0,1,1),IF(OFFSET(C11,-1,0,1,1)="","1",OFFSET(C11,-1,0,1,1))&amp;REPT(".1",B11-MAX(OFFSET(B11,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C11,-1,0,1,1))),REPT("1.",B11-1)&amp;IFERROR(VALUE(OFFSET(C11,-1,0,1,1))+1,"1"),IF(B11=1,"",IFERROR(LEFT(OFFSET(C11,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C11,-1,0,1,1),".","^",B11-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C11,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C11,-1,0,1,1)))),(B11-1)*LEN(OFFSET(C11,-1,0,1,1))+1,LEN(OFFSET(C11,-1,0,1,1)))))+1)))</f>
+        <v>1.2.2.1</v>
+      </c>
+      <c r="D11" s="49" t="str">
+        <f t="shared" ref="D11" si="3">"Task Level "&amp;B11&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="75"/>
+      <c r="L11" s="35"/>
+    </row>
+    <row r="12" spans="2:12" ht="21" customHeight="1">
+      <c r="B12" s="59">
+        <v>4</v>
+      </c>
+      <c r="C12" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2.2.2</v>
+      </c>
+      <c r="D12" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="52"/>
+      <c r="G12" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="72"/>
+      <c r="I12" s="75"/>
+      <c r="L12" s="35"/>
+    </row>
+    <row r="13" spans="2:12" ht="21" customHeight="1">
+      <c r="B13" s="59">
+        <v>4</v>
+      </c>
+      <c r="C13" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2.2.3</v>
+      </c>
+      <c r="D13" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="75"/>
+      <c r="L13" s="35"/>
+    </row>
+    <row r="14" spans="2:12" ht="21" customHeight="1">
+      <c r="B14" s="59">
+        <v>4</v>
+      </c>
+      <c r="C14" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2.2.4</v>
+      </c>
+      <c r="D14" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="75"/>
+      <c r="L14" s="35"/>
+    </row>
+    <row r="15" spans="2:12" ht="21" customHeight="1">
+      <c r="B15" s="59">
+        <v>4</v>
+      </c>
+      <c r="C15" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2.2.5</v>
+      </c>
+      <c r="D15" s="49" t="str">
+        <f t="shared" ref="D15" si="4">"Task Level "&amp;B15&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="75"/>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="2:12" ht="21" customHeight="1">
+      <c r="B16" s="59">
+        <v>4</v>
+      </c>
+      <c r="C16" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2.2.6</v>
+      </c>
+      <c r="D16" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="75"/>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="2:12" ht="21" customHeight="1">
+      <c r="B17" s="59">
+        <v>2</v>
+      </c>
+      <c r="C17" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="D17" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>Task Level 2 Description</v>
+      </c>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="75"/>
+      <c r="L17" s="35"/>
+    </row>
+    <row r="18" spans="2:12" ht="21" customHeight="1">
+      <c r="B18" s="59">
+        <v>4</v>
+      </c>
+      <c r="C18" s="61" t="str">
+        <f ca="1">IF(B18="","",IF(B18&gt;OFFSET(B18,-1,0,1,1),IF(OFFSET(C18,-1,0,1,1)="","1",OFFSET(C18,-1,0,1,1))&amp;REPT(".1",B18-MAX(OFFSET(B18,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C18,-1,0,1,1))),REPT("1.",B18-1)&amp;IFERROR(VALUE(OFFSET(C18,-1,0,1,1))+1,"1"),IF(B18=1,"",IFERROR(LEFT(OFFSET(C18,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C18,-1,0,1,1),".","^",B18-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C18,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C18,-1,0,1,1)))),(B18-1)*LEN(OFFSET(C18,-1,0,1,1))+1,LEN(OFFSET(C18,-1,0,1,1)))))+1)))</f>
+        <v>1.3.1.1</v>
+      </c>
+      <c r="D18" s="49" t="str">
+        <f>"Task Level "&amp;B18&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="75"/>
+      <c r="L18" s="35"/>
+    </row>
+    <row r="19" spans="2:12" ht="21" customHeight="1">
+      <c r="B19" s="59">
+        <v>4</v>
+      </c>
+      <c r="C19" s="61" t="str">
+        <f ca="1">IF(B19="","",IF(B19&gt;OFFSET(B19,-1,0,1,1),IF(OFFSET(C19,-1,0,1,1)="","1",OFFSET(C19,-1,0,1,1))&amp;REPT(".1",B19-MAX(OFFSET(B19,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C19,-1,0,1,1))),REPT("1.",B19-1)&amp;IFERROR(VALUE(OFFSET(C19,-1,0,1,1))+1,"1"),IF(B19=1,"",IFERROR(LEFT(OFFSET(C19,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C19,-1,0,1,1),".","^",B19-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C19,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C19,-1,0,1,1)))),(B19-1)*LEN(OFFSET(C19,-1,0,1,1))+1,LEN(OFFSET(C19,-1,0,1,1)))))+1)))</f>
+        <v>1.3.1.2</v>
+      </c>
+      <c r="D19" s="49" t="str">
+        <f>"Task Level "&amp;B19&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="52"/>
+      <c r="G19" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="72"/>
+      <c r="I19" s="75"/>
+      <c r="L19" s="35"/>
+    </row>
+    <row r="20" spans="2:12" ht="21" customHeight="1">
+      <c r="B20" s="59">
+        <v>4</v>
+      </c>
+      <c r="C20" s="61" t="str">
+        <f ca="1">IF(B20="","",IF(B20&gt;OFFSET(B20,-1,0,1,1),IF(OFFSET(C20,-1,0,1,1)="","1",OFFSET(C20,-1,0,1,1))&amp;REPT(".1",B20-MAX(OFFSET(B20,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C20,-1,0,1,1))),REPT("1.",B20-1)&amp;IFERROR(VALUE(OFFSET(C20,-1,0,1,1))+1,"1"),IF(B20=1,"",IFERROR(LEFT(OFFSET(C20,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C20,-1,0,1,1),".","^",B20-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C20,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C20,-1,0,1,1)))),(B20-1)*LEN(OFFSET(C20,-1,0,1,1))+1,LEN(OFFSET(C20,-1,0,1,1)))))+1)))</f>
+        <v>1.3.1.3</v>
+      </c>
+      <c r="D20" s="49" t="str">
+        <f>"Task Level "&amp;B20&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="75"/>
+      <c r="L20" s="35"/>
+    </row>
+    <row r="21" spans="2:12" ht="21" customHeight="1">
+      <c r="B21" s="59">
+        <v>4</v>
+      </c>
+      <c r="C21" s="61" t="str">
+        <f ca="1">IF(B21="","",IF(B21&gt;OFFSET(B21,-1,0,1,1),IF(OFFSET(C21,-1,0,1,1)="","1",OFFSET(C21,-1,0,1,1))&amp;REPT(".1",B21-MAX(OFFSET(B21,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C21,-1,0,1,1))),REPT("1.",B21-1)&amp;IFERROR(VALUE(OFFSET(C21,-1,0,1,1))+1,"1"),IF(B21=1,"",IFERROR(LEFT(OFFSET(C21,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C21,-1,0,1,1),".","^",B21-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C21,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C21,-1,0,1,1)))),(B21-1)*LEN(OFFSET(C21,-1,0,1,1))+1,LEN(OFFSET(C21,-1,0,1,1)))))+1)))</f>
+        <v>1.3.1.4</v>
+      </c>
+      <c r="D21" s="49" t="str">
+        <f>"Task Level "&amp;B21&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="75"/>
+      <c r="L21" s="35"/>
+    </row>
+    <row r="22" spans="2:12" ht="21" customHeight="1">
+      <c r="B22" s="59">
+        <v>1</v>
+      </c>
+      <c r="C22" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="75"/>
+      <c r="L22" s="35"/>
+    </row>
+    <row r="23" spans="2:12" ht="21" customHeight="1">
+      <c r="B23" s="59">
+        <v>2</v>
+      </c>
+      <c r="C23" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="D23" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>Task Level 2 Description</v>
+      </c>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="75"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="2:12" ht="21" customHeight="1">
+      <c r="B24" s="59">
+        <v>3</v>
+      </c>
+      <c r="C24" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1.1</v>
+      </c>
+      <c r="D24" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>Task Level 3 Description</v>
+      </c>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="75"/>
+      <c r="L24" s="35"/>
+    </row>
+    <row r="25" spans="2:12" ht="21" customHeight="1">
+      <c r="B25" s="59">
+        <v>3</v>
+      </c>
+      <c r="C25" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1.2</v>
+      </c>
+      <c r="D25" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>Task Level 3 Description</v>
+      </c>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="75"/>
+      <c r="L25" s="35"/>
+    </row>
+    <row r="26" spans="2:12" ht="21" customHeight="1">
+      <c r="B26" s="59">
+        <v>1</v>
+      </c>
+      <c r="C26" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="75"/>
+      <c r="L26" s="35"/>
+    </row>
+    <row r="27" spans="2:12" ht="21" customHeight="1">
+      <c r="B27" s="59">
+        <v>2</v>
+      </c>
+      <c r="C27" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="D27" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>Task Level 2 Description</v>
+      </c>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="75"/>
+    </row>
+    <row r="28" spans="2:12" ht="21" customHeight="1">
+      <c r="B28" s="59">
+        <v>3</v>
+      </c>
+      <c r="C28" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1.1</v>
+      </c>
+      <c r="D28" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>Task Level 3 Description</v>
+      </c>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="75"/>
+    </row>
+    <row r="29" spans="2:12" ht="21" customHeight="1">
+      <c r="B29" s="59">
+        <v>4</v>
+      </c>
+      <c r="C29" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1.1.1</v>
+      </c>
+      <c r="D29" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="75"/>
+    </row>
+    <row r="30" spans="2:12" ht="21" customHeight="1">
+      <c r="B30" s="59">
+        <v>2</v>
+      </c>
+      <c r="C30" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="D30" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>Task Level 2 Description</v>
+      </c>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="75"/>
+    </row>
+    <row r="31" spans="2:12" ht="21" customHeight="1">
+      <c r="B31" s="59"/>
+      <c r="C31" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="75"/>
+    </row>
+    <row r="32" spans="2:12" ht="21" customHeight="1">
+      <c r="B32" s="59"/>
+      <c r="C32" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="75"/>
+    </row>
+    <row r="33" spans="2:12" ht="21" customHeight="1">
+      <c r="B33" s="59"/>
+      <c r="C33" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="D33" s="46"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="75"/>
+    </row>
+    <row r="34" spans="2:12" ht="21" customHeight="1">
+      <c r="B34" s="59"/>
+      <c r="C34" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="D34" s="46"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="75"/>
+    </row>
+    <row r="35" spans="2:12" ht="21" customHeight="1">
+      <c r="B35" s="59"/>
+      <c r="C35" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="D35" s="46"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="75"/>
+    </row>
+    <row r="36" spans="2:12" ht="21" customHeight="1">
+      <c r="B36" s="59"/>
+      <c r="C36" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="D36" s="46"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="75"/>
+    </row>
+    <row r="37" spans="2:12" ht="21" customHeight="1">
+      <c r="B37" s="68"/>
+      <c r="C37" s="62" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="D37" s="69"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="76"/>
+      <c r="L37" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="D45" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
+  <conditionalFormatting sqref="B6:D10 F6:H7 F12:H12 B12:D13 C14:C15 B22:I37 B21:D21 F21:I21 G8:H10 F8:F11 B16:E16 G16:I16 G13:H13 B17:I18">
+    <cfRule type="expression" dxfId="21" priority="26">
+      <formula>($B6=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I13 I6:I10">
+    <cfRule type="expression" dxfId="20" priority="25">
+      <formula>($B6=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E10 E12:E13">
+    <cfRule type="expression" dxfId="19" priority="24">
+      <formula>($B6=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:H15 B15 D15">
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>($B15=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>($B15=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>($B15=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:H14 B14 D14">
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>($B14=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>($B14=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>($B14=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:H11 B11:D11">
+    <cfRule type="expression" dxfId="12" priority="11">
+      <formula>($B11=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>($B11=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="expression" dxfId="10" priority="9">
+      <formula>($B11=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>($B19=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>($B21=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:D19 F19 H19:I19">
+    <cfRule type="expression" dxfId="7" priority="6">
+      <formula>($B19=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>($B19=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F16">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>($B13=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:D20 F20:I20">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>($B20=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>($B20=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="B6:B37" xr:uid="{4928B118-1765-5C49-9423-FFD10A686620}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="L3" r:id="rId1" xr:uid="{5BD9AAFA-9CEB-DA43-B64D-575E37D07E5A}"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.35" right="0.35" top="0.4" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8&amp;K01+047WBS Template © 2017 Vertex42 LLC&amp;R&amp;8&amp;K01+047https://www.vertex42.com/ExcelTemplates/work-breakdown-structure.html</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:K30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="14"/>
@@ -1997,12 +3144,12 @@
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="B6:G30">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>($B6=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>($B6=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2024,7 +3171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E38"/>
@@ -2321,7 +3468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C28"/>

--- a/work-breakdown-structure.xlsx
+++ b/work-breakdown-structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flybird/Desktop/wk/FP/excel tools/excel_tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C4FDFC-8AB0-784D-BF98-F8ACFD5AACBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8584E7-DD7F-2E43-A0CC-13A100B29FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">WBS!$B:$H</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">WBS_actual!$B:$I</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">WBS_actual!$B:$J</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WBS!$5:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">WBS_actual!$5:$5</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -29,11 +29,12 @@
     <definedName name="vertex42_title" hidden="1">"Work Breakdown Structure Template"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="103">
   <si>
     <t>1)</t>
   </si>
@@ -180,10 +181,6 @@
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
-    <t>Refrence Data Ingestion</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
     <t>POC / SIT</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
@@ -244,34 +241,162 @@
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
-    <t>1. expection</t>
+    <t>IHUBDB-843</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">user -- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学习曲线</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,避免团队不稳</t>
-    </r>
+    <t>Q3 commit</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
-    <t>zhe</t>
+    <t>Q3 timeline 9.24</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMM / Mortgage Securitisation</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>IHUBDB-233</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Young</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 tables</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only Dev for Q3</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>POC Juniper upload a file to GCP DEV ( copy book + data)</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>spin up vm, run python/java program to convert into BG table</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>spin up vm, run python/java program to convert files into BG table</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>IHUBDB-227</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference Data Ingestion</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG Data Ingestion</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>RALF Data Ingestion</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Juniper upload files in schedule to GCP Production Server DEV</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>No RDL</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>go to Production Server</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact with Source team, make sure resource available</t>
+  </si>
+  <si>
+    <t>contact with Source team, make sure resource available</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check source location/ ingestion methods ( who trigger juniper)</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is the timeline for RALF</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary Assignee</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secondary Assignee</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSCAR  Data Ingestion</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>No production for Q3</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 tables</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>22 tables</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leon</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>IHUBDB-226</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>IHUBDB-235</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOL Data Ingestion</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>production</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>IHUBDB-1200</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporting</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>50/108 tables</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/13 reports</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mortgage Securitisation</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMM</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
 </sst>
@@ -495,9 +620,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="SimSun"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -821,7 +947,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1018,12 +1144,2065 @@
     <xf numFmtId="177" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="314">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1268,13 +3447,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>388145</xdr:rowOff>
@@ -1805,10 +3984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A24254-DC15-9444-AF5E-7EFD85FF466C}">
-  <dimension ref="B1:L45"/>
+  <dimension ref="B1:M117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83:G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="14"/>
@@ -1817,17 +3996,18 @@
     <col min="2" max="2" width="8.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="3.83203125" style="1"/>
+    <col min="5" max="5" width="71.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="3.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="33.75" customHeight="1">
+    <row r="1" spans="2:13" ht="33.75" customHeight="1">
       <c r="B1" s="42" t="s">
         <v>14</v>
       </c>
@@ -1836,41 +4016,44 @@
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
       <c r="G1" s="44"/>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="44"/>
+      <c r="J1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="2:12" ht="13.5" customHeight="1" thickBot="1">
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="2:13" ht="13.5" customHeight="1" thickBot="1">
       <c r="B2" s="5"/>
-      <c r="L2" s="45" t="s">
+      <c r="M2" s="45" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="21.75" customHeight="1" thickBot="1">
+    <row r="3" spans="2:13" ht="21.75" customHeight="1" thickBot="1">
       <c r="B3" s="40"/>
       <c r="C3" s="40" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="41">
-        <v>42737</v>
+        <v>44378</v>
       </c>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
-      <c r="I3" s="77"/>
-      <c r="L3" s="71" t="s">
+      <c r="G3" s="51"/>
+      <c r="J3" s="77"/>
+      <c r="M3" s="71" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1">
+    <row r="4" spans="2:13" ht="15" thickBot="1">
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="2:12" s="2" customFormat="1" ht="26.25" customHeight="1">
+      <c r="G4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="2:13" s="2" customFormat="1" ht="26.25" customHeight="1">
       <c r="B5" s="63" t="s">
         <v>20</v>
       </c>
@@ -1884,20 +4067,23 @@
         <v>47</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="I5" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="J5" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="2:12" ht="21" customHeight="1">
+      <c r="M5" s="34"/>
+    </row>
+    <row r="6" spans="2:13" ht="21" customHeight="1">
       <c r="B6" s="60">
         <v>1</v>
       </c>
@@ -1906,43 +4092,47 @@
         <v>1</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E6" s="52"/>
       <c r="F6" s="52"/>
-      <c r="G6" s="50"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="50"/>
-      <c r="I6" s="74"/>
-      <c r="L6" s="67" t="s">
+      <c r="I6" s="50"/>
+      <c r="J6" s="74"/>
+      <c r="M6" s="67" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="21" customHeight="1">
+    <row r="7" spans="2:13" ht="21" customHeight="1">
       <c r="B7" s="59">
         <v>2</v>
       </c>
       <c r="C7" s="61" t="str">
-        <f t="shared" ref="C7:C37" ca="1" si="0">IF(B7="","",IF(B7&gt;OFFSET(B7,-1,0,1,1),IF(OFFSET(C7,-1,0,1,1)="","1",OFFSET(C7,-1,0,1,1))&amp;REPT(".1",B7-MAX(OFFSET(B7,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C7,-1,0,1,1))),REPT("1.",B7-1)&amp;IFERROR(VALUE(OFFSET(C7,-1,0,1,1))+1,"1"),IF(B7=1,"",IFERROR(LEFT(OFFSET(C7,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C7,-1,0,1,1),".","^",B7-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C7,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C7,-1,0,1,1)))),(B7-1)*LEN(OFFSET(C7,-1,0,1,1))+1,LEN(OFFSET(C7,-1,0,1,1)))))+1)))</f>
+        <f t="shared" ref="C7:C46" ca="1" si="0">IF(B7="","",IF(B7&gt;OFFSET(B7,-1,0,1,1),IF(OFFSET(C7,-1,0,1,1)="","1",OFFSET(C7,-1,0,1,1))&amp;REPT(".1",B7-MAX(OFFSET(B7,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C7,-1,0,1,1))),REPT("1.",B7-1)&amp;IFERROR(VALUE(OFFSET(C7,-1,0,1,1))+1,"1"),IF(B7=1,"",IFERROR(LEFT(OFFSET(C7,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C7,-1,0,1,1),".","^",B7-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C7,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C7,-1,0,1,1)))),(B7-1)*LEN(OFFSET(C7,-1,0,1,1))+1,LEN(OFFSET(C7,-1,0,1,1)))))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="D7" s="47" t="str">
-        <f>"Task Level "&amp;B7&amp;" Refrence Data Ingestion"</f>
-        <v>Task Level 2 Refrence Data Ingestion</v>
+        <f>"Task Level "&amp;B7&amp;" description"</f>
+        <v>Task Level 2 description</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="36"/>
-    </row>
-    <row r="8" spans="2:12" ht="21" customHeight="1">
+        <v>75</v>
+      </c>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="72">
+        <v>44378</v>
+      </c>
+      <c r="I7" s="72">
+        <v>44456</v>
+      </c>
+      <c r="J7" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="36"/>
+    </row>
+    <row r="8" spans="2:13" ht="21" customHeight="1">
       <c r="B8" s="59">
         <v>2</v>
       </c>
@@ -1951,21 +4141,26 @@
         <v>1.2</v>
       </c>
       <c r="D8" s="47" t="str">
-        <f t="shared" ref="D8:D30" si="1">"Task Level "&amp;B8&amp;" Description"</f>
+        <f t="shared" ref="D8:D20" si="1">"Task Level "&amp;B8&amp;" Description"</f>
         <v>Task Level 2 Description</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="72"/>
+        <v>85</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>58</v>
+      </c>
       <c r="H8" s="72"/>
-      <c r="I8" s="75"/>
-      <c r="L8" s="36"/>
-    </row>
-    <row r="9" spans="2:12" ht="21" customHeight="1">
+      <c r="I8" s="72"/>
+      <c r="J8" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="36"/>
+    </row>
+    <row r="9" spans="2:13" ht="21" customHeight="1">
       <c r="B9" s="59">
         <v>3</v>
       </c>
@@ -1978,17 +4173,22 @@
         <v>Task Level 3 Description</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="72"/>
+        <v>85</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>58</v>
+      </c>
       <c r="H9" s="72"/>
-      <c r="I9" s="75"/>
-      <c r="L9" s="35"/>
-    </row>
-    <row r="10" spans="2:12" ht="21" customHeight="1">
+      <c r="I9" s="72"/>
+      <c r="J9" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="2:13" ht="21" customHeight="1">
       <c r="B10" s="59">
         <v>3</v>
       </c>
@@ -2001,641 +4201,3938 @@
         <v>Task Level 3 Description</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="72"/>
+        <v>85</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>58</v>
+      </c>
       <c r="H10" s="72"/>
-      <c r="I10" s="75"/>
-      <c r="L10" s="35"/>
-    </row>
-    <row r="11" spans="2:12" ht="21" customHeight="1">
+      <c r="I10" s="72"/>
+      <c r="J10" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="35"/>
+    </row>
+    <row r="11" spans="2:13" ht="21" customHeight="1">
       <c r="B11" s="59">
         <v>4</v>
       </c>
       <c r="C11" s="61" t="str">
-        <f t="shared" ref="C11" ca="1" si="2">IF(B11="","",IF(B11&gt;OFFSET(B11,-1,0,1,1),IF(OFFSET(C11,-1,0,1,1)="","1",OFFSET(C11,-1,0,1,1))&amp;REPT(".1",B11-MAX(OFFSET(B11,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C11,-1,0,1,1))),REPT("1.",B11-1)&amp;IFERROR(VALUE(OFFSET(C11,-1,0,1,1))+1,"1"),IF(B11=1,"",IFERROR(LEFT(OFFSET(C11,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C11,-1,0,1,1),".","^",B11-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C11,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C11,-1,0,1,1)))),(B11-1)*LEN(OFFSET(C11,-1,0,1,1))+1,LEN(OFFSET(C11,-1,0,1,1)))))+1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1.2.2.1</v>
       </c>
       <c r="D11" s="49" t="str">
-        <f t="shared" ref="D11" si="3">"Task Level "&amp;B11&amp;" Description"</f>
+        <f t="shared" si="1"/>
         <v>Task Level 4 Description</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="72"/>
+        <v>85</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>58</v>
+      </c>
       <c r="H11" s="72"/>
-      <c r="I11" s="75"/>
-      <c r="L11" s="35"/>
-    </row>
-    <row r="12" spans="2:12" ht="21" customHeight="1">
+      <c r="I11" s="72"/>
+      <c r="J11" s="75"/>
+      <c r="M11" s="35"/>
+    </row>
+    <row r="12" spans="2:13" ht="21" customHeight="1">
       <c r="B12" s="59">
+        <v>5</v>
+      </c>
+      <c r="C12" s="61" t="str">
+        <f ca="1">IF(B12="","",IF(B12&gt;OFFSET(B12,-1,0,1,1),IF(OFFSET(C12,-1,0,1,1)="","1",OFFSET(C12,-1,0,1,1))&amp;REPT(".1",B12-MAX(OFFSET(B12,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C12,-1,0,1,1))),REPT("1.",B12-1)&amp;IFERROR(VALUE(OFFSET(C12,-1,0,1,1))+1,"1"),IF(B12=1,"",IFERROR(LEFT(OFFSET(C12,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C12,-1,0,1,1),".","^",B12-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C12,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C12,-1,0,1,1)))),(B12-1)*LEN(OFFSET(C12,-1,0,1,1))+1,LEN(OFFSET(C12,-1,0,1,1)))))+1)))</f>
+        <v>1.2.2.1.1</v>
+      </c>
+      <c r="D12" s="49" t="str">
+        <f>"Task Level "&amp;B12&amp;" Description"</f>
+        <v>Task Level 5 Description</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="75"/>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="2:13" ht="21" customHeight="1">
+      <c r="B13" s="59">
         <v>4</v>
       </c>
-      <c r="C12" s="61" t="str">
+      <c r="C13" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>1.2.2.2</v>
-      </c>
-      <c r="D12" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>Task Level 4 Description</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="72"/>
-      <c r="I12" s="75"/>
-      <c r="L12" s="35"/>
-    </row>
-    <row r="13" spans="2:12" ht="21" customHeight="1">
-      <c r="B13" s="59">
-        <v>4</v>
-      </c>
-      <c r="C13" s="61" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2.2.3</v>
       </c>
       <c r="D13" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Task Level 4 Description</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="72"/>
+        <v>85</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>58</v>
+      </c>
       <c r="H13" s="72"/>
-      <c r="I13" s="75"/>
-      <c r="L13" s="35"/>
-    </row>
-    <row r="14" spans="2:12" ht="21" customHeight="1">
+      <c r="I13" s="72"/>
+      <c r="J13" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="2:13" ht="21" customHeight="1">
       <c r="B14" s="59">
         <v>4</v>
       </c>
       <c r="C14" s="61" t="str">
+        <f ca="1">IF(B14="","",IF(B14&gt;OFFSET(B14,-1,0,1,1),IF(OFFSET(C14,-1,0,1,1)="","1",OFFSET(C14,-1,0,1,1))&amp;REPT(".1",B14-MAX(OFFSET(B14,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C14,-1,0,1,1))),REPT("1.",B14-1)&amp;IFERROR(VALUE(OFFSET(C14,-1,0,1,1))+1,"1"),IF(B14=1,"",IFERROR(LEFT(OFFSET(C14,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C14,-1,0,1,1),".","^",B14-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C14,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C14,-1,0,1,1)))),(B14-1)*LEN(OFFSET(C14,-1,0,1,1))+1,LEN(OFFSET(C14,-1,0,1,1)))))+1)))</f>
+        <v>1.2.2.3</v>
+      </c>
+      <c r="D14" s="49" t="str">
+        <f>"Task Level "&amp;B14&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="2:13" ht="21" customHeight="1">
+      <c r="B15" s="59">
+        <v>4</v>
+      </c>
+      <c r="C15" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>1.2.2.4</v>
       </c>
-      <c r="D14" s="49" t="str">
+      <c r="D15" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Task Level 4 Description</v>
       </c>
-      <c r="E14" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="52" t="s">
+      <c r="E15" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="75"/>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="2:12" ht="21" customHeight="1">
-      <c r="B15" s="59">
+      <c r="F15" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="52"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="75"/>
+      <c r="M15" s="35"/>
+    </row>
+    <row r="16" spans="2:13" ht="21" customHeight="1">
+      <c r="B16" s="59">
         <v>4</v>
       </c>
-      <c r="C15" s="61" t="str">
+      <c r="C16" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>1.2.2.5</v>
-      </c>
-      <c r="D15" s="49" t="str">
-        <f t="shared" ref="D15" si="4">"Task Level "&amp;B15&amp;" Description"</f>
-        <v>Task Level 4 Description</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="75"/>
-      <c r="L15" s="35"/>
-    </row>
-    <row r="16" spans="2:12" ht="21" customHeight="1">
-      <c r="B16" s="59">
-        <v>4</v>
-      </c>
-      <c r="C16" s="61" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2.2.6</v>
       </c>
       <c r="D16" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Task Level 4 Description</v>
       </c>
       <c r="E16" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="72"/>
       <c r="H16" s="72"/>
-      <c r="I16" s="75"/>
-      <c r="L16" s="35"/>
-    </row>
-    <row r="17" spans="2:12" ht="21" customHeight="1">
+      <c r="I16" s="72"/>
+      <c r="J16" s="75"/>
+      <c r="M16" s="35"/>
+    </row>
+    <row r="17" spans="2:13" ht="21" customHeight="1">
       <c r="B17" s="59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="D17" s="47" t="str">
+        <v>1.2.2.6</v>
+      </c>
+      <c r="D17" s="49" t="str">
         <f t="shared" si="1"/>
-        <v>Task Level 2 Description</v>
-      </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="72"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>58</v>
+      </c>
       <c r="H17" s="72"/>
-      <c r="I17" s="75"/>
-      <c r="L17" s="35"/>
-    </row>
-    <row r="18" spans="2:12" ht="21" customHeight="1">
+      <c r="I17" s="72"/>
+      <c r="J17" s="75"/>
+      <c r="M17" s="35"/>
+    </row>
+    <row r="18" spans="2:13" ht="21" customHeight="1">
       <c r="B18" s="59">
         <v>4</v>
       </c>
       <c r="C18" s="61" t="str">
-        <f ca="1">IF(B18="","",IF(B18&gt;OFFSET(B18,-1,0,1,1),IF(OFFSET(C18,-1,0,1,1)="","1",OFFSET(C18,-1,0,1,1))&amp;REPT(".1",B18-MAX(OFFSET(B18,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C18,-1,0,1,1))),REPT("1.",B18-1)&amp;IFERROR(VALUE(OFFSET(C18,-1,0,1,1))+1,"1"),IF(B18=1,"",IFERROR(LEFT(OFFSET(C18,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C18,-1,0,1,1),".","^",B18-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C18,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C18,-1,0,1,1)))),(B18-1)*LEN(OFFSET(C18,-1,0,1,1))+1,LEN(OFFSET(C18,-1,0,1,1)))))+1)))</f>
-        <v>1.3.1.1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2.2.7</v>
       </c>
       <c r="D18" s="49" t="str">
         <f>"Task Level "&amp;B18&amp;" Description"</f>
         <v>Task Level 4 Description</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="72"/>
+        <v>85</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>58</v>
+      </c>
       <c r="H18" s="72"/>
-      <c r="I18" s="75"/>
-      <c r="L18" s="35"/>
-    </row>
-    <row r="19" spans="2:12" ht="21" customHeight="1">
+      <c r="I18" s="72"/>
+      <c r="J18" s="75"/>
+      <c r="M18" s="35"/>
+    </row>
+    <row r="19" spans="2:13" ht="21" customHeight="1">
       <c r="B19" s="59">
         <v>4</v>
       </c>
       <c r="C19" s="61" t="str">
-        <f ca="1">IF(B19="","",IF(B19&gt;OFFSET(B19,-1,0,1,1),IF(OFFSET(C19,-1,0,1,1)="","1",OFFSET(C19,-1,0,1,1))&amp;REPT(".1",B19-MAX(OFFSET(B19,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C19,-1,0,1,1))),REPT("1.",B19-1)&amp;IFERROR(VALUE(OFFSET(C19,-1,0,1,1))+1,"1"),IF(B19=1,"",IFERROR(LEFT(OFFSET(C19,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C19,-1,0,1,1),".","^",B19-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C19,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C19,-1,0,1,1)))),(B19-1)*LEN(OFFSET(C19,-1,0,1,1))+1,LEN(OFFSET(C19,-1,0,1,1)))))+1)))</f>
-        <v>1.3.1.2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2.2.8</v>
       </c>
       <c r="D19" s="49" t="str">
-        <f>"Task Level "&amp;B19&amp;" Description"</f>
+        <f t="shared" si="1"/>
         <v>Task Level 4 Description</v>
       </c>
       <c r="E19" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="75"/>
+      <c r="M19" s="35"/>
+    </row>
+    <row r="20" spans="2:13" ht="21" customHeight="1">
+      <c r="B20" s="59">
+        <v>2</v>
+      </c>
+      <c r="C20" s="61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="D20" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>Task Level 2 Description</v>
+      </c>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="72"/>
-      <c r="I19" s="75"/>
-      <c r="L19" s="35"/>
-    </row>
-    <row r="20" spans="2:12" ht="21" customHeight="1">
-      <c r="B20" s="59">
-        <v>4</v>
-      </c>
-      <c r="C20" s="61" t="str">
-        <f ca="1">IF(B20="","",IF(B20&gt;OFFSET(B20,-1,0,1,1),IF(OFFSET(C20,-1,0,1,1)="","1",OFFSET(C20,-1,0,1,1))&amp;REPT(".1",B20-MAX(OFFSET(B20,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C20,-1,0,1,1))),REPT("1.",B20-1)&amp;IFERROR(VALUE(OFFSET(C20,-1,0,1,1))+1,"1"),IF(B20=1,"",IFERROR(LEFT(OFFSET(C20,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C20,-1,0,1,1),".","^",B20-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C20,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C20,-1,0,1,1)))),(B20-1)*LEN(OFFSET(C20,-1,0,1,1))+1,LEN(OFFSET(C20,-1,0,1,1)))))+1)))</f>
-        <v>1.3.1.3</v>
-      </c>
-      <c r="D20" s="49" t="str">
-        <f>"Task Level "&amp;B20&amp;" Description"</f>
-        <v>Task Level 4 Description</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="72"/>
+      <c r="G20" s="52"/>
       <c r="H20" s="72"/>
-      <c r="I20" s="75"/>
-      <c r="L20" s="35"/>
-    </row>
-    <row r="21" spans="2:12" ht="21" customHeight="1">
+      <c r="I20" s="72"/>
+      <c r="J20" s="75"/>
+      <c r="M20" s="35"/>
+    </row>
+    <row r="21" spans="2:13" ht="21" customHeight="1">
       <c r="B21" s="59">
         <v>4</v>
       </c>
       <c r="C21" s="61" t="str">
         <f ca="1">IF(B21="","",IF(B21&gt;OFFSET(B21,-1,0,1,1),IF(OFFSET(C21,-1,0,1,1)="","1",OFFSET(C21,-1,0,1,1))&amp;REPT(".1",B21-MAX(OFFSET(B21,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C21,-1,0,1,1))),REPT("1.",B21-1)&amp;IFERROR(VALUE(OFFSET(C21,-1,0,1,1))+1,"1"),IF(B21=1,"",IFERROR(LEFT(OFFSET(C21,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C21,-1,0,1,1),".","^",B21-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C21,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C21,-1,0,1,1)))),(B21-1)*LEN(OFFSET(C21,-1,0,1,1))+1,LEN(OFFSET(C21,-1,0,1,1)))))+1)))</f>
-        <v>1.3.1.4</v>
+        <v>1.3.1.1</v>
       </c>
       <c r="D21" s="49" t="str">
         <f>"Task Level "&amp;B21&amp;" Description"</f>
         <v>Task Level 4 Description</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F21" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="75"/>
+      <c r="M21" s="35"/>
+    </row>
+    <row r="22" spans="2:13" ht="21" customHeight="1">
+      <c r="B22" s="59">
+        <v>4</v>
+      </c>
+      <c r="C22" s="61" t="str">
+        <f ca="1">IF(B22="","",IF(B22&gt;OFFSET(B22,-1,0,1,1),IF(OFFSET(C22,-1,0,1,1)="","1",OFFSET(C22,-1,0,1,1))&amp;REPT(".1",B22-MAX(OFFSET(B22,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C22,-1,0,1,1))),REPT("1.",B22-1)&amp;IFERROR(VALUE(OFFSET(C22,-1,0,1,1))+1,"1"),IF(B22=1,"",IFERROR(LEFT(OFFSET(C22,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C22,-1,0,1,1),".","^",B22-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C22,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C22,-1,0,1,1)))),(B22-1)*LEN(OFFSET(C22,-1,0,1,1))+1,LEN(OFFSET(C22,-1,0,1,1)))))+1)))</f>
+        <v>1.3.1.2</v>
+      </c>
+      <c r="D22" s="49" t="str">
+        <f>"Task Level "&amp;B22&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E22" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="75"/>
-      <c r="L21" s="35"/>
-    </row>
-    <row r="22" spans="2:12" ht="21" customHeight="1">
-      <c r="B22" s="59">
+      <c r="F22" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="52"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="75"/>
+      <c r="M22" s="35"/>
+    </row>
+    <row r="23" spans="2:13" ht="21" customHeight="1">
+      <c r="B23" s="59">
+        <v>4</v>
+      </c>
+      <c r="C23" s="61" t="str">
+        <f ca="1">IF(B23="","",IF(B23&gt;OFFSET(B23,-1,0,1,1),IF(OFFSET(C23,-1,0,1,1)="","1",OFFSET(C23,-1,0,1,1))&amp;REPT(".1",B23-MAX(OFFSET(B23,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C23,-1,0,1,1))),REPT("1.",B23-1)&amp;IFERROR(VALUE(OFFSET(C23,-1,0,1,1))+1,"1"),IF(B23=1,"",IFERROR(LEFT(OFFSET(C23,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C23,-1,0,1,1),".","^",B23-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C23,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C23,-1,0,1,1)))),(B23-1)*LEN(OFFSET(C23,-1,0,1,1))+1,LEN(OFFSET(C23,-1,0,1,1)))))+1)))</f>
+        <v>1.3.1.3</v>
+      </c>
+      <c r="D23" s="49" t="str">
+        <f>"Task Level "&amp;B23&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="75"/>
+      <c r="M23" s="35"/>
+    </row>
+    <row r="24" spans="2:13" ht="21" customHeight="1">
+      <c r="B24" s="59">
+        <v>4</v>
+      </c>
+      <c r="C24" s="61" t="str">
+        <f ca="1">IF(B24="","",IF(B24&gt;OFFSET(B24,-1,0,1,1),IF(OFFSET(C24,-1,0,1,1)="","1",OFFSET(C24,-1,0,1,1))&amp;REPT(".1",B24-MAX(OFFSET(B24,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C24,-1,0,1,1))),REPT("1.",B24-1)&amp;IFERROR(VALUE(OFFSET(C24,-1,0,1,1))+1,"1"),IF(B24=1,"",IFERROR(LEFT(OFFSET(C24,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C24,-1,0,1,1),".","^",B24-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C24,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C24,-1,0,1,1)))),(B24-1)*LEN(OFFSET(C24,-1,0,1,1))+1,LEN(OFFSET(C24,-1,0,1,1)))))+1)))</f>
+        <v>1.3.1.4</v>
+      </c>
+      <c r="D24" s="49" t="str">
+        <f>"Task Level "&amp;B24&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="75"/>
+      <c r="M24" s="35"/>
+    </row>
+    <row r="25" spans="2:13" ht="21" customHeight="1">
+      <c r="B25" s="59">
         <v>1</v>
       </c>
-      <c r="C22" s="61" t="str">
+      <c r="C25" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="D22" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="75"/>
-      <c r="L22" s="35"/>
-    </row>
-    <row r="23" spans="2:12" ht="21" customHeight="1">
-      <c r="B23" s="59">
-        <v>2</v>
-      </c>
-      <c r="C23" s="61" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="D23" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>Task Level 2 Description</v>
-      </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="75"/>
-      <c r="L23" s="35"/>
-    </row>
-    <row r="24" spans="2:12" ht="21" customHeight="1">
-      <c r="B24" s="59">
-        <v>3</v>
-      </c>
-      <c r="C24" s="61" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1.1</v>
-      </c>
-      <c r="D24" s="48" t="str">
-        <f t="shared" si="1"/>
-        <v>Task Level 3 Description</v>
-      </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="75"/>
-      <c r="L24" s="35"/>
-    </row>
-    <row r="25" spans="2:12" ht="21" customHeight="1">
-      <c r="B25" s="59">
-        <v>3</v>
-      </c>
-      <c r="C25" s="61" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1.2</v>
-      </c>
-      <c r="D25" s="48" t="str">
-        <f t="shared" si="1"/>
-        <v>Task Level 3 Description</v>
+      <c r="D25" s="46" t="s">
+        <v>67</v>
       </c>
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
-      <c r="G25" s="72"/>
+      <c r="G25" s="52"/>
       <c r="H25" s="72"/>
-      <c r="I25" s="75"/>
-      <c r="L25" s="35"/>
-    </row>
-    <row r="26" spans="2:12" ht="21" customHeight="1">
+      <c r="I25" s="72"/>
+      <c r="J25" s="75"/>
+      <c r="M25" s="35"/>
+    </row>
+    <row r="26" spans="2:13" ht="21" customHeight="1">
       <c r="B26" s="59">
+        <v>2</v>
+      </c>
+      <c r="C26" s="61" t="str">
+        <f t="shared" ref="C26:C32" ca="1" si="2">IF(B26="","",IF(B26&gt;OFFSET(B26,-1,0,1,1),IF(OFFSET(C26,-1,0,1,1)="","1",OFFSET(C26,-1,0,1,1))&amp;REPT(".1",B26-MAX(OFFSET(B26,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C26,-1,0,1,1))),REPT("1.",B26-1)&amp;IFERROR(VALUE(OFFSET(C26,-1,0,1,1))+1,"1"),IF(B26=1,"",IFERROR(LEFT(OFFSET(C26,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C26,-1,0,1,1),".","^",B26-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C26,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C26,-1,0,1,1)))),(B26-1)*LEN(OFFSET(C26,-1,0,1,1))+1,LEN(OFFSET(C26,-1,0,1,1)))))+1)))</f>
+        <v>2.1</v>
+      </c>
+      <c r="D26" s="47" t="str">
+        <f>"Task Level "&amp;B26&amp;" description"</f>
+        <v>Task Level 2 description</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="72">
+        <v>44378</v>
+      </c>
+      <c r="I26" s="72">
+        <v>44456</v>
+      </c>
+      <c r="J26" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" s="36"/>
+    </row>
+    <row r="27" spans="2:13" ht="21" customHeight="1">
+      <c r="B27" s="59">
+        <v>2</v>
+      </c>
+      <c r="C27" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2</v>
+      </c>
+      <c r="D27" s="47" t="str">
+        <f t="shared" ref="D27:D32" si="3">"Task Level "&amp;B27&amp;" Description"</f>
+        <v>Task Level 2 Description</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="52"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" s="36"/>
+    </row>
+    <row r="28" spans="2:13" ht="21" customHeight="1">
+      <c r="B28" s="59">
+        <v>3</v>
+      </c>
+      <c r="C28" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2.1</v>
+      </c>
+      <c r="D28" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>Task Level 3 Description</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="52"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="M28" s="35"/>
+    </row>
+    <row r="29" spans="2:13" ht="21" customHeight="1">
+      <c r="B29" s="59">
+        <v>3</v>
+      </c>
+      <c r="C29" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2.2</v>
+      </c>
+      <c r="D29" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>Task Level 3 Description</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="52"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="M29" s="35"/>
+    </row>
+    <row r="30" spans="2:13" ht="21" customHeight="1">
+      <c r="B30" s="59">
+        <v>4</v>
+      </c>
+      <c r="C30" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2.2.1</v>
+      </c>
+      <c r="D30" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="52"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="M30" s="35"/>
+    </row>
+    <row r="31" spans="2:13" ht="21" customHeight="1">
+      <c r="B31" s="59">
+        <v>5</v>
+      </c>
+      <c r="C31" s="61" t="str">
+        <f ca="1">IF(B31="","",IF(B31&gt;OFFSET(B31,-1,0,1,1),IF(OFFSET(C31,-1,0,1,1)="","1",OFFSET(C31,-1,0,1,1))&amp;REPT(".1",B31-MAX(OFFSET(B31,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C31,-1,0,1,1))),REPT("1.",B31-1)&amp;IFERROR(VALUE(OFFSET(C31,-1,0,1,1))+1,"1"),IF(B31=1,"",IFERROR(LEFT(OFFSET(C31,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C31,-1,0,1,1),".","^",B31-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C31,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C31,-1,0,1,1)))),(B31-1)*LEN(OFFSET(C31,-1,0,1,1))+1,LEN(OFFSET(C31,-1,0,1,1)))))+1)))</f>
+        <v>2.2.2.1.1</v>
+      </c>
+      <c r="D31" s="49" t="str">
+        <f>"Task Level "&amp;B31&amp;" Description"</f>
+        <v>Task Level 5 Description</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="52"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="75"/>
+      <c r="M31" s="35"/>
+    </row>
+    <row r="32" spans="2:13" ht="21" customHeight="1">
+      <c r="B32" s="59">
+        <v>4</v>
+      </c>
+      <c r="C32" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2.2.2</v>
+      </c>
+      <c r="D32" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="52"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="75"/>
+      <c r="M32" s="35"/>
+    </row>
+    <row r="33" spans="2:13" ht="21" customHeight="1">
+      <c r="B33" s="59">
+        <v>4</v>
+      </c>
+      <c r="C33" s="61" t="str">
+        <f ca="1">IF(B33="","",IF(B33&gt;OFFSET(B33,-1,0,1,1),IF(OFFSET(C33,-1,0,1,1)="","1",OFFSET(C33,-1,0,1,1))&amp;REPT(".1",B33-MAX(OFFSET(B33,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C33,-1,0,1,1))),REPT("1.",B33-1)&amp;IFERROR(VALUE(OFFSET(C33,-1,0,1,1))+1,"1"),IF(B33=1,"",IFERROR(LEFT(OFFSET(C33,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C33,-1,0,1,1),".","^",B33-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C33,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C33,-1,0,1,1)))),(B33-1)*LEN(OFFSET(C33,-1,0,1,1))+1,LEN(OFFSET(C33,-1,0,1,1)))))+1)))</f>
+        <v>2.2.2.3</v>
+      </c>
+      <c r="D33" s="49" t="str">
+        <f>"Task Level "&amp;B33&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="52"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="75"/>
+      <c r="M33" s="35"/>
+    </row>
+    <row r="34" spans="2:13" ht="21" customHeight="1">
+      <c r="B34" s="59">
+        <v>4</v>
+      </c>
+      <c r="C34" s="61" t="str">
+        <f t="shared" ref="C34" ca="1" si="4">IF(B34="","",IF(B34&gt;OFFSET(B34,-1,0,1,1),IF(OFFSET(C34,-1,0,1,1)="","1",OFFSET(C34,-1,0,1,1))&amp;REPT(".1",B34-MAX(OFFSET(B34,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C34,-1,0,1,1))),REPT("1.",B34-1)&amp;IFERROR(VALUE(OFFSET(C34,-1,0,1,1))+1,"1"),IF(B34=1,"",IFERROR(LEFT(OFFSET(C34,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C34,-1,0,1,1),".","^",B34-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C34,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C34,-1,0,1,1)))),(B34-1)*LEN(OFFSET(C34,-1,0,1,1))+1,LEN(OFFSET(C34,-1,0,1,1)))))+1)))</f>
+        <v>2.2.2.4</v>
+      </c>
+      <c r="D34" s="49" t="str">
+        <f t="shared" ref="D34" si="5">"Task Level "&amp;B34&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="52"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="75"/>
+      <c r="M34" s="35"/>
+    </row>
+    <row r="35" spans="2:13" ht="21" customHeight="1">
+      <c r="B35" s="59">
+        <v>4</v>
+      </c>
+      <c r="C35" s="61" t="str">
+        <f t="shared" ref="C35:C41" ca="1" si="6">IF(B35="","",IF(B35&gt;OFFSET(B35,-1,0,1,1),IF(OFFSET(C35,-1,0,1,1)="","1",OFFSET(C35,-1,0,1,1))&amp;REPT(".1",B35-MAX(OFFSET(B35,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C35,-1,0,1,1))),REPT("1.",B35-1)&amp;IFERROR(VALUE(OFFSET(C35,-1,0,1,1))+1,"1"),IF(B35=1,"",IFERROR(LEFT(OFFSET(C35,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C35,-1,0,1,1),".","^",B35-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C35,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C35,-1,0,1,1)))),(B35-1)*LEN(OFFSET(C35,-1,0,1,1))+1,LEN(OFFSET(C35,-1,0,1,1)))))+1)))</f>
+        <v>2.2.2.5</v>
+      </c>
+      <c r="D35" s="49" t="str">
+        <f t="shared" ref="D35:D38" si="7">"Task Level "&amp;B35&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="52"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="75"/>
+      <c r="M35" s="35"/>
+    </row>
+    <row r="36" spans="2:13" ht="21" customHeight="1">
+      <c r="B36" s="59">
+        <v>4</v>
+      </c>
+      <c r="C36" s="61" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.2.2.6</v>
+      </c>
+      <c r="D36" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E36" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="52"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="75"/>
+      <c r="M36" s="35"/>
+    </row>
+    <row r="37" spans="2:13" ht="21" customHeight="1">
+      <c r="B37" s="59">
+        <v>4</v>
+      </c>
+      <c r="C37" s="61" t="str">
+        <f t="shared" ref="C37" ca="1" si="8">IF(B37="","",IF(B37&gt;OFFSET(B37,-1,0,1,1),IF(OFFSET(C37,-1,0,1,1)="","1",OFFSET(C37,-1,0,1,1))&amp;REPT(".1",B37-MAX(OFFSET(B37,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C37,-1,0,1,1))),REPT("1.",B37-1)&amp;IFERROR(VALUE(OFFSET(C37,-1,0,1,1))+1,"1"),IF(B37=1,"",IFERROR(LEFT(OFFSET(C37,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C37,-1,0,1,1),".","^",B37-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C37,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C37,-1,0,1,1)))),(B37-1)*LEN(OFFSET(C37,-1,0,1,1))+1,LEN(OFFSET(C37,-1,0,1,1)))))+1)))</f>
+        <v>2.2.2.7</v>
+      </c>
+      <c r="D37" s="49" t="str">
+        <f t="shared" ref="D37" si="9">"Task Level "&amp;B37&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="52"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="75"/>
+      <c r="M37" s="35"/>
+    </row>
+    <row r="38" spans="2:13" ht="21" customHeight="1">
+      <c r="B38" s="59">
+        <v>4</v>
+      </c>
+      <c r="C38" s="61" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.2.2.8</v>
+      </c>
+      <c r="D38" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="52"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="75"/>
+      <c r="M38" s="35"/>
+    </row>
+    <row r="39" spans="2:13" ht="21" customHeight="1">
+      <c r="B39" s="59">
+        <v>4</v>
+      </c>
+      <c r="C39" s="61" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.2.2.9</v>
+      </c>
+      <c r="D39" s="49" t="str">
+        <f>"Task Level "&amp;B39&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="52"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="75"/>
+      <c r="M39" s="35"/>
+    </row>
+    <row r="40" spans="2:13" ht="21" customHeight="1">
+      <c r="B40" s="59">
+        <v>4</v>
+      </c>
+      <c r="C40" s="61" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.2.2.10</v>
+      </c>
+      <c r="D40" s="49" t="str">
+        <f t="shared" ref="D40:D41" si="10">"Task Level "&amp;B40&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E40" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="52"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="75"/>
+      <c r="M40" s="35"/>
+    </row>
+    <row r="41" spans="2:13" ht="21" customHeight="1">
+      <c r="B41" s="59">
+        <v>2</v>
+      </c>
+      <c r="C41" s="61" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.3</v>
+      </c>
+      <c r="D41" s="78" t="str">
+        <f t="shared" si="10"/>
+        <v>Task Level 2 Description</v>
+      </c>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="75"/>
+      <c r="M41" s="35"/>
+    </row>
+    <row r="42" spans="2:13" ht="21" customHeight="1">
+      <c r="B42" s="59">
+        <v>4</v>
+      </c>
+      <c r="C42" s="61" t="str">
+        <f ca="1">IF(B42="","",IF(B42&gt;OFFSET(B42,-1,0,1,1),IF(OFFSET(C42,-1,0,1,1)="","1",OFFSET(C42,-1,0,1,1))&amp;REPT(".1",B42-MAX(OFFSET(B42,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C42,-1,0,1,1))),REPT("1.",B42-1)&amp;IFERROR(VALUE(OFFSET(C42,-1,0,1,1))+1,"1"),IF(B42=1,"",IFERROR(LEFT(OFFSET(C42,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C42,-1,0,1,1),".","^",B42-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C42,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C42,-1,0,1,1)))),(B42-1)*LEN(OFFSET(C42,-1,0,1,1))+1,LEN(OFFSET(C42,-1,0,1,1)))))+1)))</f>
+        <v>2.3.1.1</v>
+      </c>
+      <c r="D42" s="80" t="str">
+        <f>"Task Level "&amp;B42&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E42" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="79"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="M42" s="35"/>
+    </row>
+    <row r="43" spans="2:13" ht="21" customHeight="1">
+      <c r="B43" s="59">
+        <v>4</v>
+      </c>
+      <c r="C43" s="61" t="str">
+        <f ca="1">IF(B43="","",IF(B43&gt;OFFSET(B43,-1,0,1,1),IF(OFFSET(C43,-1,0,1,1)="","1",OFFSET(C43,-1,0,1,1))&amp;REPT(".1",B43-MAX(OFFSET(B43,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C43,-1,0,1,1))),REPT("1.",B43-1)&amp;IFERROR(VALUE(OFFSET(C43,-1,0,1,1))+1,"1"),IF(B43=1,"",IFERROR(LEFT(OFFSET(C43,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C43,-1,0,1,1),".","^",B43-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C43,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C43,-1,0,1,1)))),(B43-1)*LEN(OFFSET(C43,-1,0,1,1))+1,LEN(OFFSET(C43,-1,0,1,1)))))+1)))</f>
+        <v>2.3.1.2</v>
+      </c>
+      <c r="D43" s="80" t="str">
+        <f>"Task Level "&amp;B43&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E43" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="79"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="75"/>
+      <c r="M43" s="35"/>
+    </row>
+    <row r="44" spans="2:13" ht="21" customHeight="1">
+      <c r="B44" s="59">
+        <v>4</v>
+      </c>
+      <c r="C44" s="61" t="str">
+        <f ca="1">IF(B44="","",IF(B44&gt;OFFSET(B44,-1,0,1,1),IF(OFFSET(C44,-1,0,1,1)="","1",OFFSET(C44,-1,0,1,1))&amp;REPT(".1",B44-MAX(OFFSET(B44,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C44,-1,0,1,1))),REPT("1.",B44-1)&amp;IFERROR(VALUE(OFFSET(C44,-1,0,1,1))+1,"1"),IF(B44=1,"",IFERROR(LEFT(OFFSET(C44,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C44,-1,0,1,1),".","^",B44-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C44,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C44,-1,0,1,1)))),(B44-1)*LEN(OFFSET(C44,-1,0,1,1))+1,LEN(OFFSET(C44,-1,0,1,1)))))+1)))</f>
+        <v>2.3.1.3</v>
+      </c>
+      <c r="D44" s="80" t="str">
+        <f>"Task Level "&amp;B44&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E44" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="79"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="75"/>
+      <c r="M44" s="35"/>
+    </row>
+    <row r="45" spans="2:13" ht="21" customHeight="1">
+      <c r="B45" s="59">
+        <v>4</v>
+      </c>
+      <c r="C45" s="61" t="str">
+        <f ca="1">IF(B45="","",IF(B45&gt;OFFSET(B45,-1,0,1,1),IF(OFFSET(C45,-1,0,1,1)="","1",OFFSET(C45,-1,0,1,1))&amp;REPT(".1",B45-MAX(OFFSET(B45,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C45,-1,0,1,1))),REPT("1.",B45-1)&amp;IFERROR(VALUE(OFFSET(C45,-1,0,1,1))+1,"1"),IF(B45=1,"",IFERROR(LEFT(OFFSET(C45,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C45,-1,0,1,1),".","^",B45-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C45,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C45,-1,0,1,1)))),(B45-1)*LEN(OFFSET(C45,-1,0,1,1))+1,LEN(OFFSET(C45,-1,0,1,1)))))+1)))</f>
+        <v>2.3.1.4</v>
+      </c>
+      <c r="D45" s="80" t="str">
+        <f>"Task Level "&amp;B45&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E45" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="79"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="75"/>
+      <c r="M45" s="35"/>
+    </row>
+    <row r="46" spans="2:13" ht="21" customHeight="1">
+      <c r="B46" s="59">
         <v>1</v>
       </c>
-      <c r="C26" s="61" t="str">
+      <c r="C46" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="D26" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="75"/>
-      <c r="L26" s="35"/>
-    </row>
-    <row r="27" spans="2:12" ht="21" customHeight="1">
-      <c r="B27" s="59">
+      <c r="D46" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="75"/>
+      <c r="M46" s="35"/>
+    </row>
+    <row r="47" spans="2:13" ht="21" customHeight="1">
+      <c r="B47" s="59">
         <v>2</v>
       </c>
-      <c r="C27" s="61" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="C47" s="61" t="str">
+        <f t="shared" ref="C47:C64" ca="1" si="11">IF(B47="","",IF(B47&gt;OFFSET(B47,-1,0,1,1),IF(OFFSET(C47,-1,0,1,1)="","1",OFFSET(C47,-1,0,1,1))&amp;REPT(".1",B47-MAX(OFFSET(B47,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C47,-1,0,1,1))),REPT("1.",B47-1)&amp;IFERROR(VALUE(OFFSET(C47,-1,0,1,1))+1,"1"),IF(B47=1,"",IFERROR(LEFT(OFFSET(C47,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C47,-1,0,1,1),".","^",B47-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C47,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C47,-1,0,1,1)))),(B47-1)*LEN(OFFSET(C47,-1,0,1,1))+1,LEN(OFFSET(C47,-1,0,1,1)))))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="D27" s="47" t="str">
-        <f t="shared" si="1"/>
+      <c r="D47" s="47" t="str">
+        <f>"Task Level "&amp;B47&amp;" Data Ingestion"</f>
+        <v>Task Level 2 Data Ingestion</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="72">
+        <v>44378</v>
+      </c>
+      <c r="I47" s="72">
+        <v>44456</v>
+      </c>
+      <c r="J47" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="M47" s="36"/>
+    </row>
+    <row r="48" spans="2:13" ht="21" customHeight="1">
+      <c r="B48" s="59">
+        <v>2</v>
+      </c>
+      <c r="C48" s="61" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>3.2</v>
+      </c>
+      <c r="D48" s="47" t="str">
+        <f t="shared" ref="D48:D64" si="12">"Task Level "&amp;B48&amp;" Description"</f>
         <v>Task Level 2 Description</v>
       </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="75"/>
-    </row>
-    <row r="28" spans="2:12" ht="21" customHeight="1">
-      <c r="B28" s="59">
+      <c r="E48" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="M48" s="36"/>
+    </row>
+    <row r="49" spans="2:13" ht="21" customHeight="1">
+      <c r="B49" s="59">
         <v>3</v>
       </c>
-      <c r="C28" s="61" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.1.1</v>
-      </c>
-      <c r="D28" s="48" t="str">
-        <f t="shared" si="1"/>
+      <c r="C49" s="61" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>3.2.1</v>
+      </c>
+      <c r="D49" s="48" t="str">
+        <f t="shared" si="12"/>
         <v>Task Level 3 Description</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="75"/>
-    </row>
-    <row r="29" spans="2:12" ht="21" customHeight="1">
-      <c r="B29" s="59">
+      <c r="E49" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="M49" s="35"/>
+    </row>
+    <row r="50" spans="2:13" ht="21" customHeight="1">
+      <c r="B50" s="59">
+        <v>3</v>
+      </c>
+      <c r="C50" s="61" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>3.2.2</v>
+      </c>
+      <c r="D50" s="48" t="str">
+        <f t="shared" si="12"/>
+        <v>Task Level 3 Description</v>
+      </c>
+      <c r="E50" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="M50" s="35"/>
+    </row>
+    <row r="51" spans="2:13" ht="21" customHeight="1">
+      <c r="B51" s="59">
         <v>4</v>
       </c>
-      <c r="C29" s="61" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.1.1.1</v>
-      </c>
-      <c r="D29" s="49" t="str">
-        <f t="shared" si="1"/>
+      <c r="C51" s="61" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>3.2.2.1</v>
+      </c>
+      <c r="D51" s="49" t="str">
+        <f t="shared" si="12"/>
         <v>Task Level 4 Description</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="75"/>
-    </row>
-    <row r="30" spans="2:12" ht="21" customHeight="1">
-      <c r="B30" s="59">
+      <c r="E51" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="M51" s="35"/>
+    </row>
+    <row r="52" spans="2:13" ht="21" customHeight="1">
+      <c r="B52" s="59">
+        <v>5</v>
+      </c>
+      <c r="C52" s="61" t="str">
+        <f ca="1">IF(B52="","",IF(B52&gt;OFFSET(B52,-1,0,1,1),IF(OFFSET(C52,-1,0,1,1)="","1",OFFSET(C52,-1,0,1,1))&amp;REPT(".1",B52-MAX(OFFSET(B52,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C52,-1,0,1,1))),REPT("1.",B52-1)&amp;IFERROR(VALUE(OFFSET(C52,-1,0,1,1))+1,"1"),IF(B52=1,"",IFERROR(LEFT(OFFSET(C52,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C52,-1,0,1,1),".","^",B52-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C52,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C52,-1,0,1,1)))),(B52-1)*LEN(OFFSET(C52,-1,0,1,1))+1,LEN(OFFSET(C52,-1,0,1,1)))))+1)))</f>
+        <v>3.2.2.1.1</v>
+      </c>
+      <c r="D52" s="49" t="str">
+        <f>"Task Level "&amp;B52&amp;" Description"</f>
+        <v>Task Level 5 Description</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="75"/>
+      <c r="M52" s="35"/>
+    </row>
+    <row r="53" spans="2:13" ht="21" customHeight="1">
+      <c r="B53" s="59">
+        <v>5</v>
+      </c>
+      <c r="C53" s="61" t="str">
+        <f ca="1">IF(B53="","",IF(B53&gt;OFFSET(B53,-1,0,1,1),IF(OFFSET(C53,-1,0,1,1)="","1",OFFSET(C53,-1,0,1,1))&amp;REPT(".1",B53-MAX(OFFSET(B53,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C53,-1,0,1,1))),REPT("1.",B53-1)&amp;IFERROR(VALUE(OFFSET(C53,-1,0,1,1))+1,"1"),IF(B53=1,"",IFERROR(LEFT(OFFSET(C53,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C53,-1,0,1,1),".","^",B53-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C53,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C53,-1,0,1,1)))),(B53-1)*LEN(OFFSET(C53,-1,0,1,1))+1,LEN(OFFSET(C53,-1,0,1,1)))))+1)))</f>
+        <v>3.2.2.1.2</v>
+      </c>
+      <c r="D53" s="49" t="str">
+        <f>"Task Level "&amp;B53&amp;" Description"</f>
+        <v>Task Level 5 Description</v>
+      </c>
+      <c r="E53" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="75"/>
+      <c r="M53" s="35"/>
+    </row>
+    <row r="54" spans="2:13" ht="21" customHeight="1">
+      <c r="B54" s="59">
+        <v>4</v>
+      </c>
+      <c r="C54" s="61" t="str">
+        <f ca="1">IF(B54="","",IF(B54&gt;OFFSET(B54,-1,0,1,1),IF(OFFSET(C54,-1,0,1,1)="","1",OFFSET(C54,-1,0,1,1))&amp;REPT(".1",B54-MAX(OFFSET(B54,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C54,-1,0,1,1))),REPT("1.",B54-1)&amp;IFERROR(VALUE(OFFSET(C54,-1,0,1,1))+1,"1"),IF(B54=1,"",IFERROR(LEFT(OFFSET(C54,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C54,-1,0,1,1),".","^",B54-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C54,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C54,-1,0,1,1)))),(B54-1)*LEN(OFFSET(C54,-1,0,1,1))+1,LEN(OFFSET(C54,-1,0,1,1)))))+1)))</f>
+        <v>3.2.2.2</v>
+      </c>
+      <c r="D54" s="49" t="str">
+        <f>"Task Level "&amp;B54&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E54" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="75"/>
+      <c r="M54" s="35"/>
+    </row>
+    <row r="55" spans="2:13" ht="21" customHeight="1">
+      <c r="B55" s="59">
+        <v>4</v>
+      </c>
+      <c r="C55" s="61" t="str">
+        <f t="shared" ref="C55:C64" ca="1" si="13">IF(B55="","",IF(B55&gt;OFFSET(B55,-1,0,1,1),IF(OFFSET(C55,-1,0,1,1)="","1",OFFSET(C55,-1,0,1,1))&amp;REPT(".1",B55-MAX(OFFSET(B55,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C55,-1,0,1,1))),REPT("1.",B55-1)&amp;IFERROR(VALUE(OFFSET(C55,-1,0,1,1))+1,"1"),IF(B55=1,"",IFERROR(LEFT(OFFSET(C55,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C55,-1,0,1,1),".","^",B55-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C55,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C55,-1,0,1,1)))),(B55-1)*LEN(OFFSET(C55,-1,0,1,1))+1,LEN(OFFSET(C55,-1,0,1,1)))))+1)))</f>
+        <v>3.2.2.3</v>
+      </c>
+      <c r="D55" s="49" t="str">
+        <f t="shared" ref="D55:D64" si="14">"Task Level "&amp;B55&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E55" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" s="52"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="75"/>
+      <c r="M55" s="35"/>
+    </row>
+    <row r="56" spans="2:13" ht="21" customHeight="1">
+      <c r="B56" s="59">
+        <v>4</v>
+      </c>
+      <c r="C56" s="61" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>3.2.2.4</v>
+      </c>
+      <c r="D56" s="49" t="str">
+        <f t="shared" si="14"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E56" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="75"/>
+      <c r="M56" s="35"/>
+    </row>
+    <row r="57" spans="2:13" ht="21" customHeight="1">
+      <c r="B57" s="59">
+        <v>4</v>
+      </c>
+      <c r="C57" s="61" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>3.2.2.5</v>
+      </c>
+      <c r="D57" s="49" t="str">
+        <f t="shared" si="14"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E57" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G57" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="75"/>
+      <c r="M57" s="35"/>
+    </row>
+    <row r="58" spans="2:13" ht="21" customHeight="1">
+      <c r="B58" s="59">
+        <v>4</v>
+      </c>
+      <c r="C58" s="61" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>3.2.2.6</v>
+      </c>
+      <c r="D58" s="49" t="str">
+        <f>"Task Level "&amp;B58&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E58" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G58" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="75"/>
+      <c r="M58" s="35"/>
+    </row>
+    <row r="59" spans="2:13" ht="21" customHeight="1">
+      <c r="B59" s="59">
+        <v>4</v>
+      </c>
+      <c r="C59" s="61" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>3.2.2.7</v>
+      </c>
+      <c r="D59" s="49" t="str">
+        <f t="shared" ref="D59:D64" si="15">"Task Level "&amp;B59&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E59" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="75"/>
+      <c r="M59" s="35"/>
+    </row>
+    <row r="60" spans="2:13" ht="21" customHeight="1">
+      <c r="B60" s="59">
         <v>2</v>
       </c>
-      <c r="C30" s="61" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="D30" s="47" t="str">
-        <f t="shared" si="1"/>
+      <c r="C60" s="61" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>3.3</v>
+      </c>
+      <c r="D60" s="47" t="str">
+        <f t="shared" si="15"/>
         <v>Task Level 2 Description</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="75"/>
-    </row>
-    <row r="31" spans="2:12" ht="21" customHeight="1">
-      <c r="B31" s="59"/>
-      <c r="C31" s="61" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="75"/>
-    </row>
-    <row r="32" spans="2:12" ht="21" customHeight="1">
-      <c r="B32" s="59"/>
-      <c r="C32" s="61" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="75"/>
-    </row>
-    <row r="33" spans="2:12" ht="21" customHeight="1">
-      <c r="B33" s="59"/>
-      <c r="C33" s="61" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="75"/>
-    </row>
-    <row r="34" spans="2:12" ht="21" customHeight="1">
-      <c r="B34" s="59"/>
-      <c r="C34" s="61" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="75"/>
-    </row>
-    <row r="35" spans="2:12" ht="21" customHeight="1">
-      <c r="B35" s="59"/>
-      <c r="C35" s="61" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="75"/>
-    </row>
-    <row r="36" spans="2:12" ht="21" customHeight="1">
-      <c r="B36" s="59"/>
-      <c r="C36" s="61" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="75"/>
-    </row>
-    <row r="37" spans="2:12" ht="21" customHeight="1">
-      <c r="B37" s="68"/>
-      <c r="C37" s="62" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="D37" s="69"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="76"/>
-      <c r="L37" s="67" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12">
-      <c r="B44" s="1" t="s">
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="75"/>
+      <c r="M60" s="35"/>
+    </row>
+    <row r="61" spans="2:13" ht="21" customHeight="1">
+      <c r="B61" s="59">
+        <v>4</v>
+      </c>
+      <c r="C61" s="61" t="str">
+        <f ca="1">IF(B61="","",IF(B61&gt;OFFSET(B61,-1,0,1,1),IF(OFFSET(C61,-1,0,1,1)="","1",OFFSET(C61,-1,0,1,1))&amp;REPT(".1",B61-MAX(OFFSET(B61,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C61,-1,0,1,1))),REPT("1.",B61-1)&amp;IFERROR(VALUE(OFFSET(C61,-1,0,1,1))+1,"1"),IF(B61=1,"",IFERROR(LEFT(OFFSET(C61,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C61,-1,0,1,1),".","^",B61-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C61,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C61,-1,0,1,1)))),(B61-1)*LEN(OFFSET(C61,-1,0,1,1))+1,LEN(OFFSET(C61,-1,0,1,1)))))+1)))</f>
+        <v>3.3.1.1</v>
+      </c>
+      <c r="D61" s="49" t="str">
+        <f>"Task Level "&amp;B61&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E61" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G61" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="75"/>
+      <c r="M61" s="35"/>
+    </row>
+    <row r="62" spans="2:13" ht="21" customHeight="1">
+      <c r="B62" s="59">
+        <v>4</v>
+      </c>
+      <c r="C62" s="61" t="str">
+        <f ca="1">IF(B62="","",IF(B62&gt;OFFSET(B62,-1,0,1,1),IF(OFFSET(C62,-1,0,1,1)="","1",OFFSET(C62,-1,0,1,1))&amp;REPT(".1",B62-MAX(OFFSET(B62,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C62,-1,0,1,1))),REPT("1.",B62-1)&amp;IFERROR(VALUE(OFFSET(C62,-1,0,1,1))+1,"1"),IF(B62=1,"",IFERROR(LEFT(OFFSET(C62,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C62,-1,0,1,1),".","^",B62-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C62,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C62,-1,0,1,1)))),(B62-1)*LEN(OFFSET(C62,-1,0,1,1))+1,LEN(OFFSET(C62,-1,0,1,1)))))+1)))</f>
+        <v>3.3.1.2</v>
+      </c>
+      <c r="D62" s="49" t="str">
+        <f>"Task Level "&amp;B62&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E62" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G62" s="52"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="75"/>
+      <c r="M62" s="35"/>
+    </row>
+    <row r="63" spans="2:13" ht="21" customHeight="1">
+      <c r="B63" s="59">
+        <v>4</v>
+      </c>
+      <c r="C63" s="61" t="str">
+        <f ca="1">IF(B63="","",IF(B63&gt;OFFSET(B63,-1,0,1,1),IF(OFFSET(C63,-1,0,1,1)="","1",OFFSET(C63,-1,0,1,1))&amp;REPT(".1",B63-MAX(OFFSET(B63,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C63,-1,0,1,1))),REPT("1.",B63-1)&amp;IFERROR(VALUE(OFFSET(C63,-1,0,1,1))+1,"1"),IF(B63=1,"",IFERROR(LEFT(OFFSET(C63,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C63,-1,0,1,1),".","^",B63-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C63,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C63,-1,0,1,1)))),(B63-1)*LEN(OFFSET(C63,-1,0,1,1))+1,LEN(OFFSET(C63,-1,0,1,1)))))+1)))</f>
+        <v>3.3.1.3</v>
+      </c>
+      <c r="D63" s="49" t="str">
+        <f>"Task Level "&amp;B63&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E63" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G63" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="75"/>
+      <c r="M63" s="35"/>
+    </row>
+    <row r="64" spans="2:13" ht="21" customHeight="1">
+      <c r="B64" s="59">
+        <v>4</v>
+      </c>
+      <c r="C64" s="61" t="str">
+        <f ca="1">IF(B64="","",IF(B64&gt;OFFSET(B64,-1,0,1,1),IF(OFFSET(C64,-1,0,1,1)="","1",OFFSET(C64,-1,0,1,1))&amp;REPT(".1",B64-MAX(OFFSET(B64,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C64,-1,0,1,1))),REPT("1.",B64-1)&amp;IFERROR(VALUE(OFFSET(C64,-1,0,1,1))+1,"1"),IF(B64=1,"",IFERROR(LEFT(OFFSET(C64,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C64,-1,0,1,1),".","^",B64-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C64,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C64,-1,0,1,1)))),(B64-1)*LEN(OFFSET(C64,-1,0,1,1))+1,LEN(OFFSET(C64,-1,0,1,1)))))+1)))</f>
+        <v>3.3.1.4</v>
+      </c>
+      <c r="D64" s="49" t="str">
+        <f>"Task Level "&amp;B64&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E64" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="75"/>
+      <c r="M64" s="35"/>
+    </row>
+    <row r="65" spans="2:13" ht="21" customHeight="1">
+      <c r="B65" s="60">
+        <v>1</v>
+      </c>
+      <c r="C65" s="61" t="str">
+        <f ca="1">IF(B65="","",IF(B65&gt;OFFSET(B65,-1,0,1,1),IF(OFFSET(C65,-1,0,1,1)="","1",OFFSET(C65,-1,0,1,1))&amp;REPT(".1",B65-MAX(OFFSET(B65,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C65,-1,0,1,1))),REPT("1.",B65-1)&amp;IFERROR(VALUE(OFFSET(C65,-1,0,1,1))+1,"1"),IF(B65=1,"",IFERROR(LEFT(OFFSET(C65,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C65,-1,0,1,1),".","^",B65-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C65,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C65,-1,0,1,1)))),(B65-1)*LEN(OFFSET(C65,-1,0,1,1))+1,LEN(OFFSET(C65,-1,0,1,1)))))+1)))</f>
+        <v>4</v>
+      </c>
+      <c r="D65" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="74"/>
+      <c r="M65" s="67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" ht="21" customHeight="1">
+      <c r="B66" s="59">
+        <v>2</v>
+      </c>
+      <c r="C66" s="61" t="str">
+        <f t="shared" ref="C66:C112" ca="1" si="16">IF(B66="","",IF(B66&gt;OFFSET(B66,-1,0,1,1),IF(OFFSET(C66,-1,0,1,1)="","1",OFFSET(C66,-1,0,1,1))&amp;REPT(".1",B66-MAX(OFFSET(B66,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C66,-1,0,1,1))),REPT("1.",B66-1)&amp;IFERROR(VALUE(OFFSET(C66,-1,0,1,1))+1,"1"),IF(B66=1,"",IFERROR(LEFT(OFFSET(C66,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C66,-1,0,1,1),".","^",B66-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C66,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C66,-1,0,1,1)))),(B66-1)*LEN(OFFSET(C66,-1,0,1,1))+1,LEN(OFFSET(C66,-1,0,1,1)))))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="D66" s="47" t="str">
+        <f>"Task Level "&amp;B66&amp;" Refrence Data Ingestion"</f>
+        <v>Task Level 2 Refrence Data Ingestion</v>
+      </c>
+      <c r="E66" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="72">
+        <v>44378</v>
+      </c>
+      <c r="I66" s="72">
+        <v>44456</v>
+      </c>
+      <c r="J66" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="M66" s="36"/>
+    </row>
+    <row r="67" spans="2:13" ht="21" customHeight="1">
+      <c r="B67" s="59">
+        <v>2</v>
+      </c>
+      <c r="C67" s="61" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4.2</v>
+      </c>
+      <c r="D67" s="47" t="str">
+        <f t="shared" ref="D67:D105" si="17">"Task Level "&amp;B67&amp;" Description"</f>
+        <v>Task Level 2 Description</v>
+      </c>
+      <c r="E67" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G67" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="M67" s="36"/>
+    </row>
+    <row r="68" spans="2:13" ht="21" customHeight="1">
+      <c r="B68" s="59">
+        <v>3</v>
+      </c>
+      <c r="C68" s="61" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4.2.1</v>
+      </c>
+      <c r="D68" s="48" t="str">
+        <f t="shared" si="17"/>
+        <v>Task Level 3 Description</v>
+      </c>
+      <c r="E68" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F68" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G68" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="75" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="2:12">
-      <c r="D45" s="1" t="s">
+      <c r="M68" s="35"/>
+    </row>
+    <row r="69" spans="2:13" ht="21" customHeight="1">
+      <c r="B69" s="59">
+        <v>3</v>
+      </c>
+      <c r="C69" s="61" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4.2.2</v>
+      </c>
+      <c r="D69" s="48" t="str">
+        <f t="shared" si="17"/>
+        <v>Task Level 3 Description</v>
+      </c>
+      <c r="E69" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F69" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G69" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H69" s="72"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="75" t="s">
         <v>66</v>
       </c>
+      <c r="M69" s="35"/>
+    </row>
+    <row r="70" spans="2:13" ht="21" customHeight="1">
+      <c r="B70" s="59">
+        <v>4</v>
+      </c>
+      <c r="C70" s="61" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4.2.2.1</v>
+      </c>
+      <c r="D70" s="49" t="str">
+        <f t="shared" si="17"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E70" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G70" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H70" s="72"/>
+      <c r="I70" s="72"/>
+      <c r="J70" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="M70" s="35"/>
+    </row>
+    <row r="71" spans="2:13" ht="21" customHeight="1">
+      <c r="B71" s="59">
+        <v>4</v>
+      </c>
+      <c r="C71" s="61" t="str">
+        <f ca="1">IF(B71="","",IF(B71&gt;OFFSET(B71,-1,0,1,1),IF(OFFSET(C71,-1,0,1,1)="","1",OFFSET(C71,-1,0,1,1))&amp;REPT(".1",B71-MAX(OFFSET(B71,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C71,-1,0,1,1))),REPT("1.",B71-1)&amp;IFERROR(VALUE(OFFSET(C71,-1,0,1,1))+1,"1"),IF(B71=1,"",IFERROR(LEFT(OFFSET(C71,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C71,-1,0,1,1),".","^",B71-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C71,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C71,-1,0,1,1)))),(B71-1)*LEN(OFFSET(C71,-1,0,1,1))+1,LEN(OFFSET(C71,-1,0,1,1)))))+1)))</f>
+        <v>4.2.2.2</v>
+      </c>
+      <c r="D71" s="49" t="str">
+        <f>"Task Level "&amp;B71&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E71" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G71" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
+      <c r="J71" s="75"/>
+      <c r="M71" s="35"/>
+    </row>
+    <row r="72" spans="2:13" ht="21" customHeight="1">
+      <c r="B72" s="59">
+        <v>4</v>
+      </c>
+      <c r="C72" s="61" t="str">
+        <f t="shared" ref="C72:C117" ca="1" si="18">IF(B72="","",IF(B72&gt;OFFSET(B72,-1,0,1,1),IF(OFFSET(C72,-1,0,1,1)="","1",OFFSET(C72,-1,0,1,1))&amp;REPT(".1",B72-MAX(OFFSET(B72,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C72,-1,0,1,1))),REPT("1.",B72-1)&amp;IFERROR(VALUE(OFFSET(C72,-1,0,1,1))+1,"1"),IF(B72=1,"",IFERROR(LEFT(OFFSET(C72,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C72,-1,0,1,1),".","^",B72-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C72,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C72,-1,0,1,1)))),(B72-1)*LEN(OFFSET(C72,-1,0,1,1))+1,LEN(OFFSET(C72,-1,0,1,1)))))+1)))</f>
+        <v>4.2.2.3</v>
+      </c>
+      <c r="D72" s="49" t="str">
+        <f t="shared" ref="D72:D110" si="19">"Task Level "&amp;B72&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E72" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G72" s="52"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="75"/>
+      <c r="M72" s="35"/>
+    </row>
+    <row r="73" spans="2:13" ht="21" customHeight="1">
+      <c r="B73" s="59">
+        <v>4</v>
+      </c>
+      <c r="C73" s="61" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>4.2.2.4</v>
+      </c>
+      <c r="D73" s="49" t="str">
+        <f t="shared" si="19"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E73" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G73" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="75"/>
+      <c r="M73" s="35"/>
+    </row>
+    <row r="74" spans="2:13" ht="21" customHeight="1">
+      <c r="B74" s="59">
+        <v>4</v>
+      </c>
+      <c r="C74" s="61" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>4.2.2.5</v>
+      </c>
+      <c r="D74" s="49" t="str">
+        <f t="shared" si="19"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E74" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G74" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H74" s="72"/>
+      <c r="I74" s="72"/>
+      <c r="J74" s="75"/>
+      <c r="M74" s="35"/>
+    </row>
+    <row r="75" spans="2:13" ht="21" customHeight="1">
+      <c r="B75" s="59">
+        <v>4</v>
+      </c>
+      <c r="C75" s="61" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>4.2.2.6</v>
+      </c>
+      <c r="D75" s="49" t="str">
+        <f>"Task Level "&amp;B75&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E75" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F75" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G75" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="75"/>
+      <c r="M75" s="35"/>
+    </row>
+    <row r="76" spans="2:13" ht="21" customHeight="1">
+      <c r="B76" s="59">
+        <v>4</v>
+      </c>
+      <c r="C76" s="61" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>4.2.2.7</v>
+      </c>
+      <c r="D76" s="49" t="str">
+        <f t="shared" ref="D76:D114" si="20">"Task Level "&amp;B76&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E76" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="F76" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G76" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="75"/>
+      <c r="M76" s="35"/>
+    </row>
+    <row r="77" spans="2:13" ht="21" customHeight="1">
+      <c r="B77" s="59">
+        <v>2</v>
+      </c>
+      <c r="C77" s="61" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>4.3</v>
+      </c>
+      <c r="D77" s="47" t="str">
+        <f t="shared" si="20"/>
+        <v>Task Level 2 Description</v>
+      </c>
+      <c r="E77" s="52"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
+      <c r="J77" s="75"/>
+      <c r="M77" s="35"/>
+    </row>
+    <row r="78" spans="2:13" ht="21" customHeight="1">
+      <c r="B78" s="59">
+        <v>4</v>
+      </c>
+      <c r="C78" s="61" t="str">
+        <f ca="1">IF(B78="","",IF(B78&gt;OFFSET(B78,-1,0,1,1),IF(OFFSET(C78,-1,0,1,1)="","1",OFFSET(C78,-1,0,1,1))&amp;REPT(".1",B78-MAX(OFFSET(B78,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C78,-1,0,1,1))),REPT("1.",B78-1)&amp;IFERROR(VALUE(OFFSET(C78,-1,0,1,1))+1,"1"),IF(B78=1,"",IFERROR(LEFT(OFFSET(C78,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C78,-1,0,1,1),".","^",B78-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C78,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C78,-1,0,1,1)))),(B78-1)*LEN(OFFSET(C78,-1,0,1,1))+1,LEN(OFFSET(C78,-1,0,1,1)))))+1)))</f>
+        <v>4.3.1.1</v>
+      </c>
+      <c r="D78" s="49" t="str">
+        <f>"Task Level "&amp;B78&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E78" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G78" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H78" s="72"/>
+      <c r="I78" s="72"/>
+      <c r="J78" s="75"/>
+      <c r="M78" s="35"/>
+    </row>
+    <row r="79" spans="2:13" ht="21" customHeight="1">
+      <c r="B79" s="59">
+        <v>4</v>
+      </c>
+      <c r="C79" s="61" t="str">
+        <f ca="1">IF(B79="","",IF(B79&gt;OFFSET(B79,-1,0,1,1),IF(OFFSET(C79,-1,0,1,1)="","1",OFFSET(C79,-1,0,1,1))&amp;REPT(".1",B79-MAX(OFFSET(B79,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C79,-1,0,1,1))),REPT("1.",B79-1)&amp;IFERROR(VALUE(OFFSET(C79,-1,0,1,1))+1,"1"),IF(B79=1,"",IFERROR(LEFT(OFFSET(C79,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C79,-1,0,1,1),".","^",B79-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C79,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C79,-1,0,1,1)))),(B79-1)*LEN(OFFSET(C79,-1,0,1,1))+1,LEN(OFFSET(C79,-1,0,1,1)))))+1)))</f>
+        <v>4.3.1.2</v>
+      </c>
+      <c r="D79" s="49" t="str">
+        <f>"Task Level "&amp;B79&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E79" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F79" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G79" s="52"/>
+      <c r="H79" s="72"/>
+      <c r="I79" s="72"/>
+      <c r="J79" s="75"/>
+      <c r="M79" s="35"/>
+    </row>
+    <row r="80" spans="2:13" ht="21" customHeight="1">
+      <c r="B80" s="59">
+        <v>4</v>
+      </c>
+      <c r="C80" s="61" t="str">
+        <f ca="1">IF(B80="","",IF(B80&gt;OFFSET(B80,-1,0,1,1),IF(OFFSET(C80,-1,0,1,1)="","1",OFFSET(C80,-1,0,1,1))&amp;REPT(".1",B80-MAX(OFFSET(B80,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C80,-1,0,1,1))),REPT("1.",B80-1)&amp;IFERROR(VALUE(OFFSET(C80,-1,0,1,1))+1,"1"),IF(B80=1,"",IFERROR(LEFT(OFFSET(C80,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C80,-1,0,1,1),".","^",B80-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C80,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C80,-1,0,1,1)))),(B80-1)*LEN(OFFSET(C80,-1,0,1,1))+1,LEN(OFFSET(C80,-1,0,1,1)))))+1)))</f>
+        <v>4.3.1.3</v>
+      </c>
+      <c r="D80" s="49" t="str">
+        <f>"Task Level "&amp;B80&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E80" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G80" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H80" s="72"/>
+      <c r="I80" s="72"/>
+      <c r="J80" s="75"/>
+      <c r="M80" s="35"/>
+    </row>
+    <row r="81" spans="2:13" ht="21" customHeight="1">
+      <c r="B81" s="59">
+        <v>4</v>
+      </c>
+      <c r="C81" s="61" t="str">
+        <f ca="1">IF(B81="","",IF(B81&gt;OFFSET(B81,-1,0,1,1),IF(OFFSET(C81,-1,0,1,1)="","1",OFFSET(C81,-1,0,1,1))&amp;REPT(".1",B81-MAX(OFFSET(B81,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C81,-1,0,1,1))),REPT("1.",B81-1)&amp;IFERROR(VALUE(OFFSET(C81,-1,0,1,1))+1,"1"),IF(B81=1,"",IFERROR(LEFT(OFFSET(C81,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C81,-1,0,1,1),".","^",B81-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C81,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C81,-1,0,1,1)))),(B81-1)*LEN(OFFSET(C81,-1,0,1,1))+1,LEN(OFFSET(C81,-1,0,1,1)))))+1)))</f>
+        <v>4.3.1.4</v>
+      </c>
+      <c r="D81" s="49" t="str">
+        <f>"Task Level "&amp;B81&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E81" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F81" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G81" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H81" s="72"/>
+      <c r="I81" s="72"/>
+      <c r="J81" s="75"/>
+      <c r="M81" s="35"/>
+    </row>
+    <row r="82" spans="2:13" ht="21" customHeight="1">
+      <c r="B82" s="59">
+        <v>1</v>
+      </c>
+      <c r="C82" s="61" t="str">
+        <f t="shared" ref="C82:C117" ca="1" si="21">IF(B82="","",IF(B82&gt;OFFSET(B82,-1,0,1,1),IF(OFFSET(C82,-1,0,1,1)="","1",OFFSET(C82,-1,0,1,1))&amp;REPT(".1",B82-MAX(OFFSET(B82,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C82,-1,0,1,1))),REPT("1.",B82-1)&amp;IFERROR(VALUE(OFFSET(C82,-1,0,1,1))+1,"1"),IF(B82=1,"",IFERROR(LEFT(OFFSET(C82,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C82,-1,0,1,1),".","^",B82-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C82,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C82,-1,0,1,1)))),(B82-1)*LEN(OFFSET(C82,-1,0,1,1))+1,LEN(OFFSET(C82,-1,0,1,1)))))+1)))</f>
+        <v>5</v>
+      </c>
+      <c r="D82" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E82" s="52"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="72"/>
+      <c r="I82" s="72"/>
+      <c r="J82" s="75"/>
+      <c r="M82" s="35"/>
+    </row>
+    <row r="83" spans="2:13" ht="21" customHeight="1">
+      <c r="B83" s="59">
+        <v>2</v>
+      </c>
+      <c r="C83" s="61" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>5.1</v>
+      </c>
+      <c r="D83" s="47" t="str">
+        <f>"Task Level "&amp;B83&amp;" Refrence Data Ingestion"</f>
+        <v>Task Level 2 Refrence Data Ingestion</v>
+      </c>
+      <c r="E83" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="F83" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G83" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H83" s="72">
+        <v>44378</v>
+      </c>
+      <c r="I83" s="72">
+        <v>44456</v>
+      </c>
+      <c r="J83" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="M83" s="36"/>
+    </row>
+    <row r="84" spans="2:13" ht="21" customHeight="1">
+      <c r="B84" s="59">
+        <v>2</v>
+      </c>
+      <c r="C84" s="61" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>5.2</v>
+      </c>
+      <c r="D84" s="47" t="str">
+        <f t="shared" ref="D84:D87" si="22">"Task Level "&amp;B84&amp;" Description"</f>
+        <v>Task Level 2 Description</v>
+      </c>
+      <c r="E84" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G84" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H84" s="72"/>
+      <c r="I84" s="72"/>
+      <c r="J84" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="M84" s="36"/>
+    </row>
+    <row r="85" spans="2:13" ht="21" customHeight="1">
+      <c r="B85" s="59">
+        <v>3</v>
+      </c>
+      <c r="C85" s="61" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>5.2.1</v>
+      </c>
+      <c r="D85" s="48" t="str">
+        <f t="shared" si="22"/>
+        <v>Task Level 3 Description</v>
+      </c>
+      <c r="E85" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F85" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G85" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H85" s="72"/>
+      <c r="I85" s="72"/>
+      <c r="J85" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="M85" s="35"/>
+    </row>
+    <row r="86" spans="2:13" ht="21" customHeight="1">
+      <c r="B86" s="59">
+        <v>3</v>
+      </c>
+      <c r="C86" s="61" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>5.2.2</v>
+      </c>
+      <c r="D86" s="48" t="str">
+        <f t="shared" si="22"/>
+        <v>Task Level 3 Description</v>
+      </c>
+      <c r="E86" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F86" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G86" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H86" s="72"/>
+      <c r="I86" s="72"/>
+      <c r="J86" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="M86" s="35"/>
+    </row>
+    <row r="87" spans="2:13" ht="21" customHeight="1">
+      <c r="B87" s="59">
+        <v>4</v>
+      </c>
+      <c r="C87" s="61" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>5.2.2.1</v>
+      </c>
+      <c r="D87" s="49" t="str">
+        <f t="shared" si="22"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E87" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="72"/>
+      <c r="I87" s="72"/>
+      <c r="J87" s="75"/>
+      <c r="M87" s="35"/>
+    </row>
+    <row r="88" spans="2:13" ht="21" customHeight="1">
+      <c r="B88" s="59">
+        <v>4</v>
+      </c>
+      <c r="C88" s="61" t="str">
+        <f ca="1">IF(B88="","",IF(B88&gt;OFFSET(B88,-1,0,1,1),IF(OFFSET(C88,-1,0,1,1)="","1",OFFSET(C88,-1,0,1,1))&amp;REPT(".1",B88-MAX(OFFSET(B88,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C88,-1,0,1,1))),REPT("1.",B88-1)&amp;IFERROR(VALUE(OFFSET(C88,-1,0,1,1))+1,"1"),IF(B88=1,"",IFERROR(LEFT(OFFSET(C88,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C88,-1,0,1,1),".","^",B88-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C88,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C88,-1,0,1,1)))),(B88-1)*LEN(OFFSET(C88,-1,0,1,1))+1,LEN(OFFSET(C88,-1,0,1,1)))))+1)))</f>
+        <v>5.2.2.2</v>
+      </c>
+      <c r="D88" s="49" t="str">
+        <f>"Task Level "&amp;B88&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E88" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F88" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G88" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H88" s="72"/>
+      <c r="I88" s="72"/>
+      <c r="J88" s="75"/>
+      <c r="M88" s="35"/>
+    </row>
+    <row r="89" spans="2:13" ht="21" customHeight="1">
+      <c r="B89" s="59">
+        <v>4</v>
+      </c>
+      <c r="C89" s="61" t="str">
+        <f t="shared" ref="C89:C96" ca="1" si="23">IF(B89="","",IF(B89&gt;OFFSET(B89,-1,0,1,1),IF(OFFSET(C89,-1,0,1,1)="","1",OFFSET(C89,-1,0,1,1))&amp;REPT(".1",B89-MAX(OFFSET(B89,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C89,-1,0,1,1))),REPT("1.",B89-1)&amp;IFERROR(VALUE(OFFSET(C89,-1,0,1,1))+1,"1"),IF(B89=1,"",IFERROR(LEFT(OFFSET(C89,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C89,-1,0,1,1),".","^",B89-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C89,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C89,-1,0,1,1)))),(B89-1)*LEN(OFFSET(C89,-1,0,1,1))+1,LEN(OFFSET(C89,-1,0,1,1)))))+1)))</f>
+        <v>5.2.2.3</v>
+      </c>
+      <c r="D89" s="49" t="str">
+        <f t="shared" ref="D89:D93" si="24">"Task Level "&amp;B89&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E89" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F89" s="52"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="72"/>
+      <c r="I89" s="72"/>
+      <c r="J89" s="75"/>
+      <c r="M89" s="35"/>
+    </row>
+    <row r="90" spans="2:13" ht="21" customHeight="1">
+      <c r="B90" s="59">
+        <v>4</v>
+      </c>
+      <c r="C90" s="61" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>5.2.2.4</v>
+      </c>
+      <c r="D90" s="49" t="str">
+        <f t="shared" si="24"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E90" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F90" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G90" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H90" s="72"/>
+      <c r="I90" s="72"/>
+      <c r="J90" s="75"/>
+      <c r="M90" s="35"/>
+    </row>
+    <row r="91" spans="2:13" ht="21" customHeight="1">
+      <c r="B91" s="59">
+        <v>4</v>
+      </c>
+      <c r="C91" s="61" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>5.2.2.5</v>
+      </c>
+      <c r="D91" s="49" t="str">
+        <f t="shared" si="24"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E91" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="F91" s="52"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="72"/>
+      <c r="I91" s="72"/>
+      <c r="J91" s="75"/>
+      <c r="M91" s="35"/>
+    </row>
+    <row r="92" spans="2:13" ht="21" customHeight="1">
+      <c r="B92" s="59">
+        <v>4</v>
+      </c>
+      <c r="C92" s="61" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>5.2.2.6</v>
+      </c>
+      <c r="D92" s="49" t="str">
+        <f t="shared" si="24"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E92" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F92" s="52"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="72"/>
+      <c r="I92" s="72"/>
+      <c r="J92" s="75"/>
+      <c r="M92" s="35"/>
+    </row>
+    <row r="93" spans="2:13" ht="21" customHeight="1">
+      <c r="B93" s="59">
+        <v>4</v>
+      </c>
+      <c r="C93" s="61" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>5.2.2.7</v>
+      </c>
+      <c r="D93" s="49" t="str">
+        <f t="shared" si="24"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E93" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F93" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G93" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H93" s="72"/>
+      <c r="I93" s="72"/>
+      <c r="J93" s="75"/>
+      <c r="M93" s="35"/>
+    </row>
+    <row r="94" spans="2:13" ht="21" customHeight="1">
+      <c r="B94" s="59">
+        <v>4</v>
+      </c>
+      <c r="C94" s="61" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>5.2.2.8</v>
+      </c>
+      <c r="D94" s="49" t="str">
+        <f>"Task Level "&amp;B94&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E94" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F94" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G94" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H94" s="72"/>
+      <c r="I94" s="72"/>
+      <c r="J94" s="75"/>
+      <c r="M94" s="35"/>
+    </row>
+    <row r="95" spans="2:13" ht="21" customHeight="1">
+      <c r="B95" s="59">
+        <v>4</v>
+      </c>
+      <c r="C95" s="61" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>5.2.2.9</v>
+      </c>
+      <c r="D95" s="49" t="str">
+        <f t="shared" ref="D95:D96" si="25">"Task Level "&amp;B95&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E95" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="F95" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G95" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H95" s="72"/>
+      <c r="I95" s="72"/>
+      <c r="J95" s="75"/>
+      <c r="M95" s="35"/>
+    </row>
+    <row r="96" spans="2:13" ht="21" customHeight="1">
+      <c r="B96" s="59">
+        <v>2</v>
+      </c>
+      <c r="C96" s="61" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>5.3</v>
+      </c>
+      <c r="D96" s="47" t="str">
+        <f t="shared" si="25"/>
+        <v>Task Level 2 Description</v>
+      </c>
+      <c r="E96" s="52"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="72"/>
+      <c r="I96" s="72"/>
+      <c r="J96" s="75"/>
+      <c r="M96" s="35"/>
+    </row>
+    <row r="97" spans="2:13" ht="21" customHeight="1">
+      <c r="B97" s="59">
+        <v>4</v>
+      </c>
+      <c r="C97" s="61" t="str">
+        <f ca="1">IF(B97="","",IF(B97&gt;OFFSET(B97,-1,0,1,1),IF(OFFSET(C97,-1,0,1,1)="","1",OFFSET(C97,-1,0,1,1))&amp;REPT(".1",B97-MAX(OFFSET(B97,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C97,-1,0,1,1))),REPT("1.",B97-1)&amp;IFERROR(VALUE(OFFSET(C97,-1,0,1,1))+1,"1"),IF(B97=1,"",IFERROR(LEFT(OFFSET(C97,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C97,-1,0,1,1),".","^",B97-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C97,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C97,-1,0,1,1)))),(B97-1)*LEN(OFFSET(C97,-1,0,1,1))+1,LEN(OFFSET(C97,-1,0,1,1)))))+1)))</f>
+        <v>5.3.1.1</v>
+      </c>
+      <c r="D97" s="49" t="str">
+        <f>"Task Level "&amp;B97&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E97" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F97" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G97" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H97" s="72"/>
+      <c r="I97" s="72"/>
+      <c r="J97" s="75"/>
+      <c r="M97" s="35"/>
+    </row>
+    <row r="98" spans="2:13" ht="21" customHeight="1">
+      <c r="B98" s="59">
+        <v>4</v>
+      </c>
+      <c r="C98" s="61" t="str">
+        <f ca="1">IF(B98="","",IF(B98&gt;OFFSET(B98,-1,0,1,1),IF(OFFSET(C98,-1,0,1,1)="","1",OFFSET(C98,-1,0,1,1))&amp;REPT(".1",B98-MAX(OFFSET(B98,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C98,-1,0,1,1))),REPT("1.",B98-1)&amp;IFERROR(VALUE(OFFSET(C98,-1,0,1,1))+1,"1"),IF(B98=1,"",IFERROR(LEFT(OFFSET(C98,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C98,-1,0,1,1),".","^",B98-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C98,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C98,-1,0,1,1)))),(B98-1)*LEN(OFFSET(C98,-1,0,1,1))+1,LEN(OFFSET(C98,-1,0,1,1)))))+1)))</f>
+        <v>5.3.1.2</v>
+      </c>
+      <c r="D98" s="49" t="str">
+        <f>"Task Level "&amp;B98&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E98" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F98" s="52"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="72"/>
+      <c r="I98" s="72"/>
+      <c r="J98" s="75"/>
+      <c r="M98" s="35"/>
+    </row>
+    <row r="99" spans="2:13" ht="21" customHeight="1">
+      <c r="B99" s="59">
+        <v>4</v>
+      </c>
+      <c r="C99" s="61" t="str">
+        <f ca="1">IF(B99="","",IF(B99&gt;OFFSET(B99,-1,0,1,1),IF(OFFSET(C99,-1,0,1,1)="","1",OFFSET(C99,-1,0,1,1))&amp;REPT(".1",B99-MAX(OFFSET(B99,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C99,-1,0,1,1))),REPT("1.",B99-1)&amp;IFERROR(VALUE(OFFSET(C99,-1,0,1,1))+1,"1"),IF(B99=1,"",IFERROR(LEFT(OFFSET(C99,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C99,-1,0,1,1),".","^",B99-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C99,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C99,-1,0,1,1)))),(B99-1)*LEN(OFFSET(C99,-1,0,1,1))+1,LEN(OFFSET(C99,-1,0,1,1)))))+1)))</f>
+        <v>5.3.1.3</v>
+      </c>
+      <c r="D99" s="49" t="str">
+        <f>"Task Level "&amp;B99&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E99" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F99" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G99" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H99" s="72"/>
+      <c r="I99" s="72"/>
+      <c r="J99" s="75"/>
+      <c r="M99" s="35"/>
+    </row>
+    <row r="100" spans="2:13" ht="21" customHeight="1">
+      <c r="B100" s="59">
+        <v>4</v>
+      </c>
+      <c r="C100" s="61" t="str">
+        <f ca="1">IF(B100="","",IF(B100&gt;OFFSET(B100,-1,0,1,1),IF(OFFSET(C100,-1,0,1,1)="","1",OFFSET(C100,-1,0,1,1))&amp;REPT(".1",B100-MAX(OFFSET(B100,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C100,-1,0,1,1))),REPT("1.",B100-1)&amp;IFERROR(VALUE(OFFSET(C100,-1,0,1,1))+1,"1"),IF(B100=1,"",IFERROR(LEFT(OFFSET(C100,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C100,-1,0,1,1),".","^",B100-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C100,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C100,-1,0,1,1)))),(B100-1)*LEN(OFFSET(C100,-1,0,1,1))+1,LEN(OFFSET(C100,-1,0,1,1)))))+1)))</f>
+        <v>5.3.1.4</v>
+      </c>
+      <c r="D100" s="49" t="str">
+        <f>"Task Level "&amp;B100&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E100" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F100" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G100" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H100" s="72"/>
+      <c r="I100" s="72"/>
+      <c r="J100" s="75"/>
+      <c r="M100" s="35"/>
+    </row>
+    <row r="101" spans="2:13" ht="21" customHeight="1">
+      <c r="B101" s="59">
+        <v>1</v>
+      </c>
+      <c r="C101" s="61" t="str">
+        <f t="shared" ref="C101:C117" ca="1" si="26">IF(B101="","",IF(B101&gt;OFFSET(B101,-1,0,1,1),IF(OFFSET(C101,-1,0,1,1)="","1",OFFSET(C101,-1,0,1,1))&amp;REPT(".1",B101-MAX(OFFSET(B101,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C101,-1,0,1,1))),REPT("1.",B101-1)&amp;IFERROR(VALUE(OFFSET(C101,-1,0,1,1))+1,"1"),IF(B101=1,"",IFERROR(LEFT(OFFSET(C101,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C101,-1,0,1,1),".","^",B101-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C101,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C101,-1,0,1,1)))),(B101-1)*LEN(OFFSET(C101,-1,0,1,1))+1,LEN(OFFSET(C101,-1,0,1,1)))))+1)))</f>
+        <v>6</v>
+      </c>
+      <c r="D101" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E101" s="52"/>
+      <c r="F101" s="52"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="72"/>
+      <c r="I101" s="72"/>
+      <c r="J101" s="75"/>
+      <c r="M101" s="35"/>
+    </row>
+    <row r="102" spans="2:13" ht="21" customHeight="1">
+      <c r="B102" s="59">
+        <v>2</v>
+      </c>
+      <c r="C102" s="61" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>6.1</v>
+      </c>
+      <c r="D102" s="47" t="str">
+        <f>"Task Level "&amp;B102&amp;" Refrence Data Ingestion"</f>
+        <v>Task Level 2 Refrence Data Ingestion</v>
+      </c>
+      <c r="E102" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F102" s="52"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="72">
+        <v>44378</v>
+      </c>
+      <c r="I102" s="72">
+        <v>44456</v>
+      </c>
+      <c r="J102" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="M102" s="36"/>
+    </row>
+    <row r="103" spans="2:13" ht="21" customHeight="1">
+      <c r="B103" s="59">
+        <v>2</v>
+      </c>
+      <c r="C103" s="61" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>6.2</v>
+      </c>
+      <c r="D103" s="47" t="str">
+        <f t="shared" ref="D103:D117" si="27">"Task Level "&amp;B103&amp;" Description"</f>
+        <v>Task Level 2 Description</v>
+      </c>
+      <c r="E103" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F103" s="52"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="72"/>
+      <c r="I103" s="72"/>
+      <c r="J103" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="M103" s="36"/>
+    </row>
+    <row r="104" spans="2:13" ht="21" customHeight="1">
+      <c r="B104" s="59">
+        <v>3</v>
+      </c>
+      <c r="C104" s="61" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>6.2.1</v>
+      </c>
+      <c r="D104" s="48" t="str">
+        <f t="shared" si="27"/>
+        <v>Task Level 3 Description</v>
+      </c>
+      <c r="E104" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F104" s="52"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="72"/>
+      <c r="I104" s="72"/>
+      <c r="J104" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="M104" s="35"/>
+    </row>
+    <row r="105" spans="2:13" ht="21" customHeight="1">
+      <c r="B105" s="59">
+        <v>3</v>
+      </c>
+      <c r="C105" s="61" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>6.2.2</v>
+      </c>
+      <c r="D105" s="48" t="str">
+        <f t="shared" si="27"/>
+        <v>Task Level 3 Description</v>
+      </c>
+      <c r="E105" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F105" s="52"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="72"/>
+      <c r="I105" s="72"/>
+      <c r="J105" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="M105" s="35"/>
+    </row>
+    <row r="106" spans="2:13" ht="21" customHeight="1">
+      <c r="B106" s="59">
+        <v>4</v>
+      </c>
+      <c r="C106" s="61" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>6.2.2.1</v>
+      </c>
+      <c r="D106" s="49" t="str">
+        <f t="shared" si="27"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E106" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F106" s="52"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="72"/>
+      <c r="I106" s="72"/>
+      <c r="J106" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="M106" s="35"/>
+    </row>
+    <row r="107" spans="2:13" ht="21" customHeight="1">
+      <c r="B107" s="59">
+        <v>4</v>
+      </c>
+      <c r="C107" s="61" t="str">
+        <f ca="1">IF(B107="","",IF(B107&gt;OFFSET(B107,-1,0,1,1),IF(OFFSET(C107,-1,0,1,1)="","1",OFFSET(C107,-1,0,1,1))&amp;REPT(".1",B107-MAX(OFFSET(B107,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C107,-1,0,1,1))),REPT("1.",B107-1)&amp;IFERROR(VALUE(OFFSET(C107,-1,0,1,1))+1,"1"),IF(B107=1,"",IFERROR(LEFT(OFFSET(C107,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C107,-1,0,1,1),".","^",B107-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C107,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C107,-1,0,1,1)))),(B107-1)*LEN(OFFSET(C107,-1,0,1,1))+1,LEN(OFFSET(C107,-1,0,1,1)))))+1)))</f>
+        <v>6.2.2.2</v>
+      </c>
+      <c r="D107" s="49" t="str">
+        <f>"Task Level "&amp;B107&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E107" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F107" s="52"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="72"/>
+      <c r="I107" s="72"/>
+      <c r="J107" s="75"/>
+      <c r="M107" s="35"/>
+    </row>
+    <row r="108" spans="2:13" ht="21" customHeight="1">
+      <c r="B108" s="59">
+        <v>4</v>
+      </c>
+      <c r="C108" s="61" t="str">
+        <f t="shared" ref="C108:C117" ca="1" si="28">IF(B108="","",IF(B108&gt;OFFSET(B108,-1,0,1,1),IF(OFFSET(C108,-1,0,1,1)="","1",OFFSET(C108,-1,0,1,1))&amp;REPT(".1",B108-MAX(OFFSET(B108,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C108,-1,0,1,1))),REPT("1.",B108-1)&amp;IFERROR(VALUE(OFFSET(C108,-1,0,1,1))+1,"1"),IF(B108=1,"",IFERROR(LEFT(OFFSET(C108,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C108,-1,0,1,1),".","^",B108-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C108,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C108,-1,0,1,1)))),(B108-1)*LEN(OFFSET(C108,-1,0,1,1))+1,LEN(OFFSET(C108,-1,0,1,1)))))+1)))</f>
+        <v>6.2.2.3</v>
+      </c>
+      <c r="D108" s="49" t="str">
+        <f t="shared" ref="D108:D117" si="29">"Task Level "&amp;B108&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E108" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F108" s="52"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="I108" s="72"/>
+      <c r="J108" s="75"/>
+      <c r="M108" s="35"/>
+    </row>
+    <row r="109" spans="2:13" ht="21" customHeight="1">
+      <c r="B109" s="59">
+        <v>4</v>
+      </c>
+      <c r="C109" s="61" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>6.2.2.4</v>
+      </c>
+      <c r="D109" s="49" t="str">
+        <f t="shared" si="29"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E109" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F109" s="52"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="72"/>
+      <c r="I109" s="72"/>
+      <c r="J109" s="75"/>
+      <c r="M109" s="35"/>
+    </row>
+    <row r="110" spans="2:13" ht="21" customHeight="1">
+      <c r="B110" s="59">
+        <v>4</v>
+      </c>
+      <c r="C110" s="61" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>6.2.2.5</v>
+      </c>
+      <c r="D110" s="49" t="str">
+        <f t="shared" si="29"/>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E110" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F110" s="52"/>
+      <c r="G110" s="52"/>
+      <c r="H110" s="72"/>
+      <c r="I110" s="72"/>
+      <c r="J110" s="75"/>
+      <c r="M110" s="35"/>
+    </row>
+    <row r="111" spans="2:13" ht="21" customHeight="1">
+      <c r="B111" s="59">
+        <v>4</v>
+      </c>
+      <c r="C111" s="61" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>6.2.2.6</v>
+      </c>
+      <c r="D111" s="49" t="str">
+        <f>"Task Level "&amp;B111&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E111" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F111" s="52"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="72"/>
+      <c r="I111" s="72"/>
+      <c r="J111" s="75"/>
+      <c r="M111" s="35"/>
+    </row>
+    <row r="112" spans="2:13" ht="21" customHeight="1">
+      <c r="B112" s="59">
+        <v>4</v>
+      </c>
+      <c r="C112" s="61" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>6.2.2.7</v>
+      </c>
+      <c r="D112" s="49" t="str">
+        <f t="shared" ref="D112:D117" si="30">"Task Level "&amp;B112&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E112" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="F112" s="52"/>
+      <c r="G112" s="52"/>
+      <c r="H112" s="72"/>
+      <c r="I112" s="72"/>
+      <c r="J112" s="75"/>
+      <c r="M112" s="35"/>
+    </row>
+    <row r="113" spans="2:13" ht="21" customHeight="1">
+      <c r="B113" s="59">
+        <v>2</v>
+      </c>
+      <c r="C113" s="61" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>6.3</v>
+      </c>
+      <c r="D113" s="47" t="str">
+        <f t="shared" si="30"/>
+        <v>Task Level 2 Description</v>
+      </c>
+      <c r="E113" s="52"/>
+      <c r="F113" s="52"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="72"/>
+      <c r="I113" s="72"/>
+      <c r="J113" s="75"/>
+      <c r="M113" s="35"/>
+    </row>
+    <row r="114" spans="2:13" ht="21" customHeight="1">
+      <c r="B114" s="59">
+        <v>4</v>
+      </c>
+      <c r="C114" s="61" t="str">
+        <f ca="1">IF(B114="","",IF(B114&gt;OFFSET(B114,-1,0,1,1),IF(OFFSET(C114,-1,0,1,1)="","1",OFFSET(C114,-1,0,1,1))&amp;REPT(".1",B114-MAX(OFFSET(B114,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C114,-1,0,1,1))),REPT("1.",B114-1)&amp;IFERROR(VALUE(OFFSET(C114,-1,0,1,1))+1,"1"),IF(B114=1,"",IFERROR(LEFT(OFFSET(C114,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C114,-1,0,1,1),".","^",B114-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C114,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C114,-1,0,1,1)))),(B114-1)*LEN(OFFSET(C114,-1,0,1,1))+1,LEN(OFFSET(C114,-1,0,1,1)))))+1)))</f>
+        <v>6.3.1.1</v>
+      </c>
+      <c r="D114" s="49" t="str">
+        <f>"Task Level "&amp;B114&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E114" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F114" s="52"/>
+      <c r="G114" s="52"/>
+      <c r="H114" s="72"/>
+      <c r="I114" s="72"/>
+      <c r="J114" s="75"/>
+      <c r="M114" s="35"/>
+    </row>
+    <row r="115" spans="2:13" ht="21" customHeight="1">
+      <c r="B115" s="59">
+        <v>4</v>
+      </c>
+      <c r="C115" s="61" t="str">
+        <f ca="1">IF(B115="","",IF(B115&gt;OFFSET(B115,-1,0,1,1),IF(OFFSET(C115,-1,0,1,1)="","1",OFFSET(C115,-1,0,1,1))&amp;REPT(".1",B115-MAX(OFFSET(B115,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C115,-1,0,1,1))),REPT("1.",B115-1)&amp;IFERROR(VALUE(OFFSET(C115,-1,0,1,1))+1,"1"),IF(B115=1,"",IFERROR(LEFT(OFFSET(C115,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C115,-1,0,1,1),".","^",B115-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C115,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C115,-1,0,1,1)))),(B115-1)*LEN(OFFSET(C115,-1,0,1,1))+1,LEN(OFFSET(C115,-1,0,1,1)))))+1)))</f>
+        <v>6.3.1.2</v>
+      </c>
+      <c r="D115" s="49" t="str">
+        <f>"Task Level "&amp;B115&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E115" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F115" s="52"/>
+      <c r="G115" s="52"/>
+      <c r="H115" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="I115" s="72"/>
+      <c r="J115" s="75"/>
+      <c r="M115" s="35"/>
+    </row>
+    <row r="116" spans="2:13" ht="21" customHeight="1">
+      <c r="B116" s="59">
+        <v>4</v>
+      </c>
+      <c r="C116" s="61" t="str">
+        <f ca="1">IF(B116="","",IF(B116&gt;OFFSET(B116,-1,0,1,1),IF(OFFSET(C116,-1,0,1,1)="","1",OFFSET(C116,-1,0,1,1))&amp;REPT(".1",B116-MAX(OFFSET(B116,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C116,-1,0,1,1))),REPT("1.",B116-1)&amp;IFERROR(VALUE(OFFSET(C116,-1,0,1,1))+1,"1"),IF(B116=1,"",IFERROR(LEFT(OFFSET(C116,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C116,-1,0,1,1),".","^",B116-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C116,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C116,-1,0,1,1)))),(B116-1)*LEN(OFFSET(C116,-1,0,1,1))+1,LEN(OFFSET(C116,-1,0,1,1)))))+1)))</f>
+        <v>6.3.1.3</v>
+      </c>
+      <c r="D116" s="49" t="str">
+        <f>"Task Level "&amp;B116&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E116" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F116" s="52"/>
+      <c r="G116" s="52"/>
+      <c r="H116" s="72"/>
+      <c r="I116" s="72"/>
+      <c r="J116" s="75"/>
+      <c r="M116" s="35"/>
+    </row>
+    <row r="117" spans="2:13" ht="21" customHeight="1">
+      <c r="B117" s="59">
+        <v>4</v>
+      </c>
+      <c r="C117" s="61" t="str">
+        <f ca="1">IF(B117="","",IF(B117&gt;OFFSET(B117,-1,0,1,1),IF(OFFSET(C117,-1,0,1,1)="","1",OFFSET(C117,-1,0,1,1))&amp;REPT(".1",B117-MAX(OFFSET(B117,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C117,-1,0,1,1))),REPT("1.",B117-1)&amp;IFERROR(VALUE(OFFSET(C117,-1,0,1,1))+1,"1"),IF(B117=1,"",IFERROR(LEFT(OFFSET(C117,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C117,-1,0,1,1),".","^",B117-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C117,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C117,-1,0,1,1)))),(B117-1)*LEN(OFFSET(C117,-1,0,1,1))+1,LEN(OFFSET(C117,-1,0,1,1)))))+1)))</f>
+        <v>6.3.1.4</v>
+      </c>
+      <c r="D117" s="49" t="str">
+        <f>"Task Level "&amp;B117&amp;" Description"</f>
+        <v>Task Level 4 Description</v>
+      </c>
+      <c r="E117" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F117" s="52"/>
+      <c r="G117" s="52"/>
+      <c r="H117" s="72"/>
+      <c r="I117" s="72"/>
+      <c r="J117" s="75"/>
+      <c r="M117" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
-  <conditionalFormatting sqref="B6:D10 F6:H7 F12:H12 B12:D13 C14:C15 B22:I37 B21:D21 F21:I21 G8:H10 F8:F11 B16:E16 G16:I16 G13:H13 B17:I18">
-    <cfRule type="expression" dxfId="21" priority="26">
+  <conditionalFormatting sqref="B6:D10 B15:D16 C17:C18 B25:F25 B24:D24 H16:I16 J35 B35:E35 B46:F46 I15 H19:J21 H6:I10 H46:J46 H24:J25 B21:F21 B19:E20 F13:G24 F6:F12">
+    <cfRule type="expression" dxfId="313" priority="310">
       <formula>($B6=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I13 I6:I10">
-    <cfRule type="expression" dxfId="20" priority="25">
+  <conditionalFormatting sqref="J15:J16 J6:J10">
+    <cfRule type="expression" dxfId="312" priority="309">
       <formula>($B6=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E10 E12:E13">
-    <cfRule type="expression" dxfId="19" priority="24">
+  <conditionalFormatting sqref="E6:E10 E15:E16">
+    <cfRule type="expression" dxfId="311" priority="308">
       <formula>($B6=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:H15 B15 D15">
-    <cfRule type="expression" dxfId="18" priority="20">
+  <conditionalFormatting sqref="H18:I18 B18 D18">
+    <cfRule type="expression" dxfId="310" priority="304">
+      <formula>($B18=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="expression" dxfId="309" priority="303">
+      <formula>($B18=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="expression" dxfId="308" priority="302">
+      <formula>($B18=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:I17 B17 D17">
+    <cfRule type="expression" dxfId="307" priority="301">
+      <formula>($B17=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="expression" dxfId="306" priority="300">
+      <formula>($B17=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="305" priority="299">
+      <formula>($B17=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:I14 B14:D14">
+    <cfRule type="expression" dxfId="304" priority="295">
+      <formula>($B14=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="expression" dxfId="303" priority="294">
+      <formula>($B14=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="302" priority="293">
+      <formula>($B14=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:D23 H23:J23">
+    <cfRule type="expression" dxfId="301" priority="286">
+      <formula>($B23=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="expression" dxfId="300" priority="291">
+      <formula>($B24=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:D22 F22 I22:J22">
+    <cfRule type="expression" dxfId="299" priority="290">
+      <formula>($B22=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="298" priority="289">
+      <formula>($B22=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" dxfId="297" priority="285">
+      <formula>($B23=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="expression" dxfId="296" priority="282">
+      <formula>($B13=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:E50 E55:E56">
+    <cfRule type="expression" dxfId="294" priority="246">
+      <formula>($B47=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:I13 B13:D13">
+    <cfRule type="expression" dxfId="293" priority="283">
+      <formula>($B13=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
+    <cfRule type="expression" dxfId="292" priority="276">
+      <formula>($B39=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="expression" dxfId="291" priority="281">
+      <formula>($B13=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:D29 C38:C39 B45:D45 H45:J45 B40:E40 H35:I35 H26:I29 B41:F41 B42:E42 H40:J42">
+    <cfRule type="expression" dxfId="290" priority="280">
+      <formula>($B26=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J29">
+    <cfRule type="expression" dxfId="289" priority="279">
+      <formula>($B26=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E29">
+    <cfRule type="expression" dxfId="288" priority="278">
+      <formula>($B26=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:I39 B39 D39">
+    <cfRule type="expression" dxfId="287" priority="277">
+      <formula>($B39=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="expression" dxfId="286" priority="197">
+      <formula>($B94=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" dxfId="285" priority="275">
+      <formula>($B39=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:I38 B38 D38">
+    <cfRule type="expression" dxfId="284" priority="274">
+      <formula>($B38=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="expression" dxfId="283" priority="273">
+      <formula>($B38=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="expression" dxfId="282" priority="272">
+      <formula>($B38=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:I33 B33:D33">
+    <cfRule type="expression" dxfId="281" priority="271">
+      <formula>($B33=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="expression" dxfId="280" priority="270">
+      <formula>($B33=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="expression" dxfId="279" priority="269">
+      <formula>($B33=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" dxfId="278" priority="262">
+      <formula>($B44=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" dxfId="277" priority="268">
+      <formula>($B45=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:D43 I43:J43">
+    <cfRule type="expression" dxfId="276" priority="267">
+      <formula>($B43=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" dxfId="275" priority="266">
+      <formula>($B43=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="expression" dxfId="274" priority="253">
+      <formula>($B37=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:D44 H44:J44">
+    <cfRule type="expression" dxfId="273" priority="263">
+      <formula>($B44=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="272" priority="258">
+      <formula>($B32=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56:F59">
+    <cfRule type="expression" dxfId="271" priority="232">
+      <formula>($B56=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:I32 B32:D32">
+    <cfRule type="expression" dxfId="270" priority="260">
+      <formula>($B32=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="expression" dxfId="269" priority="259">
+      <formula>($B32=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="expression" dxfId="268" priority="252">
+      <formula>($B37=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:D34 H34:I34">
+    <cfRule type="expression" dxfId="267" priority="257">
+      <formula>($B34=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
+    <cfRule type="expression" dxfId="266" priority="256">
+      <formula>($B34=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="265" priority="255">
+      <formula>($B34=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:D37 I37">
+    <cfRule type="expression" dxfId="264" priority="254">
+      <formula>($B37=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="expression" dxfId="263" priority="249">
+      <formula>($B36=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F91 B91:D91 H91:I91">
+    <cfRule type="expression" dxfId="262" priority="173">
+      <formula>($B91=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:D36 I36">
+    <cfRule type="expression" dxfId="261" priority="251">
+      <formula>($B36=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="expression" dxfId="260" priority="250">
+      <formula>($B36=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="259" priority="243">
+      <formula>($B58=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:D50 B55:D56 C57:C58 B64:D64 F64 F47:F50 B59:E59 B60:F61 F54 H59:J61 H47:I50 H64:J64 H55:I56">
+    <cfRule type="expression" dxfId="258" priority="248">
+      <formula>($B47=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55:J56 J47:J50">
+    <cfRule type="expression" dxfId="257" priority="247">
+      <formula>($B47=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="256" priority="237">
+      <formula>($B54=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58:I58 B58 D58">
+    <cfRule type="expression" dxfId="255" priority="245">
+      <formula>($B58=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58">
+    <cfRule type="expression" dxfId="254" priority="244">
+      <formula>($B58=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H110:I110 B110 D110">
+    <cfRule type="expression" dxfId="253" priority="164">
+      <formula>($B110=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57:I57 B57 D57">
+    <cfRule type="expression" dxfId="252" priority="242">
+      <formula>($B57=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="expression" dxfId="251" priority="241">
+      <formula>($B57=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="250" priority="240">
+      <formula>($B57=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54:I54 B54:D54">
+    <cfRule type="expression" dxfId="249" priority="239">
+      <formula>($B54=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54">
+    <cfRule type="expression" dxfId="248" priority="238">
+      <formula>($B54=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="expression" dxfId="246" priority="233">
+      <formula>($B62=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="245" priority="236">
+      <formula>($B64=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:D62 I62:J62">
+    <cfRule type="expression" dxfId="244" priority="235">
+      <formula>($B62=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="243" priority="234">
+      <formula>($B62=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:E69 E72:E73">
+    <cfRule type="expression" dxfId="242" priority="223">
+      <formula>($B65=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:D63 F63 H63:J63">
+    <cfRule type="expression" dxfId="241" priority="231">
+      <formula>($B63=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="240" priority="230">
+      <formula>($B63=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="expression" dxfId="239" priority="229">
+      <formula>($B51=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:I51 B51:D51">
+    <cfRule type="expression" dxfId="238" priority="228">
+      <formula>($B51=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="expression" dxfId="237" priority="227">
+      <formula>($B51=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" dxfId="236" priority="226">
+      <formula>($B51=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:D69 B72:D73 C74:C75 B82:F82 B81:D81 F65 B76:E76 B77:F77 J90 B90:E90 B101:F101 H101:J101 H76:J78 H65:I69 H81:J82 H72:I73 F67 B78:E78">
+    <cfRule type="expression" dxfId="235" priority="225">
+      <formula>($B65=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72:J73 J65:J69">
+    <cfRule type="expression" dxfId="234" priority="224">
+      <formula>($B65=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75:I75 B75 D75">
+    <cfRule type="expression" dxfId="232" priority="222">
+      <formula>($B75=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75">
+    <cfRule type="expression" dxfId="231" priority="221">
+      <formula>($B75=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="230" priority="220">
+      <formula>($B75=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74:I74 B74 D74">
+    <cfRule type="expression" dxfId="229" priority="219">
+      <formula>($B74=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74">
+    <cfRule type="expression" dxfId="228" priority="218">
+      <formula>($B74=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" dxfId="227" priority="217">
+      <formula>($B74=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71:I71 B71:D71">
+    <cfRule type="expression" dxfId="226" priority="216">
+      <formula>($B71=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71">
+    <cfRule type="expression" dxfId="225" priority="215">
+      <formula>($B71=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" dxfId="224" priority="214">
+      <formula>($B71=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="expression" dxfId="223" priority="210">
+      <formula>($B79=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="expression" dxfId="222" priority="213">
+      <formula>($B81=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79:D79 I79:J79">
+    <cfRule type="expression" dxfId="221" priority="212">
+      <formula>($B79=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="expression" dxfId="220" priority="211">
+      <formula>($B79=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80:D80 H80:J80">
+    <cfRule type="expression" dxfId="218" priority="208">
+      <formula>($B80=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="217" priority="207">
+      <formula>($B80=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70:I70 B70:D70">
+    <cfRule type="expression" dxfId="215" priority="205">
+      <formula>($B70=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J70">
+    <cfRule type="expression" dxfId="214" priority="204">
+      <formula>($B70=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="expression" dxfId="213" priority="203">
+      <formula>($B70=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83:D86 C93:C94 B100:D100 B95:E95 H90:I90 B96:F96 H83:I86 H95:J97 H100:J100 B97:E97">
+    <cfRule type="expression" dxfId="212" priority="202">
+      <formula>($B83=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83:J86">
+    <cfRule type="expression" dxfId="211" priority="201">
+      <formula>($B83=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E86">
+    <cfRule type="expression" dxfId="210" priority="200">
+      <formula>($B83=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94:I94 B94 D94">
+    <cfRule type="expression" dxfId="209" priority="199">
+      <formula>($B94=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J94">
+    <cfRule type="expression" dxfId="208" priority="198">
+      <formula>($B94=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" dxfId="207" priority="188">
+      <formula>($B98=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H93:I93 B93 D93">
+    <cfRule type="expression" dxfId="206" priority="196">
+      <formula>($B93=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J93">
+    <cfRule type="expression" dxfId="205" priority="195">
+      <formula>($B93=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="expression" dxfId="204" priority="194">
+      <formula>($B93=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88:I88 B88:D88">
+    <cfRule type="expression" dxfId="203" priority="193">
+      <formula>($B88=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J88">
+    <cfRule type="expression" dxfId="202" priority="192">
+      <formula>($B88=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="expression" dxfId="201" priority="191">
+      <formula>($B88=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H98">
+    <cfRule type="expression" dxfId="200" priority="187">
+      <formula>($B98=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="expression" dxfId="199" priority="190">
+      <formula>($B100=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B98:D98 F98 I98:J98">
+    <cfRule type="expression" dxfId="198" priority="189">
+      <formula>($B98=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99:D99 H99:J99">
+    <cfRule type="expression" dxfId="195" priority="185">
+      <formula>($B99=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="expression" dxfId="194" priority="184">
+      <formula>($B99=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I87 B87:D87">
+    <cfRule type="expression" dxfId="192" priority="182">
+      <formula>($B87=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J87">
+    <cfRule type="expression" dxfId="191" priority="181">
+      <formula>($B87=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="190" priority="180">
+      <formula>($B87=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F89 B89:D89 H89:I89">
+    <cfRule type="expression" dxfId="189" priority="179">
+      <formula>($B89=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J89">
+    <cfRule type="expression" dxfId="188" priority="178">
+      <formula>($B89=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="expression" dxfId="187" priority="177">
+      <formula>($B89=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92 B92:D92 H92:I92">
+    <cfRule type="expression" dxfId="186" priority="176">
+      <formula>($B92=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J92">
+    <cfRule type="expression" dxfId="185" priority="175">
+      <formula>($B92=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="expression" dxfId="184" priority="174">
+      <formula>($B92=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J91">
+    <cfRule type="expression" dxfId="182" priority="172">
+      <formula>($B91=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="expression" dxfId="181" priority="171">
+      <formula>($B91=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B102:D105 B108:D109 C110:C111 B117:D117 F117 B112:E112 B113:F114 F108 H112:J114 H102:I105 H117:J117 H108:I109">
+    <cfRule type="expression" dxfId="180" priority="170">
+      <formula>($B102=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J108:J109 J102:J105">
+    <cfRule type="expression" dxfId="179" priority="169">
+      <formula>($B102=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102:E105 E108:E109">
+    <cfRule type="expression" dxfId="178" priority="168">
+      <formula>($B102=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H111:I111 B111 D111">
+    <cfRule type="expression" dxfId="177" priority="167">
+      <formula>($B111=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J111">
+    <cfRule type="expression" dxfId="176" priority="166">
+      <formula>($B111=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="expression" dxfId="175" priority="165">
+      <formula>($B111=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H115">
+    <cfRule type="expression" dxfId="174" priority="155">
+      <formula>($B115=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J110">
+    <cfRule type="expression" dxfId="173" priority="163">
+      <formula>($B110=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="expression" dxfId="172" priority="162">
+      <formula>($B110=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H107:I107 B107:D107">
+    <cfRule type="expression" dxfId="171" priority="161">
+      <formula>($B107=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J107">
+    <cfRule type="expression" dxfId="170" priority="160">
+      <formula>($B107=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="expression" dxfId="169" priority="159">
+      <formula>($B107=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="expression" dxfId="167" priority="158">
+      <formula>($B117=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B115:D115 F115 I115:J115">
+    <cfRule type="expression" dxfId="166" priority="157">
+      <formula>($B115=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="expression" dxfId="165" priority="156">
+      <formula>($B115=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109:F112">
+    <cfRule type="expression" dxfId="164" priority="154">
+      <formula>($B109=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116:D116 F116 H116:J116">
+    <cfRule type="expression" dxfId="163" priority="153">
+      <formula>($B116=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="expression" dxfId="162" priority="152">
+      <formula>($B116=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H106:I106 B106:D106">
+    <cfRule type="expression" dxfId="160" priority="150">
+      <formula>($B106=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J106">
+    <cfRule type="expression" dxfId="159" priority="149">
+      <formula>($B106=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="expression" dxfId="158" priority="148">
+      <formula>($B106=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:H37">
+    <cfRule type="expression" dxfId="157" priority="139">
+      <formula>($B36=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="expression" dxfId="156" priority="135">
+      <formula>($B53=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83:G86 G88 G96:G97 G100">
+    <cfRule type="expression" dxfId="155" priority="106">
+      <formula>($B83=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F33">
+    <cfRule type="expression" dxfId="154" priority="144">
+      <formula>($B26=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
+    <cfRule type="expression" dxfId="153" priority="105">
+      <formula>($B98=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="expression" dxfId="150" priority="136">
       <formula>($B15=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="17" priority="19">
+  <conditionalFormatting sqref="J52">
+    <cfRule type="expression" dxfId="149" priority="129">
+      <formula>($B52=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="expression" dxfId="148" priority="138">
+      <formula>($B43=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="expression" dxfId="147" priority="137">
+      <formula>($B22=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52:I52 B52:D52">
+    <cfRule type="expression" dxfId="146" priority="130">
+      <formula>($B52=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="expression" dxfId="145" priority="50">
+      <formula>($B55=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53:I53 B53:D53">
+    <cfRule type="expression" dxfId="144" priority="134">
+      <formula>($B53=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="expression" dxfId="143" priority="133">
+      <formula>($B53=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="142" priority="132">
+      <formula>($B53=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="expression" dxfId="141" priority="131">
+      <formula>($B52=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55">
+    <cfRule type="expression" dxfId="140" priority="51">
+      <formula>($B55=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:I31 B31:D31">
+    <cfRule type="expression" dxfId="139" priority="41">
+      <formula>($B31=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="138" priority="128">
+      <formula>($B52=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="137" priority="81">
+      <formula>($B24=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="expression" dxfId="136" priority="82">
+      <formula>($B23=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25 G46 G6:G7 G14:G15 G21">
+    <cfRule type="expression" dxfId="135" priority="125">
+      <formula>($B6=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="expression" dxfId="134" priority="124">
+      <formula>($B22=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G13">
+    <cfRule type="expression" dxfId="133" priority="80">
+      <formula>($B8=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="expression" dxfId="132" priority="122">
+      <formula>($B41=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G92">
+    <cfRule type="expression" dxfId="129" priority="100">
+      <formula>($B92=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89">
+    <cfRule type="expression" dxfId="127" priority="101">
+      <formula>($B89=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G60">
+    <cfRule type="expression" dxfId="126" priority="116">
+      <formula>($B60=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G33">
+    <cfRule type="expression" dxfId="122" priority="93">
+      <formula>($B26=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82 G65:G67 G77 G101">
+    <cfRule type="expression" dxfId="121" priority="111">
+      <formula>($B65=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91">
+    <cfRule type="expression" dxfId="118" priority="99">
+      <formula>($B91=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G115">
+    <cfRule type="expression" dxfId="116" priority="97">
+      <formula>($B115=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G109:G112">
+    <cfRule type="expression" dxfId="115" priority="96">
+      <formula>($B109=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117 G102:G105 G113:G114 G107:G108">
+    <cfRule type="expression" dxfId="108" priority="98">
+      <formula>($B102=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G116">
+    <cfRule type="expression" dxfId="105" priority="95">
+      <formula>($B116=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G106">
+    <cfRule type="expression" dxfId="104" priority="94">
+      <formula>($B106=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G24">
+    <cfRule type="expression" dxfId="103" priority="78">
+      <formula>($B23=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="expression" dxfId="102" priority="67">
+      <formula>($B22=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="expression" dxfId="100" priority="64">
+      <formula>($B34=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43">
+    <cfRule type="expression" dxfId="99" priority="58">
+      <formula>($B43=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="97" priority="77">
+      <formula>($B20=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63:G64">
+    <cfRule type="expression" dxfId="96" priority="53">
+      <formula>($B63=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="expression" dxfId="95" priority="44">
+      <formula>($B30=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="expression" dxfId="94" priority="84">
       <formula>($B15=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>($B15=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:H14 B14 D14">
-    <cfRule type="expression" dxfId="15" priority="17">
-      <formula>($B14=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>($B14=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>($B14=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:H11 B11:D11">
-    <cfRule type="expression" dxfId="12" priority="11">
+  <conditionalFormatting sqref="F16:F19">
+    <cfRule type="expression" dxfId="93" priority="83">
+      <formula>($B16=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G19">
+    <cfRule type="expression" dxfId="89" priority="79">
+      <formula>($B16=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="expression" dxfId="88" priority="69">
+      <formula>($B42=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:G45">
+    <cfRule type="expression" dxfId="87" priority="68">
+      <formula>($B44=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="86" priority="76">
+      <formula>($B20=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="expression" dxfId="85" priority="75">
+      <formula>($B35=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="expression" dxfId="84" priority="74">
+      <formula>($B35=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F40">
+    <cfRule type="expression" dxfId="83" priority="73">
+      <formula>($B38=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="expression" dxfId="82" priority="72">
+      <formula>($B42=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:F45">
+    <cfRule type="expression" dxfId="81" priority="71">
+      <formula>($B44=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38:G40">
+    <cfRule type="expression" dxfId="80" priority="70">
+      <formula>($B38=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="expression" dxfId="76" priority="66">
+      <formula>($B22=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:G34">
+    <cfRule type="expression" dxfId="75" priority="65">
+      <formula>($B34=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56:G59">
+    <cfRule type="expression" dxfId="74" priority="55">
+      <formula>($B56=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="expression" dxfId="73" priority="63">
+      <formula>($B34=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36:G37">
+    <cfRule type="expression" dxfId="72" priority="62">
+      <formula>($B36=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G37">
+    <cfRule type="expression" dxfId="71" priority="61">
+      <formula>($B36=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36:F37">
+    <cfRule type="expression" dxfId="70" priority="60">
+      <formula>($B36=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:G43">
+    <cfRule type="expression" dxfId="69" priority="59">
+      <formula>($B43=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="expression" dxfId="67" priority="57">
+      <formula>($B43=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47:G54">
+    <cfRule type="expression" dxfId="66" priority="56">
+      <formula>($B47=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G61">
+    <cfRule type="expression" dxfId="64" priority="54">
+      <formula>($B61=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55:G55">
+    <cfRule type="expression" dxfId="62" priority="52">
+      <formula>($B55=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62:G62">
+    <cfRule type="expression" dxfId="59" priority="49">
+      <formula>($B62=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62">
+    <cfRule type="expression" dxfId="58" priority="48">
+      <formula>($B62=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="expression" dxfId="57" priority="47">
+      <formula>($B62=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:I30 B30:D30">
+    <cfRule type="expression" dxfId="55" priority="45">
+      <formula>($B30=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="53" priority="43">
+      <formula>($B30=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="expression" dxfId="52" priority="40">
+      <formula>($B31=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="49" priority="39">
+      <formula>($B31=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:I12 B12:D12">
+    <cfRule type="expression" dxfId="36" priority="32">
+      <formula>($B12=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="expression" dxfId="34" priority="34">
       <formula>($B11=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="11" priority="10">
+  <conditionalFormatting sqref="H11:I11 B11:D11">
+    <cfRule type="expression" dxfId="33" priority="35">
       <formula>($B11=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>($B11=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="9" priority="4">
-      <formula>($B19=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>($B21=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:D19 F19 H19:I19">
-    <cfRule type="expression" dxfId="7" priority="6">
-      <formula>($B19=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="6" priority="5">
-      <formula>($B19=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F16">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>($B13=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:D20 F20:I20">
+  <conditionalFormatting sqref="J12">
+    <cfRule type="expression" dxfId="31" priority="31">
+      <formula>($B12=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="30" priority="30">
+      <formula>($B12=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66">
+    <cfRule type="expression" dxfId="29" priority="29">
+      <formula>($B66=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68:F71 F73:F76">
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>($B68=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68:G71 G73:G76">
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>($B68=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:G72">
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>($B72=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G72">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>($B72=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72">
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>($B72=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>($B78=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>($B78=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80:F81">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>($B80=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80:G81">
+    <cfRule type="expression" dxfId="18" priority="18">
+      <formula>($B80=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79:G79">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>($B79=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>($B79=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>($B79=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83:F86 F88">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>($B83=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>($B90=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F93:F95">
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>($B93=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>($B97=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F99:F100">
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>($B99=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87:G87">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>($B87=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G87">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>($B87=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>($B87=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F102:F107">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>($B102=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>($B90=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G93">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>($B93=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G94">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>($B94=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G95">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>($B20=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
+      <formula>($B95=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>($B20=1)</formula>
+      <formula>($B99=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B6:B37" xr:uid="{4928B118-1765-5C49-9423-FFD10A686620}">
+    <dataValidation type="list" allowBlank="1" sqref="B6:B117" xr:uid="{4928B118-1765-5C49-9423-FFD10A686620}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1" xr:uid="{5BD9AAFA-9CEB-DA43-B64D-575E37D07E5A}"/>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{5BD9AAFA-9CEB-DA43-B64D-575E37D07E5A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.4" bottom="0.5" header="0.25" footer="0.25"/>
@@ -3144,12 +8641,12 @@
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="B6:G30">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>($B6=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>($B6=1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/work-breakdown-structure.xlsx
+++ b/work-breakdown-structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flybird/Desktop/wk/FP/excel tools/excel_tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8584E7-DD7F-2E43-A0CC-13A100B29FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C7CE5E-E5C8-E743-89D7-2D4B01D32226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,12 +29,11 @@
     <definedName name="vertex42_title" hidden="1">"Work Breakdown Structure Template"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="109">
   <si>
     <t>1)</t>
   </si>
@@ -384,10 +383,6 @@
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
-    <t>50/108 tables</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
     <t>5/13 reports</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
@@ -397,6 +392,34 @@
   </si>
   <si>
     <t>MMM</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source Support Timeline: AUG</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Source Support Methods: </t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>source team push the files to Juniper server and execute Curl commands to trigger Juniper ingestion</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source Support Timeline: TBC</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source Support Methods: TBC</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>108 tables</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source Support Timeline: JUL</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +431,7 @@
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="[$-409]ddd\,\ mmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -625,6 +648,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -676,7 +705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -939,6 +968,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF808080"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -947,7 +989,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1153,376 +1195,15 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="314">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="262">
     <dxf>
       <fill>
         <patternFill>
@@ -3986,8 +3667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A24254-DC15-9444-AF5E-7EFD85FF466C}">
   <dimension ref="B1:M117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83:G100"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="14"/>
@@ -4000,7 +3681,7 @@
     <col min="6" max="7" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="103" style="1" customWidth="1"/>
     <col min="11" max="11" width="2" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="24.33203125" style="1" customWidth="1"/>
@@ -4122,7 +3803,7 @@
       <c r="F7" s="52"/>
       <c r="G7" s="52"/>
       <c r="H7" s="72">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="I7" s="72">
         <v>44456</v>
@@ -4371,7 +4052,9 @@
       </c>
       <c r="H16" s="72"/>
       <c r="I16" s="72"/>
-      <c r="J16" s="75"/>
+      <c r="J16" s="75" t="s">
+        <v>102</v>
+      </c>
       <c r="M16" s="35"/>
     </row>
     <row r="17" spans="2:13" ht="21" customHeight="1">
@@ -4397,7 +4080,9 @@
       </c>
       <c r="H17" s="72"/>
       <c r="I17" s="72"/>
-      <c r="J17" s="75"/>
+      <c r="J17" s="75" t="s">
+        <v>103</v>
+      </c>
       <c r="M17" s="35"/>
     </row>
     <row r="18" spans="2:13" ht="21" customHeight="1">
@@ -4423,7 +4108,9 @@
       </c>
       <c r="H18" s="72"/>
       <c r="I18" s="72"/>
-      <c r="J18" s="75"/>
+      <c r="J18" s="75" t="s">
+        <v>104</v>
+      </c>
       <c r="M18" s="35"/>
     </row>
     <row r="19" spans="2:13" ht="21" customHeight="1">
@@ -4723,7 +4410,7 @@
       <c r="H30" s="72"/>
       <c r="I30" s="72"/>
       <c r="J30" s="75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M30" s="35"/>
     </row>
@@ -4748,7 +4435,9 @@
       <c r="G31" s="52"/>
       <c r="H31" s="72"/>
       <c r="I31" s="72"/>
-      <c r="J31" s="75"/>
+      <c r="J31" s="75" t="s">
+        <v>102</v>
+      </c>
       <c r="M31" s="35"/>
     </row>
     <row r="32" spans="2:13" ht="21" customHeight="1">
@@ -4772,7 +4461,9 @@
       <c r="G32" s="52"/>
       <c r="H32" s="72"/>
       <c r="I32" s="72"/>
-      <c r="J32" s="75"/>
+      <c r="J32" s="75" t="s">
+        <v>103</v>
+      </c>
       <c r="M32" s="35"/>
     </row>
     <row r="33" spans="2:13" ht="21" customHeight="1">
@@ -4796,7 +4487,9 @@
       <c r="G33" s="52"/>
       <c r="H33" s="72"/>
       <c r="I33" s="72"/>
-      <c r="J33" s="75"/>
+      <c r="J33" s="75" t="s">
+        <v>104</v>
+      </c>
       <c r="M33" s="35"/>
     </row>
     <row r="34" spans="2:13" ht="21" customHeight="1">
@@ -5109,7 +4802,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="61" t="str">
-        <f t="shared" ref="C47:C64" ca="1" si="11">IF(B47="","",IF(B47&gt;OFFSET(B47,-1,0,1,1),IF(OFFSET(C47,-1,0,1,1)="","1",OFFSET(C47,-1,0,1,1))&amp;REPT(".1",B47-MAX(OFFSET(B47,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C47,-1,0,1,1))),REPT("1.",B47-1)&amp;IFERROR(VALUE(OFFSET(C47,-1,0,1,1))+1,"1"),IF(B47=1,"",IFERROR(LEFT(OFFSET(C47,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C47,-1,0,1,1),".","^",B47-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C47,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C47,-1,0,1,1)))),(B47-1)*LEN(OFFSET(C47,-1,0,1,1))+1,LEN(OFFSET(C47,-1,0,1,1)))))+1)))</f>
+        <f t="shared" ref="C47:C51" ca="1" si="11">IF(B47="","",IF(B47&gt;OFFSET(B47,-1,0,1,1),IF(OFFSET(C47,-1,0,1,1)="","1",OFFSET(C47,-1,0,1,1))&amp;REPT(".1",B47-MAX(OFFSET(B47,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C47,-1,0,1,1))),REPT("1.",B47-1)&amp;IFERROR(VALUE(OFFSET(C47,-1,0,1,1))+1,"1"),IF(B47=1,"",IFERROR(LEFT(OFFSET(C47,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C47,-1,0,1,1),".","^",B47-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C47,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C47,-1,0,1,1)))),(B47-1)*LEN(OFFSET(C47,-1,0,1,1))+1,LEN(OFFSET(C47,-1,0,1,1)))))+1)))</f>
         <v>3.1</v>
       </c>
       <c r="D47" s="47" t="str">
@@ -5141,7 +4834,7 @@
         <v>3.2</v>
       </c>
       <c r="D48" s="47" t="str">
-        <f t="shared" ref="D48:D64" si="12">"Task Level "&amp;B48&amp;" Description"</f>
+        <f t="shared" ref="D48:D51" si="12">"Task Level "&amp;B48&amp;" Description"</f>
         <v>Task Level 2 Description</v>
       </c>
       <c r="E48" s="52" t="s">
@@ -5212,7 +4905,7 @@
       <c r="H50" s="72"/>
       <c r="I50" s="72"/>
       <c r="J50" s="75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M50" s="35"/>
     </row>
@@ -5267,7 +4960,9 @@
       </c>
       <c r="H52" s="72"/>
       <c r="I52" s="72"/>
-      <c r="J52" s="75"/>
+      <c r="J52" s="75" t="s">
+        <v>105</v>
+      </c>
       <c r="M52" s="35"/>
     </row>
     <row r="53" spans="2:13" ht="21" customHeight="1">
@@ -5293,7 +4988,9 @@
       </c>
       <c r="H53" s="72"/>
       <c r="I53" s="72"/>
-      <c r="J53" s="75"/>
+      <c r="J53" s="75" t="s">
+        <v>106</v>
+      </c>
       <c r="M53" s="35"/>
     </row>
     <row r="54" spans="2:13" ht="21" customHeight="1">
@@ -5327,11 +5024,11 @@
         <v>4</v>
       </c>
       <c r="C55" s="61" t="str">
-        <f t="shared" ref="C55:C64" ca="1" si="13">IF(B55="","",IF(B55&gt;OFFSET(B55,-1,0,1,1),IF(OFFSET(C55,-1,0,1,1)="","1",OFFSET(C55,-1,0,1,1))&amp;REPT(".1",B55-MAX(OFFSET(B55,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C55,-1,0,1,1))),REPT("1.",B55-1)&amp;IFERROR(VALUE(OFFSET(C55,-1,0,1,1))+1,"1"),IF(B55=1,"",IFERROR(LEFT(OFFSET(C55,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C55,-1,0,1,1),".","^",B55-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C55,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C55,-1,0,1,1)))),(B55-1)*LEN(OFFSET(C55,-1,0,1,1))+1,LEN(OFFSET(C55,-1,0,1,1)))))+1)))</f>
+        <f t="shared" ref="C55:C60" ca="1" si="13">IF(B55="","",IF(B55&gt;OFFSET(B55,-1,0,1,1),IF(OFFSET(C55,-1,0,1,1)="","1",OFFSET(C55,-1,0,1,1))&amp;REPT(".1",B55-MAX(OFFSET(B55,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C55,-1,0,1,1))),REPT("1.",B55-1)&amp;IFERROR(VALUE(OFFSET(C55,-1,0,1,1))+1,"1"),IF(B55=1,"",IFERROR(LEFT(OFFSET(C55,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C55,-1,0,1,1),".","^",B55-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C55,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C55,-1,0,1,1)))),(B55-1)*LEN(OFFSET(C55,-1,0,1,1))+1,LEN(OFFSET(C55,-1,0,1,1)))))+1)))</f>
         <v>3.2.2.3</v>
       </c>
       <c r="D55" s="49" t="str">
-        <f t="shared" ref="D55:D64" si="14">"Task Level "&amp;B55&amp;" Description"</f>
+        <f t="shared" ref="D55:D57" si="14">"Task Level "&amp;B55&amp;" Description"</f>
         <v>Task Level 4 Description</v>
       </c>
       <c r="E55" s="52" t="s">
@@ -5433,7 +5130,7 @@
         <v>3.2.2.7</v>
       </c>
       <c r="D59" s="49" t="str">
-        <f t="shared" ref="D59:D64" si="15">"Task Level "&amp;B59&amp;" Description"</f>
+        <f t="shared" ref="D59:D60" si="15">"Task Level "&amp;B59&amp;" Description"</f>
         <v>Task Level 4 Description</v>
       </c>
       <c r="E59" s="52" t="s">
@@ -5598,7 +5295,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="61" t="str">
-        <f t="shared" ref="C66:C112" ca="1" si="16">IF(B66="","",IF(B66&gt;OFFSET(B66,-1,0,1,1),IF(OFFSET(C66,-1,0,1,1)="","1",OFFSET(C66,-1,0,1,1))&amp;REPT(".1",B66-MAX(OFFSET(B66,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C66,-1,0,1,1))),REPT("1.",B66-1)&amp;IFERROR(VALUE(OFFSET(C66,-1,0,1,1))+1,"1"),IF(B66=1,"",IFERROR(LEFT(OFFSET(C66,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C66,-1,0,1,1),".","^",B66-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C66,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C66,-1,0,1,1)))),(B66-1)*LEN(OFFSET(C66,-1,0,1,1))+1,LEN(OFFSET(C66,-1,0,1,1)))))+1)))</f>
+        <f t="shared" ref="C66:C70" ca="1" si="16">IF(B66="","",IF(B66&gt;OFFSET(B66,-1,0,1,1),IF(OFFSET(C66,-1,0,1,1)="","1",OFFSET(C66,-1,0,1,1))&amp;REPT(".1",B66-MAX(OFFSET(B66,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C66,-1,0,1,1))),REPT("1.",B66-1)&amp;IFERROR(VALUE(OFFSET(C66,-1,0,1,1))+1,"1"),IF(B66=1,"",IFERROR(LEFT(OFFSET(C66,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C66,-1,0,1,1),".","^",B66-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C66,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C66,-1,0,1,1)))),(B66-1)*LEN(OFFSET(C66,-1,0,1,1))+1,LEN(OFFSET(C66,-1,0,1,1)))))+1)))</f>
         <v>4.1</v>
       </c>
       <c r="D66" s="47" t="str">
@@ -5630,7 +5327,7 @@
         <v>4.2</v>
       </c>
       <c r="D67" s="47" t="str">
-        <f t="shared" ref="D67:D105" si="17">"Task Level "&amp;B67&amp;" Description"</f>
+        <f t="shared" ref="D67:D70" si="17">"Task Level "&amp;B67&amp;" Description"</f>
         <v>Task Level 2 Description</v>
       </c>
       <c r="E67" s="52" t="s">
@@ -5756,7 +5453,9 @@
       </c>
       <c r="H71" s="72"/>
       <c r="I71" s="72"/>
-      <c r="J71" s="75"/>
+      <c r="J71" s="75" t="s">
+        <v>105</v>
+      </c>
       <c r="M71" s="35"/>
     </row>
     <row r="72" spans="2:13" ht="21" customHeight="1">
@@ -5764,11 +5463,11 @@
         <v>4</v>
       </c>
       <c r="C72" s="61" t="str">
-        <f t="shared" ref="C72:C117" ca="1" si="18">IF(B72="","",IF(B72&gt;OFFSET(B72,-1,0,1,1),IF(OFFSET(C72,-1,0,1,1)="","1",OFFSET(C72,-1,0,1,1))&amp;REPT(".1",B72-MAX(OFFSET(B72,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C72,-1,0,1,1))),REPT("1.",B72-1)&amp;IFERROR(VALUE(OFFSET(C72,-1,0,1,1))+1,"1"),IF(B72=1,"",IFERROR(LEFT(OFFSET(C72,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C72,-1,0,1,1),".","^",B72-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C72,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C72,-1,0,1,1)))),(B72-1)*LEN(OFFSET(C72,-1,0,1,1))+1,LEN(OFFSET(C72,-1,0,1,1)))))+1)))</f>
+        <f t="shared" ref="C72:C77" ca="1" si="18">IF(B72="","",IF(B72&gt;OFFSET(B72,-1,0,1,1),IF(OFFSET(C72,-1,0,1,1)="","1",OFFSET(C72,-1,0,1,1))&amp;REPT(".1",B72-MAX(OFFSET(B72,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C72,-1,0,1,1))),REPT("1.",B72-1)&amp;IFERROR(VALUE(OFFSET(C72,-1,0,1,1))+1,"1"),IF(B72=1,"",IFERROR(LEFT(OFFSET(C72,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C72,-1,0,1,1),".","^",B72-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C72,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C72,-1,0,1,1)))),(B72-1)*LEN(OFFSET(C72,-1,0,1,1))+1,LEN(OFFSET(C72,-1,0,1,1)))))+1)))</f>
         <v>4.2.2.3</v>
       </c>
       <c r="D72" s="49" t="str">
-        <f t="shared" ref="D72:D110" si="19">"Task Level "&amp;B72&amp;" Description"</f>
+        <f t="shared" ref="D72:D74" si="19">"Task Level "&amp;B72&amp;" Description"</f>
         <v>Task Level 4 Description</v>
       </c>
       <c r="E72" s="52" t="s">
@@ -5780,7 +5479,9 @@
       <c r="G72" s="52"/>
       <c r="H72" s="72"/>
       <c r="I72" s="72"/>
-      <c r="J72" s="75"/>
+      <c r="J72" s="81" t="s">
+        <v>106</v>
+      </c>
       <c r="M72" s="35"/>
     </row>
     <row r="73" spans="2:13" ht="21" customHeight="1">
@@ -5870,7 +5571,7 @@
         <v>4.2.2.7</v>
       </c>
       <c r="D76" s="49" t="str">
-        <f t="shared" ref="D76:D114" si="20">"Task Level "&amp;B76&amp;" Description"</f>
+        <f t="shared" ref="D76:D77" si="20">"Task Level "&amp;B76&amp;" Description"</f>
         <v>Task Level 4 Description</v>
       </c>
       <c r="E76" s="52" t="s">
@@ -6014,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="61" t="str">
-        <f t="shared" ref="C82:C117" ca="1" si="21">IF(B82="","",IF(B82&gt;OFFSET(B82,-1,0,1,1),IF(OFFSET(C82,-1,0,1,1)="","1",OFFSET(C82,-1,0,1,1))&amp;REPT(".1",B82-MAX(OFFSET(B82,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C82,-1,0,1,1))),REPT("1.",B82-1)&amp;IFERROR(VALUE(OFFSET(C82,-1,0,1,1))+1,"1"),IF(B82=1,"",IFERROR(LEFT(OFFSET(C82,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C82,-1,0,1,1),".","^",B82-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C82,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C82,-1,0,1,1)))),(B82-1)*LEN(OFFSET(C82,-1,0,1,1))+1,LEN(OFFSET(C82,-1,0,1,1)))))+1)))</f>
+        <f t="shared" ref="C82:C87" ca="1" si="21">IF(B82="","",IF(B82&gt;OFFSET(B82,-1,0,1,1),IF(OFFSET(C82,-1,0,1,1)="","1",OFFSET(C82,-1,0,1,1))&amp;REPT(".1",B82-MAX(OFFSET(B82,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C82,-1,0,1,1))),REPT("1.",B82-1)&amp;IFERROR(VALUE(OFFSET(C82,-1,0,1,1))+1,"1"),IF(B82=1,"",IFERROR(LEFT(OFFSET(C82,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C82,-1,0,1,1),".","^",B82-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C82,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C82,-1,0,1,1)))),(B82-1)*LEN(OFFSET(C82,-1,0,1,1))+1,LEN(OFFSET(C82,-1,0,1,1)))))+1)))</f>
         <v>5</v>
       </c>
       <c r="D82" s="46" t="s">
@@ -6056,7 +5757,7 @@
         <v>44456</v>
       </c>
       <c r="J83" s="75" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M83" s="36"/>
     </row>
@@ -6163,7 +5864,9 @@
       <c r="G87" s="52"/>
       <c r="H87" s="72"/>
       <c r="I87" s="72"/>
-      <c r="J87" s="75"/>
+      <c r="J87" s="75" t="s">
+        <v>108</v>
+      </c>
       <c r="M87" s="35"/>
     </row>
     <row r="88" spans="2:13" ht="21" customHeight="1">
@@ -6189,7 +5892,9 @@
       </c>
       <c r="H88" s="72"/>
       <c r="I88" s="72"/>
-      <c r="J88" s="75"/>
+      <c r="J88" s="75" t="s">
+        <v>103</v>
+      </c>
       <c r="M88" s="35"/>
     </row>
     <row r="89" spans="2:13" ht="21" customHeight="1">
@@ -6211,7 +5916,9 @@
       <c r="G89" s="52"/>
       <c r="H89" s="72"/>
       <c r="I89" s="72"/>
-      <c r="J89" s="75"/>
+      <c r="J89" s="75" t="s">
+        <v>104</v>
+      </c>
       <c r="M89" s="35"/>
     </row>
     <row r="90" spans="2:13" ht="21" customHeight="1">
@@ -6487,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="61" t="str">
-        <f t="shared" ref="C101:C117" ca="1" si="26">IF(B101="","",IF(B101&gt;OFFSET(B101,-1,0,1,1),IF(OFFSET(C101,-1,0,1,1)="","1",OFFSET(C101,-1,0,1,1))&amp;REPT(".1",B101-MAX(OFFSET(B101,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C101,-1,0,1,1))),REPT("1.",B101-1)&amp;IFERROR(VALUE(OFFSET(C101,-1,0,1,1))+1,"1"),IF(B101=1,"",IFERROR(LEFT(OFFSET(C101,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C101,-1,0,1,1),".","^",B101-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C101,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C101,-1,0,1,1)))),(B101-1)*LEN(OFFSET(C101,-1,0,1,1))+1,LEN(OFFSET(C101,-1,0,1,1)))))+1)))</f>
+        <f t="shared" ref="C101:C106" ca="1" si="26">IF(B101="","",IF(B101&gt;OFFSET(B101,-1,0,1,1),IF(OFFSET(C101,-1,0,1,1)="","1",OFFSET(C101,-1,0,1,1))&amp;REPT(".1",B101-MAX(OFFSET(B101,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C101,-1,0,1,1))),REPT("1.",B101-1)&amp;IFERROR(VALUE(OFFSET(C101,-1,0,1,1))+1,"1"),IF(B101=1,"",IFERROR(LEFT(OFFSET(C101,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C101,-1,0,1,1),".","^",B101-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C101,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C101,-1,0,1,1)))),(B101-1)*LEN(OFFSET(C101,-1,0,1,1))+1,LEN(OFFSET(C101,-1,0,1,1)))))+1)))</f>
         <v>6</v>
       </c>
       <c r="D101" s="46" t="s">
@@ -6525,7 +6232,7 @@
         <v>44456</v>
       </c>
       <c r="J102" s="75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M102" s="36"/>
     </row>
@@ -6538,7 +6245,7 @@
         <v>6.2</v>
       </c>
       <c r="D103" s="47" t="str">
-        <f t="shared" ref="D103:D117" si="27">"Task Level "&amp;B103&amp;" Description"</f>
+        <f t="shared" ref="D103:D106" si="27">"Task Level "&amp;B103&amp;" Description"</f>
         <v>Task Level 2 Description</v>
       </c>
       <c r="E103" s="52" t="s">
@@ -6597,7 +6304,7 @@
       <c r="H105" s="72"/>
       <c r="I105" s="72"/>
       <c r="J105" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M105" s="35"/>
     </row>
@@ -6652,11 +6359,11 @@
         <v>4</v>
       </c>
       <c r="C108" s="61" t="str">
-        <f t="shared" ref="C108:C117" ca="1" si="28">IF(B108="","",IF(B108&gt;OFFSET(B108,-1,0,1,1),IF(OFFSET(C108,-1,0,1,1)="","1",OFFSET(C108,-1,0,1,1))&amp;REPT(".1",B108-MAX(OFFSET(B108,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C108,-1,0,1,1))),REPT("1.",B108-1)&amp;IFERROR(VALUE(OFFSET(C108,-1,0,1,1))+1,"1"),IF(B108=1,"",IFERROR(LEFT(OFFSET(C108,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C108,-1,0,1,1),".","^",B108-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C108,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C108,-1,0,1,1)))),(B108-1)*LEN(OFFSET(C108,-1,0,1,1))+1,LEN(OFFSET(C108,-1,0,1,1)))))+1)))</f>
+        <f t="shared" ref="C108:C113" ca="1" si="28">IF(B108="","",IF(B108&gt;OFFSET(B108,-1,0,1,1),IF(OFFSET(C108,-1,0,1,1)="","1",OFFSET(C108,-1,0,1,1))&amp;REPT(".1",B108-MAX(OFFSET(B108,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C108,-1,0,1,1))),REPT("1.",B108-1)&amp;IFERROR(VALUE(OFFSET(C108,-1,0,1,1))+1,"1"),IF(B108=1,"",IFERROR(LEFT(OFFSET(C108,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C108,-1,0,1,1),".","^",B108-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C108,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C108,-1,0,1,1)))),(B108-1)*LEN(OFFSET(C108,-1,0,1,1))+1,LEN(OFFSET(C108,-1,0,1,1)))))+1)))</f>
         <v>6.2.2.3</v>
       </c>
       <c r="D108" s="49" t="str">
-        <f t="shared" ref="D108:D117" si="29">"Task Level "&amp;B108&amp;" Description"</f>
+        <f t="shared" ref="D108:D110" si="29">"Task Level "&amp;B108&amp;" Description"</f>
         <v>Task Level 4 Description</v>
       </c>
       <c r="E108" s="52" t="s">
@@ -6746,7 +6453,7 @@
         <v>6.2.2.7</v>
       </c>
       <c r="D112" s="49" t="str">
-        <f t="shared" ref="D112:D117" si="30">"Task Level "&amp;B112&amp;" Description"</f>
+        <f t="shared" ref="D112:D113" si="30">"Task Level "&amp;B112&amp;" Description"</f>
         <v>Task Level 4 Description</v>
       </c>
       <c r="E112" s="52" t="s">
@@ -6872,1258 +6579,1263 @@
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="B6:D10 B15:D16 C17:C18 B25:F25 B24:D24 H16:I16 J35 B35:E35 B46:F46 I15 H19:J21 H6:I10 H46:J46 H24:J25 B21:F21 B19:E20 F13:G24 F6:F12">
-    <cfRule type="expression" dxfId="313" priority="310">
+    <cfRule type="expression" dxfId="261" priority="319">
       <formula>($B6=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15:J16 J6:J10">
-    <cfRule type="expression" dxfId="312" priority="309">
+  <conditionalFormatting sqref="J15 J6:J10">
+    <cfRule type="expression" dxfId="260" priority="318">
       <formula>($B6=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E10 E15:E16">
-    <cfRule type="expression" dxfId="311" priority="308">
+    <cfRule type="expression" dxfId="259" priority="317">
       <formula>($B6=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:I18 B18 D18">
-    <cfRule type="expression" dxfId="310" priority="304">
+    <cfRule type="expression" dxfId="258" priority="313">
       <formula>($B18=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="309" priority="303">
+    <cfRule type="expression" dxfId="257" priority="312">
       <formula>($B18=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="308" priority="302">
+    <cfRule type="expression" dxfId="256" priority="311">
       <formula>($B18=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:I17 B17 D17">
-    <cfRule type="expression" dxfId="307" priority="301">
+    <cfRule type="expression" dxfId="255" priority="310">
       <formula>($B17=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="expression" dxfId="306" priority="300">
+    <cfRule type="expression" dxfId="254" priority="309">
       <formula>($B17=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="305" priority="299">
+    <cfRule type="expression" dxfId="253" priority="308">
       <formula>($B17=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:I14 B14:D14">
-    <cfRule type="expression" dxfId="304" priority="295">
+    <cfRule type="expression" dxfId="252" priority="304">
       <formula>($B14=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="303" priority="294">
+    <cfRule type="expression" dxfId="251" priority="303">
       <formula>($B14=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="302" priority="293">
+    <cfRule type="expression" dxfId="250" priority="302">
       <formula>($B14=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:D23 H23:J23">
-    <cfRule type="expression" dxfId="301" priority="286">
+    <cfRule type="expression" dxfId="249" priority="295">
       <formula>($B23=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="300" priority="291">
+    <cfRule type="expression" dxfId="248" priority="300">
       <formula>($B24=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:D22 F22 I22:J22">
-    <cfRule type="expression" dxfId="299" priority="290">
+    <cfRule type="expression" dxfId="247" priority="299">
       <formula>($B22=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="298" priority="289">
+    <cfRule type="expression" dxfId="246" priority="298">
       <formula>($B22=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="297" priority="285">
+    <cfRule type="expression" dxfId="245" priority="294">
       <formula>($B23=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="296" priority="282">
+    <cfRule type="expression" dxfId="244" priority="291">
       <formula>($B13=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:E50 E55:E56">
-    <cfRule type="expression" dxfId="294" priority="246">
+    <cfRule type="expression" dxfId="243" priority="255">
       <formula>($B47=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:I13 B13:D13">
-    <cfRule type="expression" dxfId="293" priority="283">
+    <cfRule type="expression" dxfId="242" priority="292">
       <formula>($B13=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="expression" dxfId="292" priority="276">
+    <cfRule type="expression" dxfId="241" priority="285">
       <formula>($B39=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="291" priority="281">
+    <cfRule type="expression" dxfId="240" priority="290">
       <formula>($B13=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:D29 C38:C39 B45:D45 H45:J45 B40:E40 H35:I35 H26:I29 B41:F41 B42:E42 H40:J42">
-    <cfRule type="expression" dxfId="290" priority="280">
+    <cfRule type="expression" dxfId="239" priority="289">
       <formula>($B26=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:J29">
-    <cfRule type="expression" dxfId="289" priority="279">
+    <cfRule type="expression" dxfId="238" priority="288">
       <formula>($B26=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E29">
-    <cfRule type="expression" dxfId="288" priority="278">
+    <cfRule type="expression" dxfId="237" priority="287">
       <formula>($B26=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:I39 B39 D39">
-    <cfRule type="expression" dxfId="287" priority="277">
+    <cfRule type="expression" dxfId="236" priority="286">
       <formula>($B39=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="expression" dxfId="286" priority="197">
+    <cfRule type="expression" dxfId="235" priority="206">
       <formula>($B94=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="285" priority="275">
+    <cfRule type="expression" dxfId="234" priority="284">
       <formula>($B39=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:I38 B38 D38">
-    <cfRule type="expression" dxfId="284" priority="274">
+    <cfRule type="expression" dxfId="233" priority="283">
       <formula>($B38=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="expression" dxfId="283" priority="273">
+    <cfRule type="expression" dxfId="232" priority="282">
       <formula>($B38=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="282" priority="272">
+    <cfRule type="expression" dxfId="231" priority="281">
       <formula>($B38=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:I33 B33:D33">
-    <cfRule type="expression" dxfId="281" priority="271">
+    <cfRule type="expression" dxfId="230" priority="280">
       <formula>($B33=1)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="expression" dxfId="228" priority="278">
+      <formula>($B33=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" dxfId="227" priority="271">
+      <formula>($B44=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" dxfId="226" priority="277">
+      <formula>($B45=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:D43 I43:J43">
+    <cfRule type="expression" dxfId="225" priority="276">
+      <formula>($B43=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" dxfId="224" priority="275">
+      <formula>($B43=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="expression" dxfId="223" priority="262">
+      <formula>($B37=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:D44 H44:J44">
+    <cfRule type="expression" dxfId="222" priority="272">
+      <formula>($B44=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="221" priority="267">
+      <formula>($B32=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56:F59">
+    <cfRule type="expression" dxfId="220" priority="241">
+      <formula>($B56=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:I32 B32:D32">
+    <cfRule type="expression" dxfId="219" priority="269">
+      <formula>($B32=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="expression" dxfId="217" priority="261">
+      <formula>($B37=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:D34 H34:I34">
+    <cfRule type="expression" dxfId="216" priority="266">
+      <formula>($B34=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
+    <cfRule type="expression" dxfId="215" priority="265">
+      <formula>($B34=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="214" priority="264">
+      <formula>($B34=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:D37 I37">
+    <cfRule type="expression" dxfId="213" priority="263">
+      <formula>($B37=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="expression" dxfId="212" priority="258">
+      <formula>($B36=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F91 B91:D91 H91:I91">
+    <cfRule type="expression" dxfId="211" priority="182">
+      <formula>($B91=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:D36 I36">
+    <cfRule type="expression" dxfId="210" priority="260">
+      <formula>($B36=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="expression" dxfId="209" priority="259">
+      <formula>($B36=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="208" priority="252">
+      <formula>($B58=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:D50 B55:D56 C57:C58 B64:D64 F64 F47:F50 B59:E59 B60:F61 F54 H59:J61 H47:I50 H64:J64 H55:I56">
+    <cfRule type="expression" dxfId="207" priority="257">
+      <formula>($B47=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55:J56 J47:J50">
+    <cfRule type="expression" dxfId="206" priority="256">
+      <formula>($B47=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="205" priority="246">
+      <formula>($B54=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58:I58 B58 D58">
+    <cfRule type="expression" dxfId="204" priority="254">
+      <formula>($B58=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58">
+    <cfRule type="expression" dxfId="203" priority="253">
+      <formula>($B58=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H110:I110 B110 D110">
+    <cfRule type="expression" dxfId="202" priority="173">
+      <formula>($B110=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57:I57 B57 D57">
+    <cfRule type="expression" dxfId="201" priority="251">
+      <formula>($B57=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="expression" dxfId="200" priority="250">
+      <formula>($B57=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="199" priority="249">
+      <formula>($B57=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54:I54 B54:D54">
+    <cfRule type="expression" dxfId="198" priority="248">
+      <formula>($B54=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54">
+    <cfRule type="expression" dxfId="197" priority="247">
+      <formula>($B54=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="expression" dxfId="196" priority="242">
+      <formula>($B62=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="195" priority="245">
+      <formula>($B64=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:D62 I62:J62">
+    <cfRule type="expression" dxfId="194" priority="244">
+      <formula>($B62=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="193" priority="243">
+      <formula>($B62=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:E69 E72:E73">
+    <cfRule type="expression" dxfId="192" priority="232">
+      <formula>($B65=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:D63 F63 H63:J63">
+    <cfRule type="expression" dxfId="191" priority="240">
+      <formula>($B63=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="190" priority="239">
+      <formula>($B63=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="expression" dxfId="189" priority="238">
+      <formula>($B51=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:I51 B51:D51">
+    <cfRule type="expression" dxfId="188" priority="237">
+      <formula>($B51=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="expression" dxfId="187" priority="236">
+      <formula>($B51=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" dxfId="186" priority="235">
+      <formula>($B51=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:D69 B72:D73 C74:C75 B82:F82 B81:D81 F65 B76:E76 B77:F77 J90 B90:E90 B101:F101 H101:J101 H76:J78 H65:I69 H81:J82 H72:I73 F67 B78:E78">
+    <cfRule type="expression" dxfId="185" priority="234">
+      <formula>($B65=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J73 J65:J69">
+    <cfRule type="expression" dxfId="184" priority="233">
+      <formula>($B65=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75:I75 B75 D75">
+    <cfRule type="expression" dxfId="183" priority="231">
+      <formula>($B75=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75">
+    <cfRule type="expression" dxfId="182" priority="230">
+      <formula>($B75=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="181" priority="229">
+      <formula>($B75=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74:I74 B74 D74">
+    <cfRule type="expression" dxfId="180" priority="228">
+      <formula>($B74=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74">
+    <cfRule type="expression" dxfId="179" priority="227">
+      <formula>($B74=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" dxfId="178" priority="226">
+      <formula>($B74=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71:I71 B71:D71">
+    <cfRule type="expression" dxfId="177" priority="225">
+      <formula>($B71=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" dxfId="175" priority="223">
+      <formula>($B71=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="expression" dxfId="174" priority="219">
+      <formula>($B79=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="expression" dxfId="173" priority="222">
+      <formula>($B81=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79:D79 I79:J79">
+    <cfRule type="expression" dxfId="172" priority="221">
+      <formula>($B79=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="expression" dxfId="171" priority="220">
+      <formula>($B79=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80:D80 H80:J80">
+    <cfRule type="expression" dxfId="170" priority="217">
+      <formula>($B80=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="169" priority="216">
+      <formula>($B80=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70:I70 B70:D70">
+    <cfRule type="expression" dxfId="168" priority="214">
+      <formula>($B70=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J70">
+    <cfRule type="expression" dxfId="167" priority="213">
+      <formula>($B70=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="expression" dxfId="166" priority="212">
+      <formula>($B70=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83:D86 C93:C94 B100:D100 B95:E95 H90:I90 B96:F96 H83:I86 H95:J97 H100:J100 B97:E97">
+    <cfRule type="expression" dxfId="165" priority="211">
+      <formula>($B83=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83:J86">
+    <cfRule type="expression" dxfId="164" priority="210">
+      <formula>($B83=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E86">
+    <cfRule type="expression" dxfId="163" priority="209">
+      <formula>($B83=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94:I94 B94 D94">
+    <cfRule type="expression" dxfId="162" priority="208">
+      <formula>($B94=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J94">
+    <cfRule type="expression" dxfId="161" priority="207">
+      <formula>($B94=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" dxfId="160" priority="197">
+      <formula>($B98=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H93:I93 B93 D93">
+    <cfRule type="expression" dxfId="159" priority="205">
+      <formula>($B93=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J93">
+    <cfRule type="expression" dxfId="158" priority="204">
+      <formula>($B93=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="expression" dxfId="157" priority="203">
+      <formula>($B93=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88:I88 B88:D88">
+    <cfRule type="expression" dxfId="156" priority="202">
+      <formula>($B88=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="expression" dxfId="154" priority="200">
+      <formula>($B88=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H98">
+    <cfRule type="expression" dxfId="153" priority="196">
+      <formula>($B98=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="expression" dxfId="152" priority="199">
+      <formula>($B100=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B98:D98 F98 I98:J98">
+    <cfRule type="expression" dxfId="151" priority="198">
+      <formula>($B98=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99:D99 H99:J99">
+    <cfRule type="expression" dxfId="150" priority="194">
+      <formula>($B99=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="expression" dxfId="149" priority="193">
+      <formula>($B99=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I87 B87:D87">
+    <cfRule type="expression" dxfId="148" priority="191">
+      <formula>($B87=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="146" priority="189">
+      <formula>($B87=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F89 B89:D89 H89:I89">
+    <cfRule type="expression" dxfId="145" priority="188">
+      <formula>($B89=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="expression" dxfId="143" priority="186">
+      <formula>($B89=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92 B92:D92 H92:I92">
+    <cfRule type="expression" dxfId="142" priority="185">
+      <formula>($B92=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J92">
+    <cfRule type="expression" dxfId="141" priority="184">
+      <formula>($B92=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="expression" dxfId="140" priority="183">
+      <formula>($B92=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J91">
+    <cfRule type="expression" dxfId="139" priority="181">
+      <formula>($B91=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="expression" dxfId="138" priority="180">
+      <formula>($B91=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B102:D105 B108:D109 C110:C111 B117:D117 F117 B112:E112 B113:F114 F108 H112:J114 H102:I105 H117:J117 H108:I109">
+    <cfRule type="expression" dxfId="137" priority="179">
+      <formula>($B102=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J108:J109 J102:J105">
+    <cfRule type="expression" dxfId="136" priority="178">
+      <formula>($B102=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102:E105 E108:E109">
+    <cfRule type="expression" dxfId="135" priority="177">
+      <formula>($B102=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H111:I111 B111 D111">
+    <cfRule type="expression" dxfId="134" priority="176">
+      <formula>($B111=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J111">
+    <cfRule type="expression" dxfId="133" priority="175">
+      <formula>($B111=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="expression" dxfId="132" priority="174">
+      <formula>($B111=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H115">
+    <cfRule type="expression" dxfId="131" priority="164">
+      <formula>($B115=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J110">
+    <cfRule type="expression" dxfId="130" priority="172">
+      <formula>($B110=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="expression" dxfId="129" priority="171">
+      <formula>($B110=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H107:I107 B107:D107">
+    <cfRule type="expression" dxfId="128" priority="170">
+      <formula>($B107=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J107">
+    <cfRule type="expression" dxfId="127" priority="169">
+      <formula>($B107=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="expression" dxfId="126" priority="168">
+      <formula>($B107=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="expression" dxfId="125" priority="167">
+      <formula>($B117=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B115:D115 F115 I115:J115">
+    <cfRule type="expression" dxfId="124" priority="166">
+      <formula>($B115=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="expression" dxfId="123" priority="165">
+      <formula>($B115=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109:F112">
+    <cfRule type="expression" dxfId="122" priority="163">
+      <formula>($B109=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116:D116 F116 H116:J116">
+    <cfRule type="expression" dxfId="121" priority="162">
+      <formula>($B116=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="expression" dxfId="120" priority="161">
+      <formula>($B116=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H106:I106 B106:D106">
+    <cfRule type="expression" dxfId="119" priority="159">
+      <formula>($B106=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J106">
+    <cfRule type="expression" dxfId="118" priority="158">
+      <formula>($B106=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="expression" dxfId="117" priority="157">
+      <formula>($B106=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:H37">
+    <cfRule type="expression" dxfId="116" priority="148">
+      <formula>($B36=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="expression" dxfId="115" priority="144">
+      <formula>($B53=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83:G86 G88 G96:G97 G100">
+    <cfRule type="expression" dxfId="114" priority="115">
+      <formula>($B83=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F33">
+    <cfRule type="expression" dxfId="113" priority="153">
+      <formula>($B26=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
+    <cfRule type="expression" dxfId="112" priority="114">
+      <formula>($B98=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="expression" dxfId="111" priority="145">
+      <formula>($B15=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="expression" dxfId="109" priority="147">
+      <formula>($B43=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="expression" dxfId="108" priority="146">
+      <formula>($B22=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52:I52 B52:D52">
+    <cfRule type="expression" dxfId="107" priority="139">
+      <formula>($B52=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="expression" dxfId="106" priority="59">
+      <formula>($B55=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53:I53 B53:D53">
+    <cfRule type="expression" dxfId="105" priority="143">
+      <formula>($B53=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="103" priority="141">
+      <formula>($B53=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="expression" dxfId="102" priority="140">
+      <formula>($B52=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55">
+    <cfRule type="expression" dxfId="101" priority="60">
+      <formula>($B55=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:I31 B31:D31">
+    <cfRule type="expression" dxfId="100" priority="50">
+      <formula>($B31=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="99" priority="137">
+      <formula>($B52=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="98" priority="90">
+      <formula>($B24=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="expression" dxfId="97" priority="91">
+      <formula>($B23=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25 G46 G6:G7 G14:G15 G21">
+    <cfRule type="expression" dxfId="96" priority="134">
+      <formula>($B6=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="expression" dxfId="95" priority="133">
+      <formula>($B22=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G13">
+    <cfRule type="expression" dxfId="94" priority="89">
+      <formula>($B8=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="expression" dxfId="93" priority="131">
+      <formula>($B41=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G92">
+    <cfRule type="expression" dxfId="92" priority="109">
+      <formula>($B92=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89">
+    <cfRule type="expression" dxfId="91" priority="110">
+      <formula>($B89=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G60">
+    <cfRule type="expression" dxfId="90" priority="125">
+      <formula>($B60=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G33">
+    <cfRule type="expression" dxfId="89" priority="102">
+      <formula>($B26=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82 G65:G67 G77 G101">
+    <cfRule type="expression" dxfId="88" priority="120">
+      <formula>($B65=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91">
+    <cfRule type="expression" dxfId="87" priority="108">
+      <formula>($B91=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G115">
+    <cfRule type="expression" dxfId="86" priority="106">
+      <formula>($B115=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G109:G112">
+    <cfRule type="expression" dxfId="85" priority="105">
+      <formula>($B109=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117 G102:G105 G113:G114 G107:G108">
+    <cfRule type="expression" dxfId="84" priority="107">
+      <formula>($B102=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G116">
+    <cfRule type="expression" dxfId="83" priority="104">
+      <formula>($B116=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G106">
+    <cfRule type="expression" dxfId="82" priority="103">
+      <formula>($B106=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G24">
+    <cfRule type="expression" dxfId="81" priority="87">
+      <formula>($B23=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="expression" dxfId="80" priority="76">
+      <formula>($B22=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="expression" dxfId="79" priority="73">
+      <formula>($B34=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43">
+    <cfRule type="expression" dxfId="78" priority="67">
+      <formula>($B43=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="77" priority="86">
+      <formula>($B20=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63:G64">
+    <cfRule type="expression" dxfId="76" priority="62">
+      <formula>($B63=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="expression" dxfId="75" priority="53">
+      <formula>($B30=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="expression" dxfId="74" priority="93">
+      <formula>($B15=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F19">
+    <cfRule type="expression" dxfId="73" priority="92">
+      <formula>($B16=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G19">
+    <cfRule type="expression" dxfId="72" priority="88">
+      <formula>($B16=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="expression" dxfId="71" priority="78">
+      <formula>($B42=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:G45">
+    <cfRule type="expression" dxfId="70" priority="77">
+      <formula>($B44=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="69" priority="85">
+      <formula>($B20=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="expression" dxfId="68" priority="84">
+      <formula>($B35=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="expression" dxfId="67" priority="83">
+      <formula>($B35=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F40">
+    <cfRule type="expression" dxfId="66" priority="82">
+      <formula>($B38=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="expression" dxfId="65" priority="81">
+      <formula>($B42=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:F45">
+    <cfRule type="expression" dxfId="64" priority="80">
+      <formula>($B44=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38:G40">
+    <cfRule type="expression" dxfId="63" priority="79">
+      <formula>($B38=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="expression" dxfId="62" priority="75">
+      <formula>($B22=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:G34">
+    <cfRule type="expression" dxfId="61" priority="74">
+      <formula>($B34=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56:G59">
+    <cfRule type="expression" dxfId="60" priority="64">
+      <formula>($B56=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="expression" dxfId="59" priority="72">
+      <formula>($B34=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36:G37">
+    <cfRule type="expression" dxfId="58" priority="71">
+      <formula>($B36=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G37">
+    <cfRule type="expression" dxfId="57" priority="70">
+      <formula>($B36=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36:F37">
+    <cfRule type="expression" dxfId="56" priority="69">
+      <formula>($B36=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:G43">
+    <cfRule type="expression" dxfId="55" priority="68">
+      <formula>($B43=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="expression" dxfId="54" priority="66">
+      <formula>($B43=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47:G54">
+    <cfRule type="expression" dxfId="53" priority="65">
+      <formula>($B47=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G61">
+    <cfRule type="expression" dxfId="52" priority="63">
+      <formula>($B61=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55:G55">
+    <cfRule type="expression" dxfId="51" priority="61">
+      <formula>($B55=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62:G62">
+    <cfRule type="expression" dxfId="50" priority="58">
+      <formula>($B62=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62">
+    <cfRule type="expression" dxfId="49" priority="57">
+      <formula>($B62=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="expression" dxfId="48" priority="56">
+      <formula>($B62=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:I30 B30:D30">
+    <cfRule type="expression" dxfId="47" priority="54">
+      <formula>($B30=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="46" priority="52">
+      <formula>($B30=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="expression" dxfId="45" priority="49">
+      <formula>($B31=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="44" priority="48">
+      <formula>($B31=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:I12 B12:D12">
+    <cfRule type="expression" dxfId="43" priority="41">
+      <formula>($B12=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="expression" dxfId="42" priority="43">
+      <formula>($B11=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:I11 B11:D11">
+    <cfRule type="expression" dxfId="41" priority="44">
+      <formula>($B11=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="expression" dxfId="40" priority="42">
+      <formula>($B11=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="expression" dxfId="39" priority="40">
+      <formula>($B12=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="38" priority="39">
+      <formula>($B12=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66">
+    <cfRule type="expression" dxfId="37" priority="38">
+      <formula>($B66=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68:F71 F73:F76">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>($B68=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68:G71 G73:G76">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>($B68=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:G72">
+    <cfRule type="expression" dxfId="34" priority="33">
+      <formula>($B72=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G72">
+    <cfRule type="expression" dxfId="33" priority="32">
+      <formula>($B72=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72">
+    <cfRule type="expression" dxfId="32" priority="31">
+      <formula>($B72=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78">
+    <cfRule type="expression" dxfId="31" priority="30">
+      <formula>($B78=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
+    <cfRule type="expression" dxfId="30" priority="29">
+      <formula>($B78=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80:F81">
+    <cfRule type="expression" dxfId="29" priority="28">
+      <formula>($B80=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80:G81">
+    <cfRule type="expression" dxfId="28" priority="27">
+      <formula>($B80=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79:G79">
+    <cfRule type="expression" dxfId="27" priority="26">
+      <formula>($B79=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79">
+    <cfRule type="expression" dxfId="26" priority="25">
+      <formula>($B79=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79">
+    <cfRule type="expression" dxfId="25" priority="24">
+      <formula>($B79=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83:F86 F88">
+    <cfRule type="expression" dxfId="24" priority="23">
+      <formula>($B83=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90">
+    <cfRule type="expression" dxfId="23" priority="22">
+      <formula>($B90=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F93:F95">
+    <cfRule type="expression" dxfId="22" priority="21">
+      <formula>($B93=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97">
+    <cfRule type="expression" dxfId="21" priority="20">
+      <formula>($B97=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F99:F100">
+    <cfRule type="expression" dxfId="20" priority="19">
+      <formula>($B99=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87:G87">
+    <cfRule type="expression" dxfId="19" priority="18">
+      <formula>($B87=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G87">
+    <cfRule type="expression" dxfId="18" priority="17">
+      <formula>($B87=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87">
+    <cfRule type="expression" dxfId="17" priority="16">
+      <formula>($B87=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F102:F107">
+    <cfRule type="expression" dxfId="16" priority="15">
+      <formula>($B102=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90">
+    <cfRule type="expression" dxfId="15" priority="14">
+      <formula>($B90=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G93">
+    <cfRule type="expression" dxfId="14" priority="13">
+      <formula>($B93=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G94">
+    <cfRule type="expression" dxfId="13" priority="12">
+      <formula>($B94=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G95">
+    <cfRule type="expression" dxfId="12" priority="11">
+      <formula>($B95=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>($B99=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>($B52=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>($B16=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="expression" dxfId="280" priority="270">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>($B33=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="279" priority="269">
-      <formula>($B33=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="278" priority="262">
-      <formula>($B44=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="277" priority="268">
-      <formula>($B45=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43:D43 I43:J43">
-    <cfRule type="expression" dxfId="276" priority="267">
-      <formula>($B43=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="275" priority="266">
-      <formula>($B43=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="expression" dxfId="274" priority="253">
-      <formula>($B37=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:D44 H44:J44">
-    <cfRule type="expression" dxfId="273" priority="263">
-      <formula>($B44=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="272" priority="258">
+  <conditionalFormatting sqref="J32">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>($B32=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56:F59">
-    <cfRule type="expression" dxfId="271" priority="232">
-      <formula>($B56=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32:I32 B32:D32">
-    <cfRule type="expression" dxfId="270" priority="260">
-      <formula>($B32=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="expression" dxfId="269" priority="259">
-      <formula>($B32=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="268" priority="252">
-      <formula>($B37=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:D34 H34:I34">
-    <cfRule type="expression" dxfId="267" priority="257">
-      <formula>($B34=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="expression" dxfId="266" priority="256">
-      <formula>($B34=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="265" priority="255">
-      <formula>($B34=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37:D37 I37">
-    <cfRule type="expression" dxfId="264" priority="254">
-      <formula>($B37=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="263" priority="249">
-      <formula>($B36=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91 B91:D91 H91:I91">
-    <cfRule type="expression" dxfId="262" priority="173">
-      <formula>($B91=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:D36 I36">
-    <cfRule type="expression" dxfId="261" priority="251">
-      <formula>($B36=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
-    <cfRule type="expression" dxfId="260" priority="250">
-      <formula>($B36=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="259" priority="243">
-      <formula>($B58=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47:D50 B55:D56 C57:C58 B64:D64 F64 F47:F50 B59:E59 B60:F61 F54 H59:J61 H47:I50 H64:J64 H55:I56">
-    <cfRule type="expression" dxfId="258" priority="248">
-      <formula>($B47=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J55:J56 J47:J50">
-    <cfRule type="expression" dxfId="257" priority="247">
-      <formula>($B47=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="256" priority="237">
-      <formula>($B54=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58:I58 B58 D58">
-    <cfRule type="expression" dxfId="255" priority="245">
-      <formula>($B58=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
-    <cfRule type="expression" dxfId="254" priority="244">
-      <formula>($B58=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H110:I110 B110 D110">
-    <cfRule type="expression" dxfId="253" priority="164">
-      <formula>($B110=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57:I57 B57 D57">
-    <cfRule type="expression" dxfId="252" priority="242">
-      <formula>($B57=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
-    <cfRule type="expression" dxfId="251" priority="241">
-      <formula>($B57=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="250" priority="240">
-      <formula>($B57=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54:I54 B54:D54">
-    <cfRule type="expression" dxfId="249" priority="239">
-      <formula>($B54=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="expression" dxfId="248" priority="238">
-      <formula>($B54=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="expression" dxfId="246" priority="233">
-      <formula>($B62=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="245" priority="236">
-      <formula>($B64=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62:D62 I62:J62">
-    <cfRule type="expression" dxfId="244" priority="235">
-      <formula>($B62=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="243" priority="234">
-      <formula>($B62=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65:E69 E72:E73">
-    <cfRule type="expression" dxfId="242" priority="223">
-      <formula>($B65=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:D63 F63 H63:J63">
-    <cfRule type="expression" dxfId="241" priority="231">
-      <formula>($B63=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="240" priority="230">
-      <formula>($B63=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="expression" dxfId="239" priority="229">
-      <formula>($B51=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51:I51 B51:D51">
-    <cfRule type="expression" dxfId="238" priority="228">
-      <formula>($B51=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="expression" dxfId="237" priority="227">
-      <formula>($B51=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="236" priority="226">
-      <formula>($B51=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65:D69 B72:D73 C74:C75 B82:F82 B81:D81 F65 B76:E76 B77:F77 J90 B90:E90 B101:F101 H101:J101 H76:J78 H65:I69 H81:J82 H72:I73 F67 B78:E78">
-    <cfRule type="expression" dxfId="235" priority="225">
-      <formula>($B65=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72:J73 J65:J69">
-    <cfRule type="expression" dxfId="234" priority="224">
-      <formula>($B65=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75:I75 B75 D75">
-    <cfRule type="expression" dxfId="232" priority="222">
-      <formula>($B75=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J75">
-    <cfRule type="expression" dxfId="231" priority="221">
-      <formula>($B75=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="230" priority="220">
-      <formula>($B75=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74:I74 B74 D74">
-    <cfRule type="expression" dxfId="229" priority="219">
-      <formula>($B74=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J74">
-    <cfRule type="expression" dxfId="228" priority="218">
-      <formula>($B74=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="227" priority="217">
-      <formula>($B74=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71:I71 B71:D71">
-    <cfRule type="expression" dxfId="226" priority="216">
+  <conditionalFormatting sqref="J71">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>($B71=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J71">
-    <cfRule type="expression" dxfId="225" priority="215">
-      <formula>($B71=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="224" priority="214">
-      <formula>($B71=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="expression" dxfId="223" priority="210">
-      <formula>($B79=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="expression" dxfId="222" priority="213">
-      <formula>($B81=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79:D79 I79:J79">
-    <cfRule type="expression" dxfId="221" priority="212">
-      <formula>($B79=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="220" priority="211">
-      <formula>($B79=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80:D80 H80:J80">
-    <cfRule type="expression" dxfId="218" priority="208">
-      <formula>($B80=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="217" priority="207">
-      <formula>($B80=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70:I70 B70:D70">
-    <cfRule type="expression" dxfId="215" priority="205">
-      <formula>($B70=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J70">
-    <cfRule type="expression" dxfId="214" priority="204">
-      <formula>($B70=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="213" priority="203">
-      <formula>($B70=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83:D86 C93:C94 B100:D100 B95:E95 H90:I90 B96:F96 H83:I86 H95:J97 H100:J100 B97:E97">
-    <cfRule type="expression" dxfId="212" priority="202">
-      <formula>($B83=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J83:J86">
-    <cfRule type="expression" dxfId="211" priority="201">
-      <formula>($B83=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E86">
-    <cfRule type="expression" dxfId="210" priority="200">
-      <formula>($B83=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H94:I94 B94 D94">
-    <cfRule type="expression" dxfId="209" priority="199">
-      <formula>($B94=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J94">
-    <cfRule type="expression" dxfId="208" priority="198">
-      <formula>($B94=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="expression" dxfId="207" priority="188">
-      <formula>($B98=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H93:I93 B93 D93">
-    <cfRule type="expression" dxfId="206" priority="196">
-      <formula>($B93=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J93">
-    <cfRule type="expression" dxfId="205" priority="195">
-      <formula>($B93=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="expression" dxfId="204" priority="194">
-      <formula>($B93=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88:I88 B88:D88">
-    <cfRule type="expression" dxfId="203" priority="193">
+  <conditionalFormatting sqref="J53">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>($B53=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J87">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>($B87=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J89">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>($B89=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J88">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>($B88=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J88">
-    <cfRule type="expression" dxfId="202" priority="192">
-      <formula>($B88=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="expression" dxfId="201" priority="191">
-      <formula>($B88=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
-    <cfRule type="expression" dxfId="200" priority="187">
-      <formula>($B98=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="expression" dxfId="199" priority="190">
-      <formula>($B100=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B98:D98 F98 I98:J98">
-    <cfRule type="expression" dxfId="198" priority="189">
-      <formula>($B98=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B99:D99 H99:J99">
-    <cfRule type="expression" dxfId="195" priority="185">
-      <formula>($B99=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="194" priority="184">
-      <formula>($B99=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H87:I87 B87:D87">
-    <cfRule type="expression" dxfId="192" priority="182">
-      <formula>($B87=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J87">
-    <cfRule type="expression" dxfId="191" priority="181">
-      <formula>($B87=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" dxfId="190" priority="180">
-      <formula>($B87=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89 B89:D89 H89:I89">
-    <cfRule type="expression" dxfId="189" priority="179">
-      <formula>($B89=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J89">
-    <cfRule type="expression" dxfId="188" priority="178">
-      <formula>($B89=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="expression" dxfId="187" priority="177">
-      <formula>($B89=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92 B92:D92 H92:I92">
-    <cfRule type="expression" dxfId="186" priority="176">
-      <formula>($B92=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J92">
-    <cfRule type="expression" dxfId="185" priority="175">
-      <formula>($B92=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="expression" dxfId="184" priority="174">
-      <formula>($B92=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J91">
-    <cfRule type="expression" dxfId="182" priority="172">
-      <formula>($B91=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="expression" dxfId="181" priority="171">
-      <formula>($B91=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B102:D105 B108:D109 C110:C111 B117:D117 F117 B112:E112 B113:F114 F108 H112:J114 H102:I105 H117:J117 H108:I109">
-    <cfRule type="expression" dxfId="180" priority="170">
-      <formula>($B102=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J108:J109 J102:J105">
-    <cfRule type="expression" dxfId="179" priority="169">
-      <formula>($B102=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102:E105 E108:E109">
-    <cfRule type="expression" dxfId="178" priority="168">
-      <formula>($B102=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H111:I111 B111 D111">
-    <cfRule type="expression" dxfId="177" priority="167">
-      <formula>($B111=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J111">
-    <cfRule type="expression" dxfId="176" priority="166">
-      <formula>($B111=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="expression" dxfId="175" priority="165">
-      <formula>($B111=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H115">
-    <cfRule type="expression" dxfId="174" priority="155">
-      <formula>($B115=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J110">
-    <cfRule type="expression" dxfId="173" priority="163">
-      <formula>($B110=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="expression" dxfId="172" priority="162">
-      <formula>($B110=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H107:I107 B107:D107">
-    <cfRule type="expression" dxfId="171" priority="161">
-      <formula>($B107=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J107">
-    <cfRule type="expression" dxfId="170" priority="160">
-      <formula>($B107=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="169" priority="159">
-      <formula>($B107=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="expression" dxfId="167" priority="158">
-      <formula>($B117=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B115:D115 F115 I115:J115">
-    <cfRule type="expression" dxfId="166" priority="157">
-      <formula>($B115=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="expression" dxfId="165" priority="156">
-      <formula>($B115=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F109:F112">
-    <cfRule type="expression" dxfId="164" priority="154">
-      <formula>($B109=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B116:D116 F116 H116:J116">
-    <cfRule type="expression" dxfId="163" priority="153">
-      <formula>($B116=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="expression" dxfId="162" priority="152">
-      <formula>($B116=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H106:I106 B106:D106">
-    <cfRule type="expression" dxfId="160" priority="150">
-      <formula>($B106=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J106">
-    <cfRule type="expression" dxfId="159" priority="149">
-      <formula>($B106=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="158" priority="148">
-      <formula>($B106=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36:H37">
-    <cfRule type="expression" dxfId="157" priority="139">
-      <formula>($B36=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="expression" dxfId="156" priority="135">
-      <formula>($B53=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G83:G86 G88 G96:G97 G100">
-    <cfRule type="expression" dxfId="155" priority="106">
-      <formula>($B83=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F33">
-    <cfRule type="expression" dxfId="154" priority="144">
-      <formula>($B26=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
-    <cfRule type="expression" dxfId="153" priority="105">
-      <formula>($B98=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="150" priority="136">
-      <formula>($B15=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="expression" dxfId="149" priority="129">
-      <formula>($B52=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="expression" dxfId="148" priority="138">
-      <formula>($B43=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="147" priority="137">
-      <formula>($B22=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52:I52 B52:D52">
-    <cfRule type="expression" dxfId="146" priority="130">
-      <formula>($B52=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="expression" dxfId="145" priority="50">
-      <formula>($B55=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53:I53 B53:D53">
-    <cfRule type="expression" dxfId="144" priority="134">
-      <formula>($B53=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="expression" dxfId="143" priority="133">
-      <formula>($B53=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="142" priority="132">
-      <formula>($B53=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="expression" dxfId="141" priority="131">
-      <formula>($B52=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G55">
-    <cfRule type="expression" dxfId="140" priority="51">
-      <formula>($B55=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:I31 B31:D31">
-    <cfRule type="expression" dxfId="139" priority="41">
-      <formula>($B31=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="138" priority="128">
-      <formula>($B52=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="137" priority="81">
-      <formula>($B24=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="136" priority="82">
-      <formula>($B23=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25 G46 G6:G7 G14:G15 G21">
-    <cfRule type="expression" dxfId="135" priority="125">
-      <formula>($B6=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="134" priority="124">
-      <formula>($B22=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G13">
-    <cfRule type="expression" dxfId="133" priority="80">
-      <formula>($B8=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="expression" dxfId="132" priority="122">
-      <formula>($B41=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G92">
-    <cfRule type="expression" dxfId="129" priority="100">
-      <formula>($B92=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
-    <cfRule type="expression" dxfId="127" priority="101">
-      <formula>($B89=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G60">
-    <cfRule type="expression" dxfId="126" priority="116">
-      <formula>($B60=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G33">
-    <cfRule type="expression" dxfId="122" priority="93">
-      <formula>($B26=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82 G65:G67 G77 G101">
-    <cfRule type="expression" dxfId="121" priority="111">
-      <formula>($B65=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G91">
-    <cfRule type="expression" dxfId="118" priority="99">
-      <formula>($B91=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G115">
-    <cfRule type="expression" dxfId="116" priority="97">
-      <formula>($B115=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G109:G112">
-    <cfRule type="expression" dxfId="115" priority="96">
-      <formula>($B109=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G117 G102:G105 G113:G114 G107:G108">
-    <cfRule type="expression" dxfId="108" priority="98">
-      <formula>($B102=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G116">
-    <cfRule type="expression" dxfId="105" priority="95">
-      <formula>($B116=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G106">
-    <cfRule type="expression" dxfId="104" priority="94">
-      <formula>($B106=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G24">
-    <cfRule type="expression" dxfId="103" priority="78">
-      <formula>($B23=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="102" priority="67">
-      <formula>($B22=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="100" priority="64">
-      <formula>($B34=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
-    <cfRule type="expression" dxfId="99" priority="58">
-      <formula>($B43=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="97" priority="77">
-      <formula>($B20=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G63:G64">
-    <cfRule type="expression" dxfId="96" priority="53">
-      <formula>($B63=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="expression" dxfId="95" priority="44">
-      <formula>($B30=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="94" priority="84">
-      <formula>($B15=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F19">
-    <cfRule type="expression" dxfId="93" priority="83">
-      <formula>($B16=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G19">
-    <cfRule type="expression" dxfId="89" priority="79">
-      <formula>($B16=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
-    <cfRule type="expression" dxfId="88" priority="69">
-      <formula>($B42=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44:G45">
-    <cfRule type="expression" dxfId="87" priority="68">
-      <formula>($B44=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="86" priority="76">
-      <formula>($B20=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="expression" dxfId="85" priority="75">
-      <formula>($B35=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="84" priority="74">
-      <formula>($B35=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F40">
-    <cfRule type="expression" dxfId="83" priority="73">
-      <formula>($B38=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="expression" dxfId="82" priority="72">
-      <formula>($B42=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F45">
-    <cfRule type="expression" dxfId="81" priority="71">
-      <formula>($B44=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38:G40">
-    <cfRule type="expression" dxfId="80" priority="70">
-      <formula>($B38=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="76" priority="66">
-      <formula>($B22=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34:G34">
-    <cfRule type="expression" dxfId="75" priority="65">
-      <formula>($B34=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56:G59">
-    <cfRule type="expression" dxfId="74" priority="55">
-      <formula>($B56=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="73" priority="63">
-      <formula>($B34=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:G37">
-    <cfRule type="expression" dxfId="72" priority="62">
-      <formula>($B36=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36:G37">
-    <cfRule type="expression" dxfId="71" priority="61">
-      <formula>($B36=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F37">
-    <cfRule type="expression" dxfId="70" priority="60">
-      <formula>($B36=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:G43">
-    <cfRule type="expression" dxfId="69" priority="59">
-      <formula>($B43=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="expression" dxfId="67" priority="57">
-      <formula>($B43=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47:G54">
-    <cfRule type="expression" dxfId="66" priority="56">
-      <formula>($B47=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G61">
-    <cfRule type="expression" dxfId="64" priority="54">
-      <formula>($B61=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55:G55">
-    <cfRule type="expression" dxfId="62" priority="52">
-      <formula>($B55=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62:G62">
-    <cfRule type="expression" dxfId="59" priority="49">
-      <formula>($B62=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G62">
-    <cfRule type="expression" dxfId="58" priority="48">
-      <formula>($B62=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="expression" dxfId="57" priority="47">
-      <formula>($B62=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30:I30 B30:D30">
-    <cfRule type="expression" dxfId="55" priority="45">
-      <formula>($B30=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="53" priority="43">
-      <formula>($B30=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="52" priority="40">
-      <formula>($B31=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="49" priority="39">
-      <formula>($B31=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:I12 B12:D12">
-    <cfRule type="expression" dxfId="36" priority="32">
-      <formula>($B12=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="34" priority="34">
-      <formula>($B11=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11:I11 B11:D11">
-    <cfRule type="expression" dxfId="33" priority="35">
-      <formula>($B11=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="32" priority="33">
-      <formula>($B11=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="31" priority="31">
-      <formula>($B12=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="30" priority="30">
-      <formula>($B12=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="expression" dxfId="29" priority="29">
-      <formula>($B66=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68:F71 F73:F76">
-    <cfRule type="expression" dxfId="28" priority="28">
-      <formula>($B68=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G68:G71 G73:G76">
-    <cfRule type="expression" dxfId="27" priority="27">
-      <formula>($B68=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F72:G72">
-    <cfRule type="expression" dxfId="24" priority="24">
-      <formula>($B72=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G72">
-    <cfRule type="expression" dxfId="23" priority="23">
-      <formula>($B72=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F72">
-    <cfRule type="expression" dxfId="22" priority="22">
-      <formula>($B72=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>($B78=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>($B78=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F80:F81">
-    <cfRule type="expression" dxfId="19" priority="19">
-      <formula>($B80=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G80:G81">
-    <cfRule type="expression" dxfId="18" priority="18">
-      <formula>($B80=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79:G79">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>($B79=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79">
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>($B79=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>($B79=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83:F86 F88">
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>($B83=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>($B90=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F93:F95">
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>($B93=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>($B97=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F99:F100">
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>($B99=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>($B87=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G87">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>($B87=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>($B87=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F102:F107">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>($B102=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G90">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>($B90=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G93">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>($B93=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G94">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>($B94=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G95">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>($B95=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G99">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>($B99=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -8641,12 +8353,12 @@
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="B6:G30">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>($B6=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>($B6=1)</formula>
     </cfRule>
   </conditionalFormatting>
